--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\MscTournamentRatings\MscTournamentRatings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00693256-7059-4ACB-991D-1785545576C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD0E9D-89DC-4B79-9B3D-3E449E856169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="307">
   <si>
     <t>Day</t>
   </si>
@@ -1393,9 +1393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
   <dimension ref="A1:U331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:U331"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27846,10 +27846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U136"/>
+  <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34657,7 +34657,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O136" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O138" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -34681,7 +34681,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U136" si="16">O86</f>
+        <f t="shared" ref="U86:U138" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -34789,31 +34789,31 @@
         <v>288</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H136" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H138" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I136" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I138" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J136" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J138" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K136" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K138" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L136" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L138" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M136" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M138" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N136" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N138" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -34821,23 +34821,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P136" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P138" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q136" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q138" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R136" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R138" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S136" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S138" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T136" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T138" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -34850,7 +34850,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B136" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B138" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -38683,6 +38683,166 @@
       <c r="U136" t="str">
         <f t="shared" si="16"/>
         <v>// Basketball Scoring Tourney Grand Final</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="29"/>
+        <v>189</v>
+      </c>
+      <c r="C137" t="s">
+        <v>240</v>
+      </c>
+      <c r="D137" t="s">
+        <v>244</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s">
+        <v>305</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Teke"][0], WHResult.Player1Win, 189);</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Teke"][0], WHResult.Player1Win, 189);</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Teke"][0], WHResult.Player1Win, 189);</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["Teke"][2]++; </v>
+      </c>
+      <c r="Q137" t="str">
+        <f t="shared" si="25"/>
+        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+      </c>
+      <c r="R137" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Teke"][3] = players["Teke"][3] + 0;</v>
+      </c>
+      <c r="S137" t="str">
+        <f t="shared" si="27"/>
+        <v>players["banana_steals"][4] = players["banana_steals"][4] + 0;</v>
+      </c>
+      <c r="T137" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Teke"][4] = players["Teke"][4] + 3;</v>
+      </c>
+      <c r="U137" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C138" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" t="s">
+        <v>245</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s">
+        <v>305</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player2Win, 190);</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player2Win, 190);</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P138" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Mylo Grams"][1]++; players["NukeTheWales"][2]++; </v>
+      </c>
+      <c r="Q138" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 3;</v>
+      </c>
+      <c r="R138" t="str">
+        <f t="shared" si="26"/>
+        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 2;</v>
+      </c>
+      <c r="S138" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 2;</v>
+      </c>
+      <c r="T138" t="str">
+        <f t="shared" si="28"/>
+        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
+      </c>
+      <c r="U138" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
       </c>
     </row>
   </sheetData>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD0E9D-89DC-4B79-9B3D-3E449E856169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872448E1-5CBC-4908-881A-0B905E8AF747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="57480" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="308">
   <si>
     <t>Day</t>
   </si>
@@ -963,6 +963,9 @@
   <si>
     <t>Zeiger</t>
   </si>
+  <si>
+    <t>ThisIsMyUsername</t>
+  </si>
 </sst>
 </file>
 
@@ -1391,18 +1394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -21917,7 +21921,7 @@
         <v>44211</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B331" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
+        <f t="shared" ref="B258:B334" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
         <v>582</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -21936,59 +21940,59 @@
         <v>12</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H331" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="H258:H333" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I258" t="str">
-        <f t="shared" ref="I258:I331" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="I258:I333" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player2Win, 582);</v>
       </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J331" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="J258:J333" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" ref="K258:K331" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="K258:K333" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="L258" t="str">
-        <f t="shared" ref="L258:L331" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="L258:L333" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M258" t="str">
-        <f t="shared" ref="M258:M331" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="M258:M333" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="N258" t="str">
-        <f t="shared" ref="N258:N331" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="N258:N333" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="O258" t="str">
-        <f t="shared" ref="O258:O331" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
+        <f t="shared" ref="O258:O333" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" ref="P258:P331" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P258:P333" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["einBirnenbaum"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q258" t="str">
-        <f t="shared" ref="Q258:Q331" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="Q258:Q333" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R258" t="str">
-        <f t="shared" ref="R258:R331" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="R258:R333" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
         <v>players["BKXO"][3] = players["BKXO"][3] + 1;</v>
       </c>
       <c r="S258" t="str">
-        <f t="shared" ref="S258:S331" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="S258:S333" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 1;</v>
       </c>
       <c r="T258" t="str">
-        <f t="shared" ref="T258:T331" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="T258:T333" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
         <v>players["BKXO"][4] = players["BKXO"][4] + 3;</v>
       </c>
       <c r="U258" t="str">
-        <f t="shared" ref="U258:U331" si="74">O258</f>
+        <f t="shared" ref="U258:U333" si="74">O258</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
     </row>
@@ -27828,6 +27832,166 @@
         <v>players["DexDax"][4] = players["DexDax"][4] + 3;</v>
       </c>
       <c r="U331" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="60"/>
+        <v>735</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F332" t="s">
+        <v>305</v>
+      </c>
+      <c r="G332" t="s">
+        <v>12</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 735);</v>
+      </c>
+      <c r="I332" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J332" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 735);</v>
+      </c>
+      <c r="K332" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L332" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 735);</v>
+      </c>
+      <c r="M332" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N332" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O332" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P332" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["ImSpiker"][1]++; players["Nick The Ultra"][2]++; </v>
+      </c>
+      <c r="Q332" t="str">
+        <f t="shared" si="70"/>
+        <v>players["ImSpiker"][3] = players["ImSpiker"][3] + 3;</v>
+      </c>
+      <c r="R332" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Nick The Ultra"][3] = players["Nick The Ultra"][3] + 0;</v>
+      </c>
+      <c r="S332" t="str">
+        <f t="shared" si="72"/>
+        <v>players["ImSpiker"][4] = players["ImSpiker"][4] + 0;</v>
+      </c>
+      <c r="T332" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Nick The Ultra"][4] = players["Nick The Ultra"][4] + 3;</v>
+      </c>
+      <c r="U332" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="60"/>
+        <v>736</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F333" t="s">
+        <v>305</v>
+      </c>
+      <c r="G333" t="s">
+        <v>12</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="I333" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J333" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="K333" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L333" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="M333" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N333" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O333" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P333" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Tricks"][1]++; players["ThisIsMyUsername"][2]++; </v>
+      </c>
+      <c r="Q333" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Tricks"][3] = players["Tricks"][3] + 3;</v>
+      </c>
+      <c r="R333" t="str">
+        <f t="shared" si="71"/>
+        <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 0;</v>
+      </c>
+      <c r="S333" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Tricks"][4] = players["Tricks"][4] + 0;</v>
+      </c>
+      <c r="T333" t="str">
+        <f t="shared" si="73"/>
+        <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 3;</v>
+      </c>
+      <c r="U333" t="str">
         <f t="shared" si="74"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -27846,10 +28010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U138"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34657,7 +34821,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O138" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O143" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -34681,7 +34845,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U138" si="16">O86</f>
+        <f t="shared" ref="U86:U143" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -34789,31 +34953,31 @@
         <v>288</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H138" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H143" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I138" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I143" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J138" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J143" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K138" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K143" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L138" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L143" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M138" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M143" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N138" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N143" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -34821,23 +34985,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P138" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P143" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q138" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q143" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R138" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R143" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S138" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S143" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T138" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T143" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -34850,7 +35014,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B138" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B143" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -38841,6 +39005,406 @@
         <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
       </c>
       <c r="U138" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C139" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" t="s">
+        <v>296</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s">
+        <v>305</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J139" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O139" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P139" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Pied"][1]++; players["Poolboi"][2]++; </v>
+      </c>
+      <c r="Q139" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+      </c>
+      <c r="R139" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Poolboi"][3] = players["Poolboi"][3] + 0;</v>
+      </c>
+      <c r="S139" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Pied"][4] = players["Pied"][4] + 0;</v>
+      </c>
+      <c r="T139" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
+      </c>
+      <c r="U139" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C140" t="s">
+        <v>240</v>
+      </c>
+      <c r="D140" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F140" t="s">
+        <v>305</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 190);</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P140" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["Zeiger"][2]++; </v>
+      </c>
+      <c r="Q140" t="str">
+        <f t="shared" si="25"/>
+        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+      </c>
+      <c r="R140" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+      </c>
+      <c r="S140" t="str">
+        <f t="shared" si="27"/>
+        <v>players["banana_steals"][4] = players["banana_steals"][4] + 0;</v>
+      </c>
+      <c r="T140" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+      </c>
+      <c r="U140" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C141" t="s">
+        <v>243</v>
+      </c>
+      <c r="D141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s">
+        <v>305</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player2Win, 191);</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player2Win, 191);</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O141" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P141" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["nolbear"][1]++; players["Luso"][2]++; </v>
+      </c>
+      <c r="Q141" t="str">
+        <f t="shared" si="25"/>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 3;</v>
+      </c>
+      <c r="R141" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 2;</v>
+      </c>
+      <c r="S141" t="str">
+        <f t="shared" si="27"/>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 2;</v>
+      </c>
+      <c r="T141" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+      </c>
+      <c r="U141" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C142" t="s">
+        <v>93</v>
+      </c>
+      <c r="D142" t="s">
+        <v>295</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s">
+        <v>305</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O142" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P142" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Pied"][1]++; players["SweetieMan"][2]++; </v>
+      </c>
+      <c r="Q142" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+      </c>
+      <c r="R142" t="str">
+        <f t="shared" si="26"/>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 0;</v>
+      </c>
+      <c r="S142" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Pied"][4] = players["Pied"][4] + 0;</v>
+      </c>
+      <c r="T142" t="str">
+        <f t="shared" si="28"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+      </c>
+      <c r="U142" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C143" t="s">
+        <v>240</v>
+      </c>
+      <c r="D143" t="s">
+        <v>79</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" t="s">
+        <v>305</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player2Win, 191);</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player2Win, 191);</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P143" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["XanderG"][2]++; </v>
+      </c>
+      <c r="Q143" t="str">
+        <f t="shared" si="25"/>
+        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+      </c>
+      <c r="R143" t="str">
+        <f t="shared" si="26"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 2;</v>
+      </c>
+      <c r="S143" t="str">
+        <f t="shared" si="27"/>
+        <v>players["banana_steals"][4] = players["banana_steals"][4] + 2;</v>
+      </c>
+      <c r="T143" t="str">
+        <f t="shared" si="28"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 3;</v>
+      </c>
+      <c r="U143" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -40476,8 +41040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B46793-2C00-4E0D-AF19-105F62809B7A}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872448E1-5CBC-4908-881A-0B905E8AF747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492069B-5852-461D-A413-F4F54D814E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="309">
   <si>
     <t>Day</t>
   </si>
@@ -955,16 +955,19 @@
     <t>Consolation Semi Finals</t>
   </si>
   <si>
-    <t>N3mesis</t>
-  </si>
-  <si>
     <t>MSL Summer Split '21</t>
   </si>
   <si>
-    <t>Zeiger</t>
+    <t>ThisIsMyUsername</t>
   </si>
   <si>
-    <t>ThisIsMyUsername</t>
+    <t>Tramzy</t>
+  </si>
+  <si>
+    <t>Consolation Finals</t>
+  </si>
+  <si>
+    <t>BeerMelancon</t>
   </si>
 </sst>
 </file>
@@ -1394,19 +1397,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
-  <dimension ref="A1:U333"/>
+  <dimension ref="A1:U342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
+      <selection pane="bottomLeft" activeCell="C340" sqref="C340:G342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -1925,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -1941,15 +1943,15 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BigRig"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BigRig"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BigRig"][0], WHResult.Player2Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BigRig"][0], WHResult.Player2Win, 3);</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BigRig"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BigRig"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
@@ -1957,7 +1959,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BigRig"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BigRig"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="6"/>
@@ -1973,11 +1975,11 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["BigRig"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["BigRig"][2]++; </v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="11"/>
@@ -1985,7 +1987,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 1;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="13"/>
@@ -2165,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -2181,7 +2183,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["T-boy"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["T-boy"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
@@ -2189,7 +2191,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["T-boy"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["T-boy"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
@@ -2197,7 +2199,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["T-boy"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["T-boy"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="6"/>
@@ -2213,11 +2215,11 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["T-boy"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["T-boy"][2]++; </v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="11"/>
@@ -2225,7 +2227,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="13"/>
@@ -2245,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
@@ -2269,7 +2271,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
@@ -2277,7 +2279,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 3);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 3);</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="6"/>
@@ -2293,11 +2295,11 @@
       </c>
       <c r="P12" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["BKXO"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="11"/>
@@ -2305,7 +2307,7 @@
       </c>
       <c r="S12" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="13"/>
@@ -2485,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -2501,7 +2503,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
@@ -2509,7 +2511,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
@@ -2517,7 +2519,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="6"/>
@@ -2525,7 +2527,7 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="7"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Christopher"][0], WHResult.Player1Win, 4);</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="8"/>
@@ -2533,11 +2535,11 @@
       </c>
       <c r="P15" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Christopher"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Christopher"][2]++; </v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="11"/>
@@ -2545,7 +2547,7 @@
       </c>
       <c r="S15" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="13"/>
@@ -2565,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
@@ -2581,7 +2583,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
@@ -2589,7 +2591,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
@@ -2597,7 +2599,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="6"/>
@@ -2605,7 +2607,7 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="7"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 6);</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="8"/>
@@ -2613,11 +2615,11 @@
       </c>
       <c r="P16" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["TkMoreira"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["TkMoreira"][2]++; </v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="11"/>
@@ -2625,7 +2627,7 @@
       </c>
       <c r="S16" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="13"/>
@@ -2965,7 +2967,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>29</v>
@@ -2981,15 +2983,15 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player2Win, 10);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player2Win, 10);</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
@@ -2997,7 +2999,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="6"/>
@@ -3005,7 +3007,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="7"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 10);</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="8"/>
@@ -3013,11 +3015,11 @@
       </c>
       <c r="P21" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["TkMoreira"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["TkMoreira"][2]++; </v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="11"/>
@@ -3025,7 +3027,7 @@
       </c>
       <c r="S21" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 1;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="13"/>
@@ -4805,7 +4807,7 @@
         <v>238</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>26</v>
@@ -4821,7 +4823,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["[CELTICS]"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["[CELTICS]"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="2"/>
@@ -4829,7 +4831,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["[CELTICS]"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["[CELTICS]"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="4"/>
@@ -4837,7 +4839,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["[CELTICS]"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["[CELTICS]"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="6"/>
@@ -4853,11 +4855,11 @@
       </c>
       <c r="P44" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["[CELTICS]"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["[CELTICS]"][2]++; </v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="11"/>
@@ -4865,7 +4867,7 @@
       </c>
       <c r="S44" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="13"/>
@@ -4885,7 +4887,7 @@
         <v>238</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
@@ -4901,7 +4903,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["FB-Productions"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["FB-Productions"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="2"/>
@@ -4909,7 +4911,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["FB-Productions"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["FB-Productions"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="4"/>
@@ -4917,7 +4919,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["FB-Productions"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["FB-Productions"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="6"/>
@@ -4933,11 +4935,11 @@
       </c>
       <c r="P45" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["FB-Productions"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["FB-Productions"][2]++; </v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="11"/>
@@ -4945,7 +4947,7 @@
       </c>
       <c r="S45" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="13"/>
@@ -5125,7 +5127,7 @@
         <v>238</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>28</v>
@@ -5141,7 +5143,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Yoyo"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Yoyo"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="2"/>
@@ -5149,7 +5151,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Yoyo"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Yoyo"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="4"/>
@@ -5157,7 +5159,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Yoyo"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Yoyo"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="6"/>
@@ -5173,11 +5175,11 @@
       </c>
       <c r="P48" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Yoyo"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Yoyo"][2]++; </v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R48" t="str">
         <f t="shared" si="11"/>
@@ -5185,7 +5187,7 @@
       </c>
       <c r="S48" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="13"/>
@@ -5445,7 +5447,7 @@
         <v>238</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>25</v>
@@ -5461,7 +5463,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Terrestrial_X"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Terrestrial_X"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="2"/>
@@ -5469,7 +5471,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Terrestrial_X"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Terrestrial_X"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="4"/>
@@ -5477,7 +5479,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Terrestrial_X"][0], WHResult.Player1Win, 238);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Terrestrial_X"][0], WHResult.Player1Win, 238);</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="6"/>
@@ -5493,11 +5495,11 @@
       </c>
       <c r="P52" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Terrestrial_X"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Terrestrial_X"][2]++; </v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="11"/>
@@ -5505,7 +5507,7 @@
       </c>
       <c r="S52" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="13"/>
@@ -5845,7 +5847,7 @@
         <v>241</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>22</v>
@@ -5861,7 +5863,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="2"/>
@@ -5869,7 +5871,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="4"/>
@@ -5877,7 +5879,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="6"/>
@@ -5885,7 +5887,7 @@
       </c>
       <c r="N57" t="str">
         <f t="shared" si="7"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Atto"][0], WHResult.Player1Win, 241);</v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="8"/>
@@ -5893,11 +5895,11 @@
       </c>
       <c r="P57" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Atto"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Atto"][2]++; </v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R57" t="str">
         <f t="shared" si="11"/>
@@ -5905,7 +5907,7 @@
       </c>
       <c r="S57" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T57" t="str">
         <f t="shared" si="13"/>
@@ -6245,7 +6247,7 @@
         <v>243</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>29</v>
@@ -6261,7 +6263,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="2"/>
@@ -6269,7 +6271,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="4"/>
@@ -6277,7 +6279,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="6"/>
@@ -6285,7 +6287,7 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="7"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 243);</v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="8"/>
@@ -6293,11 +6295,11 @@
       </c>
       <c r="P62" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["TkMoreira"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["TkMoreira"][2]++; </v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="10"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R62" t="str">
         <f t="shared" si="11"/>
@@ -6305,7 +6307,7 @@
       </c>
       <c r="S62" t="str">
         <f t="shared" si="12"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="13"/>
@@ -6565,7 +6567,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>24</v>
@@ -6581,23 +6583,23 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H129" si="16">IF(VALUE(LEFT($E66, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player1Win, ", $B66, ");"), "")</f>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" ref="I66:I129" si="17">IF(VALUE(RIGHT($E66, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player2Win, ", $B66, ");"), "")</f>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player2Win, 246);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player2Win, 246);</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" ref="J66:J129" si="18">IF(VALUE(LEFT($E66, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player1Win, ", $B66, ");"), "")</f>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:K129" si="19">IF(VALUE(RIGHT($E66, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player2Win, ", $B66, ");"), "")</f>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player2Win, 246);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player2Win, 246);</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" ref="L66:L129" si="20">IF(VALUE(LEFT($E66, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player1Win, ", $B66, ");"), "")</f>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" ref="M66:M129" si="21">IF(VALUE(RIGHT($E66, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player2Win, ", $B66, ");"), "")</f>
@@ -6605,7 +6607,7 @@
       </c>
       <c r="N66" t="str">
         <f t="shared" ref="N66:N129" si="22">IF(VALUE(LEFT($E66, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C66, """][0], players[""", $D66, """][0], WHResult.Player1Win, ", $B66, ");"), "")</f>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 246);</v>
       </c>
       <c r="O66" t="str">
         <f t="shared" ref="O66:O129" si="23">_xlfn.CONCAT("// ",$F66, " ", $G66)</f>
@@ -6613,11 +6615,11 @@
       </c>
       <c r="P66" t="str">
         <f t="shared" ref="P66:P129" si="24">IF(LEFT($E66,1)&gt;RIGHT($E66,1),_xlfn.CONCAT("players[""",$C66,"""][1]++; players[""",$D66,"""][2]++; ",""), "")</f>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Giant"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Giant"][2]++; </v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" ref="Q66:Q129" si="25">_xlfn.CONCAT("players[""",$C66,"""][3] = players[""",$C66,"""][3] + ", LEFT($E66, 1), ";")</f>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" ref="R66:R129" si="26">_xlfn.CONCAT("players[""",$D66,"""][3] = players[""",$D66,"""][3] + ", RIGHT($E66, 1), ";")</f>
@@ -6625,7 +6627,7 @@
       </c>
       <c r="S66" t="str">
         <f t="shared" ref="S66:S129" si="27">_xlfn.CONCAT("players[""",$C66,"""][4] = players[""",$C66,"""][4] + ", RIGHT($E66, 1), ";")</f>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 2;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 2;</v>
       </c>
       <c r="T66" t="str">
         <f t="shared" ref="T66:T129" si="28">_xlfn.CONCAT("players[""",$D66,"""][4] = players[""",$D66,"""][4] + ", LEFT($E66, 1), ";")</f>
@@ -6725,7 +6727,7 @@
         <v>248</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>24</v>
@@ -6741,7 +6743,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="17"/>
@@ -6749,7 +6751,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="19"/>
@@ -6757,7 +6759,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="21"/>
@@ -6765,7 +6767,7 @@
       </c>
       <c r="N68" t="str">
         <f t="shared" si="22"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Giant"][0], WHResult.Player1Win, 248);</v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="23"/>
@@ -6773,11 +6775,11 @@
       </c>
       <c r="P68" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Giant"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Giant"][2]++; </v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R68" t="str">
         <f t="shared" si="26"/>
@@ -6785,7 +6787,7 @@
       </c>
       <c r="S68" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T68" t="str">
         <f t="shared" si="28"/>
@@ -9365,7 +9367,7 @@
         <v>315</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>51</v>
@@ -9381,7 +9383,7 @@
       </c>
       <c r="H101" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["DemonMK"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["DemonMK"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="17"/>
@@ -9389,7 +9391,7 @@
       </c>
       <c r="J101" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["DemonMK"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["DemonMK"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="19"/>
@@ -9397,7 +9399,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["DemonMK"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["DemonMK"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="21"/>
@@ -9413,11 +9415,11 @@
       </c>
       <c r="P101" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["DemonMK"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["DemonMK"][2]++; </v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R101" t="str">
         <f t="shared" si="26"/>
@@ -9425,7 +9427,7 @@
       </c>
       <c r="S101" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T101" t="str">
         <f t="shared" si="28"/>
@@ -9685,7 +9687,7 @@
         <v>315</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
@@ -9701,7 +9703,7 @@
       </c>
       <c r="H105" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="17"/>
@@ -9709,7 +9711,7 @@
       </c>
       <c r="J105" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="19"/>
@@ -9717,7 +9719,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M105" t="str">
         <f t="shared" si="21"/>
@@ -9733,11 +9735,11 @@
       </c>
       <c r="P105" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["BKXO"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R105" t="str">
         <f t="shared" si="26"/>
@@ -9745,7 +9747,7 @@
       </c>
       <c r="S105" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T105" t="str">
         <f t="shared" si="28"/>
@@ -10005,7 +10007,7 @@
         <v>315</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>23</v>
@@ -10021,7 +10023,7 @@
       </c>
       <c r="H109" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="17"/>
@@ -10029,7 +10031,7 @@
       </c>
       <c r="J109" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" si="19"/>
@@ -10037,7 +10039,7 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M109" t="str">
         <f t="shared" si="21"/>
@@ -10053,11 +10055,11 @@
       </c>
       <c r="P109" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["einBirnenbaum"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["einBirnenbaum"][2]++; </v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R109" t="str">
         <f t="shared" si="26"/>
@@ -10065,7 +10067,7 @@
       </c>
       <c r="S109" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T109" t="str">
         <f t="shared" si="28"/>
@@ -10325,7 +10327,7 @@
         <v>315</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>54</v>
@@ -10341,23 +10343,23 @@
       </c>
       <c r="H113" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Timely Yor"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Timely Yor"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Timely Yor"][0], WHResult.Player2Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Timely Yor"][0], WHResult.Player2Win, 315);</v>
       </c>
       <c r="J113" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Timely Yor"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Timely Yor"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Timely Yor"][0], WHResult.Player2Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Timely Yor"][0], WHResult.Player2Win, 315);</v>
       </c>
       <c r="L113" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Timely Yor"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Timely Yor"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M113" t="str">
         <f t="shared" si="21"/>
@@ -10373,11 +10375,11 @@
       </c>
       <c r="P113" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Timely Yor"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Timely Yor"][2]++; </v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R113" t="str">
         <f t="shared" si="26"/>
@@ -10385,7 +10387,7 @@
       </c>
       <c r="S113" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 2;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 2;</v>
       </c>
       <c r="T113" t="str">
         <f t="shared" si="28"/>
@@ -10645,7 +10647,7 @@
         <v>315</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>6</v>
@@ -10661,15 +10663,15 @@
       </c>
       <c r="H117" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["CDH"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["CDH"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["CDH"][0], WHResult.Player2Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["CDH"][0], WHResult.Player2Win, 315);</v>
       </c>
       <c r="J117" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["CDH"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["CDH"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K117" t="str">
         <f t="shared" si="19"/>
@@ -10677,7 +10679,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["CDH"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["CDH"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M117" t="str">
         <f t="shared" si="21"/>
@@ -10693,11 +10695,11 @@
       </c>
       <c r="P117" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["CDH"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["CDH"][2]++; </v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R117" t="str">
         <f t="shared" si="26"/>
@@ -10705,7 +10707,7 @@
       </c>
       <c r="S117" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 1;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
       </c>
       <c r="T117" t="str">
         <f t="shared" si="28"/>
@@ -10965,7 +10967,7 @@
         <v>315</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>53</v>
@@ -10981,7 +10983,7 @@
       </c>
       <c r="H121" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Jucarman"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Jucarman"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="17"/>
@@ -10989,7 +10991,7 @@
       </c>
       <c r="J121" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Jucarman"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Jucarman"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="19"/>
@@ -10997,7 +10999,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Jucarman"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Jucarman"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M121" t="str">
         <f t="shared" si="21"/>
@@ -11013,11 +11015,11 @@
       </c>
       <c r="P121" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Jucarman"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Jucarman"][2]++; </v>
       </c>
       <c r="Q121" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R121" t="str">
         <f t="shared" si="26"/>
@@ -11025,7 +11027,7 @@
       </c>
       <c r="S121" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T121" t="str">
         <f t="shared" si="28"/>
@@ -11285,7 +11287,7 @@
         <v>315</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>52</v>
@@ -11301,23 +11303,23 @@
       </c>
       <c r="H125" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player2Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player2Win, 315);</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player2Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player2Win, 315);</v>
       </c>
       <c r="L125" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M125" t="str">
         <f t="shared" si="21"/>
@@ -11333,11 +11335,11 @@
       </c>
       <c r="P125" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Calvin"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Calvin"][2]++; </v>
       </c>
       <c r="Q125" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R125" t="str">
         <f t="shared" si="26"/>
@@ -11345,7 +11347,7 @@
       </c>
       <c r="S125" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 2;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 2;</v>
       </c>
       <c r="T125" t="str">
         <f t="shared" si="28"/>
@@ -11605,7 +11607,7 @@
         <v>315</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>50</v>
@@ -11621,7 +11623,7 @@
       </c>
       <c r="H129" t="str">
         <f t="shared" si="16"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Hi_Am_Disturbia"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Hi_Am_Disturbia"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="17"/>
@@ -11629,7 +11631,7 @@
       </c>
       <c r="J129" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Hi_Am_Disturbia"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Hi_Am_Disturbia"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="K129" t="str">
         <f t="shared" si="19"/>
@@ -11637,7 +11639,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Hi_Am_Disturbia"][0], WHResult.Player1Win, 315);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Hi_Am_Disturbia"][0], WHResult.Player1Win, 315);</v>
       </c>
       <c r="M129" t="str">
         <f t="shared" si="21"/>
@@ -11653,11 +11655,11 @@
       </c>
       <c r="P129" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Hi_Am_Disturbia"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Hi_Am_Disturbia"][2]++; </v>
       </c>
       <c r="Q129" t="str">
         <f t="shared" si="25"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R129" t="str">
         <f t="shared" si="26"/>
@@ -11665,7 +11667,7 @@
       </c>
       <c r="S129" t="str">
         <f t="shared" si="27"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T129" t="str">
         <f t="shared" si="28"/>
@@ -13205,7 +13207,7 @@
         <v>316</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>35</v>
@@ -13221,7 +13223,7 @@
       </c>
       <c r="H149" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="32"/>
@@ -13229,7 +13231,7 @@
       </c>
       <c r="J149" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
       </c>
       <c r="K149" t="str">
         <f t="shared" si="34"/>
@@ -13237,7 +13239,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
       </c>
       <c r="M149" t="str">
         <f t="shared" si="36"/>
@@ -13245,7 +13247,7 @@
       </c>
       <c r="N149" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 316);</v>
       </c>
       <c r="O149" t="str">
         <f t="shared" si="38"/>
@@ -13253,11 +13255,11 @@
       </c>
       <c r="P149" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Ajmo1025"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Ajmo1025"][2]++; </v>
       </c>
       <c r="Q149" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R149" t="str">
         <f t="shared" si="41"/>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="S149" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T149" t="str">
         <f t="shared" si="43"/>
@@ -14165,7 +14167,7 @@
         <v>321</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>21</v>
@@ -14181,7 +14183,7 @@
       </c>
       <c r="H161" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
       </c>
       <c r="I161" t="str">
         <f t="shared" si="32"/>
@@ -14189,7 +14191,7 @@
       </c>
       <c r="J161" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
       </c>
       <c r="K161" t="str">
         <f t="shared" si="34"/>
@@ -14197,7 +14199,7 @@
       </c>
       <c r="L161" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
       </c>
       <c r="M161" t="str">
         <f t="shared" si="36"/>
@@ -14205,7 +14207,7 @@
       </c>
       <c r="N161" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 321);</v>
       </c>
       <c r="O161" t="str">
         <f t="shared" si="38"/>
@@ -14213,11 +14215,11 @@
       </c>
       <c r="P161" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["ImSpiker"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["ImSpiker"][2]++; </v>
       </c>
       <c r="Q161" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R161" t="str">
         <f t="shared" si="41"/>
@@ -14225,7 +14227,7 @@
       </c>
       <c r="S161" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T161" t="str">
         <f t="shared" si="43"/>
@@ -14488,7 +14490,7 @@
         <v>54</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>49</v>
@@ -14501,23 +14503,23 @@
       </c>
       <c r="H165" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["Timely Yor"][0], players["N3mesis"][0], WHResult.Player1Win, 323);</v>
+        <v>whr.CreateGame(players["Timely Yor"][0], players["J0k3r"][0], WHResult.Player1Win, 323);</v>
       </c>
       <c r="I165" t="str">
         <f t="shared" si="32"/>
-        <v>whr.CreateGame(players["Timely Yor"][0], players["N3mesis"][0], WHResult.Player2Win, 323);</v>
+        <v>whr.CreateGame(players["Timely Yor"][0], players["J0k3r"][0], WHResult.Player2Win, 323);</v>
       </c>
       <c r="J165" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["Timely Yor"][0], players["N3mesis"][0], WHResult.Player1Win, 323);</v>
+        <v>whr.CreateGame(players["Timely Yor"][0], players["J0k3r"][0], WHResult.Player1Win, 323);</v>
       </c>
       <c r="K165" t="str">
         <f t="shared" si="34"/>
-        <v>whr.CreateGame(players["Timely Yor"][0], players["N3mesis"][0], WHResult.Player2Win, 323);</v>
+        <v>whr.CreateGame(players["Timely Yor"][0], players["J0k3r"][0], WHResult.Player2Win, 323);</v>
       </c>
       <c r="L165" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["Timely Yor"][0], players["N3mesis"][0], WHResult.Player1Win, 323);</v>
+        <v>whr.CreateGame(players["Timely Yor"][0], players["J0k3r"][0], WHResult.Player1Win, 323);</v>
       </c>
       <c r="M165" t="str">
         <f t="shared" si="36"/>
@@ -14525,7 +14527,7 @@
       </c>
       <c r="N165" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["Timely Yor"][0], players["N3mesis"][0], WHResult.Player1Win, 323);</v>
+        <v>whr.CreateGame(players["Timely Yor"][0], players["J0k3r"][0], WHResult.Player1Win, 323);</v>
       </c>
       <c r="O165" t="str">
         <f t="shared" si="38"/>
@@ -14533,7 +14535,7 @@
       </c>
       <c r="P165" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["Timely Yor"][1]++; players["N3mesis"][2]++; </v>
+        <v xml:space="preserve">players["Timely Yor"][1]++; players["J0k3r"][2]++; </v>
       </c>
       <c r="Q165" t="str">
         <f t="shared" si="40"/>
@@ -14541,7 +14543,7 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" si="41"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 2;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 2;</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="42"/>
@@ -14549,7 +14551,7 @@
       </c>
       <c r="T165" t="str">
         <f t="shared" si="43"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 4;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 4;</v>
       </c>
       <c r="U165" t="str">
         <f t="shared" si="44"/>
@@ -14645,7 +14647,7 @@
         <v>325</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>39</v>
@@ -14661,23 +14663,23 @@
       </c>
       <c r="H167" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
       </c>
       <c r="I167" t="str">
         <f t="shared" si="32"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Kaz"][0], WHResult.Player2Win, 325);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Kaz"][0], WHResult.Player2Win, 325);</v>
       </c>
       <c r="J167" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
       </c>
       <c r="K167" t="str">
         <f t="shared" si="34"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Kaz"][0], WHResult.Player2Win, 325);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Kaz"][0], WHResult.Player2Win, 325);</v>
       </c>
       <c r="L167" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
       </c>
       <c r="M167" t="str">
         <f t="shared" si="36"/>
@@ -14685,7 +14687,7 @@
       </c>
       <c r="N167" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Kaz"][0], WHResult.Player1Win, 325);</v>
       </c>
       <c r="O167" t="str">
         <f t="shared" si="38"/>
@@ -14693,11 +14695,11 @@
       </c>
       <c r="P167" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Kaz"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Kaz"][2]++; </v>
       </c>
       <c r="Q167" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R167" t="str">
         <f t="shared" si="41"/>
@@ -14705,7 +14707,7 @@
       </c>
       <c r="S167" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 2;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 2;</v>
       </c>
       <c r="T167" t="str">
         <f t="shared" si="43"/>
@@ -14725,7 +14727,7 @@
         <v>332</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>29</v>
@@ -14741,7 +14743,7 @@
       </c>
       <c r="H168" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
       </c>
       <c r="I168" t="str">
         <f t="shared" si="32"/>
@@ -14749,7 +14751,7 @@
       </c>
       <c r="J168" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
       </c>
       <c r="K168" t="str">
         <f t="shared" si="34"/>
@@ -14757,7 +14759,7 @@
       </c>
       <c r="L168" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
       </c>
       <c r="M168" t="str">
         <f t="shared" si="36"/>
@@ -14765,7 +14767,7 @@
       </c>
       <c r="N168" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["TkMoreira"][0], WHResult.Player1Win, 332);</v>
       </c>
       <c r="O168" t="str">
         <f t="shared" si="38"/>
@@ -14773,11 +14775,11 @@
       </c>
       <c r="P168" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["TkMoreira"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["TkMoreira"][2]++; </v>
       </c>
       <c r="Q168" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R168" t="str">
         <f t="shared" si="41"/>
@@ -14785,7 +14787,7 @@
       </c>
       <c r="S168" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T168" t="str">
         <f t="shared" si="43"/>
@@ -14885,7 +14887,7 @@
         <v>446</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>60</v>
@@ -14901,7 +14903,7 @@
       </c>
       <c r="H170" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Sjfarias96"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Sjfarias96"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="I170" t="str">
         <f t="shared" si="32"/>
@@ -14909,7 +14911,7 @@
       </c>
       <c r="J170" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Sjfarias96"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Sjfarias96"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="K170" t="str">
         <f t="shared" si="34"/>
@@ -14917,7 +14919,7 @@
       </c>
       <c r="L170" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Sjfarias96"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Sjfarias96"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="M170" t="str">
         <f t="shared" si="36"/>
@@ -14933,11 +14935,11 @@
       </c>
       <c r="P170" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Sjfarias96"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Sjfarias96"][2]++; </v>
       </c>
       <c r="Q170" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R170" t="str">
         <f t="shared" si="41"/>
@@ -14945,7 +14947,7 @@
       </c>
       <c r="S170" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T170" t="str">
         <f t="shared" si="43"/>
@@ -14965,7 +14967,7 @@
         <v>446</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>36</v>
@@ -14981,7 +14983,7 @@
       </c>
       <c r="H171" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luso"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luso"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="I171" t="str">
         <f t="shared" si="32"/>
@@ -14989,7 +14991,7 @@
       </c>
       <c r="J171" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luso"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luso"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="K171" t="str">
         <f t="shared" si="34"/>
@@ -14997,7 +14999,7 @@
       </c>
       <c r="L171" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luso"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luso"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="M171" t="str">
         <f t="shared" si="36"/>
@@ -15013,11 +15015,11 @@
       </c>
       <c r="P171" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Luso"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Luso"][2]++; </v>
       </c>
       <c r="Q171" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R171" t="str">
         <f t="shared" si="41"/>
@@ -15025,7 +15027,7 @@
       </c>
       <c r="S171" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T171" t="str">
         <f t="shared" si="43"/>
@@ -15045,7 +15047,7 @@
         <v>446</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>35</v>
@@ -15061,7 +15063,7 @@
       </c>
       <c r="H172" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="I172" t="str">
         <f t="shared" si="32"/>
@@ -15069,7 +15071,7 @@
       </c>
       <c r="J172" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="K172" t="str">
         <f t="shared" si="34"/>
@@ -15077,7 +15079,7 @@
       </c>
       <c r="L172" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Ajmo1025"][0], WHResult.Player1Win, 446);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Ajmo1025"][0], WHResult.Player1Win, 446);</v>
       </c>
       <c r="M172" t="str">
         <f t="shared" si="36"/>
@@ -15093,11 +15095,11 @@
       </c>
       <c r="P172" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Ajmo1025"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Ajmo1025"][2]++; </v>
       </c>
       <c r="Q172" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R172" t="str">
         <f t="shared" si="41"/>
@@ -15105,7 +15107,7 @@
       </c>
       <c r="S172" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T172" t="str">
         <f t="shared" si="43"/>
@@ -16485,7 +16487,7 @@
         <v>454</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>52</v>
@@ -16501,7 +16503,7 @@
       </c>
       <c r="H190" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
       </c>
       <c r="I190" t="str">
         <f t="shared" si="32"/>
@@ -16509,7 +16511,7 @@
       </c>
       <c r="J190" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
       </c>
       <c r="K190" t="str">
         <f t="shared" si="34"/>
@@ -16517,7 +16519,7 @@
       </c>
       <c r="L190" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
       </c>
       <c r="M190" t="str">
         <f t="shared" si="36"/>
@@ -16525,7 +16527,7 @@
       </c>
       <c r="N190" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Calvin"][0], WHResult.Player1Win, 454);</v>
       </c>
       <c r="O190" t="str">
         <f t="shared" si="38"/>
@@ -16533,11 +16535,11 @@
       </c>
       <c r="P190" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Calvin"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Calvin"][2]++; </v>
       </c>
       <c r="Q190" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R190" t="str">
         <f t="shared" si="41"/>
@@ -16545,7 +16547,7 @@
       </c>
       <c r="S190" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T190" t="str">
         <f t="shared" si="43"/>
@@ -16725,7 +16727,7 @@
         <v>455</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>63</v>
@@ -16741,7 +16743,7 @@
       </c>
       <c r="H193" t="str">
         <f t="shared" si="31"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
       </c>
       <c r="I193" t="str">
         <f t="shared" si="32"/>
@@ -16749,7 +16751,7 @@
       </c>
       <c r="J193" t="str">
         <f t="shared" si="33"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
       </c>
       <c r="K193" t="str">
         <f t="shared" si="34"/>
@@ -16757,7 +16759,7 @@
       </c>
       <c r="L193" t="str">
         <f t="shared" si="35"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
       </c>
       <c r="M193" t="str">
         <f t="shared" si="36"/>
@@ -16765,7 +16767,7 @@
       </c>
       <c r="N193" t="str">
         <f t="shared" si="37"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 455);</v>
       </c>
       <c r="O193" t="str">
         <f t="shared" si="38"/>
@@ -16773,11 +16775,11 @@
       </c>
       <c r="P193" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Luigibrawl"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Luigibrawl"][2]++; </v>
       </c>
       <c r="Q193" t="str">
         <f t="shared" si="40"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R193" t="str">
         <f t="shared" si="41"/>
@@ -16785,7 +16787,7 @@
       </c>
       <c r="S193" t="str">
         <f t="shared" si="42"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T193" t="str">
         <f t="shared" si="43"/>
@@ -16885,7 +16887,7 @@
         <v>456</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>63</v>
@@ -16901,7 +16903,7 @@
       </c>
       <c r="H195" t="str">
         <f t="shared" si="46"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
       </c>
       <c r="I195" t="str">
         <f t="shared" si="47"/>
@@ -16909,7 +16911,7 @@
       </c>
       <c r="J195" t="str">
         <f t="shared" si="48"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
       </c>
       <c r="K195" t="str">
         <f t="shared" si="49"/>
@@ -16917,7 +16919,7 @@
       </c>
       <c r="L195" t="str">
         <f t="shared" si="50"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
       </c>
       <c r="M195" t="str">
         <f t="shared" si="51"/>
@@ -16925,7 +16927,7 @@
       </c>
       <c r="N195" t="str">
         <f t="shared" si="52"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 456);</v>
       </c>
       <c r="O195" t="str">
         <f t="shared" si="53"/>
@@ -16933,11 +16935,11 @@
       </c>
       <c r="P195" t="str">
         <f t="shared" si="54"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Luigibrawl"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Luigibrawl"][2]++; </v>
       </c>
       <c r="Q195" t="str">
         <f t="shared" si="55"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R195" t="str">
         <f t="shared" si="56"/>
@@ -16945,7 +16947,7 @@
       </c>
       <c r="S195" t="str">
         <f t="shared" si="57"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T195" t="str">
         <f t="shared" si="58"/>
@@ -17285,7 +17287,7 @@
         <v>462</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>21</v>
@@ -17301,7 +17303,7 @@
       </c>
       <c r="H200" t="str">
         <f t="shared" si="46"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
       </c>
       <c r="I200" t="str">
         <f t="shared" si="47"/>
@@ -17309,7 +17311,7 @@
       </c>
       <c r="J200" t="str">
         <f t="shared" si="48"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
       </c>
       <c r="K200" t="str">
         <f t="shared" si="49"/>
@@ -17317,7 +17319,7 @@
       </c>
       <c r="L200" t="str">
         <f t="shared" si="50"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
       </c>
       <c r="M200" t="str">
         <f t="shared" si="51"/>
@@ -17325,7 +17327,7 @@
       </c>
       <c r="N200" t="str">
         <f t="shared" si="52"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 462);</v>
       </c>
       <c r="O200" t="str">
         <f t="shared" si="53"/>
@@ -17333,11 +17335,11 @@
       </c>
       <c r="P200" t="str">
         <f t="shared" si="54"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["ImSpiker"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["ImSpiker"][2]++; </v>
       </c>
       <c r="Q200" t="str">
         <f t="shared" si="55"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R200" t="str">
         <f t="shared" si="56"/>
@@ -17345,7 +17347,7 @@
       </c>
       <c r="S200" t="str">
         <f t="shared" si="57"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T200" t="str">
         <f t="shared" si="58"/>
@@ -17685,7 +17687,7 @@
         <v>471</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>63</v>
@@ -17701,23 +17703,23 @@
       </c>
       <c r="H205" t="str">
         <f t="shared" si="46"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
       </c>
       <c r="I205" t="str">
         <f t="shared" si="47"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player2Win, 471);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player2Win, 471);</v>
       </c>
       <c r="J205" t="str">
         <f t="shared" si="48"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
       </c>
       <c r="K205" t="str">
         <f t="shared" si="49"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player2Win, 471);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player2Win, 471);</v>
       </c>
       <c r="L205" t="str">
         <f t="shared" si="50"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
       </c>
       <c r="M205" t="str">
         <f t="shared" si="51"/>
@@ -17725,7 +17727,7 @@
       </c>
       <c r="N205" t="str">
         <f t="shared" si="52"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 471);</v>
       </c>
       <c r="O205" t="str">
         <f t="shared" si="53"/>
@@ -17733,11 +17735,11 @@
       </c>
       <c r="P205" t="str">
         <f t="shared" si="54"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Luigibrawl"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Luigibrawl"][2]++; </v>
       </c>
       <c r="Q205" t="str">
         <f t="shared" si="55"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R205" t="str">
         <f t="shared" si="56"/>
@@ -17745,7 +17747,7 @@
       </c>
       <c r="S205" t="str">
         <f t="shared" si="57"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 2;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 2;</v>
       </c>
       <c r="T205" t="str">
         <f t="shared" si="58"/>
@@ -21685,7 +21687,7 @@
         <v>582</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>9</v>
@@ -21701,7 +21703,7 @@
       </c>
       <c r="H255" t="str">
         <f t="shared" si="46"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I255" t="str">
         <f t="shared" si="47"/>
@@ -21709,7 +21711,7 @@
       </c>
       <c r="J255" t="str">
         <f t="shared" si="48"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K255" t="str">
         <f t="shared" si="49"/>
@@ -21717,7 +21719,7 @@
       </c>
       <c r="L255" t="str">
         <f t="shared" si="50"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M255" t="str">
         <f t="shared" si="51"/>
@@ -21733,11 +21735,11 @@
       </c>
       <c r="P255" t="str">
         <f t="shared" si="54"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["BKXO"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q255" t="str">
         <f t="shared" si="55"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R255" t="str">
         <f t="shared" si="56"/>
@@ -21745,7 +21747,7 @@
       </c>
       <c r="S255" t="str">
         <f t="shared" si="57"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T255" t="str">
         <f t="shared" si="58"/>
@@ -21765,7 +21767,7 @@
         <v>582</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>23</v>
@@ -21781,7 +21783,7 @@
       </c>
       <c r="H256" t="str">
         <f t="shared" si="46"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 582);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I256" t="str">
         <f t="shared" si="47"/>
@@ -21789,7 +21791,7 @@
       </c>
       <c r="J256" t="str">
         <f t="shared" si="48"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 582);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K256" t="str">
         <f t="shared" si="49"/>
@@ -21797,7 +21799,7 @@
       </c>
       <c r="L256" t="str">
         <f t="shared" si="50"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 582);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M256" t="str">
         <f t="shared" si="51"/>
@@ -21813,11 +21815,11 @@
       </c>
       <c r="P256" t="str">
         <f t="shared" si="54"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["einBirnenbaum"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["einBirnenbaum"][2]++; </v>
       </c>
       <c r="Q256" t="str">
         <f t="shared" si="55"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R256" t="str">
         <f t="shared" si="56"/>
@@ -21825,7 +21827,7 @@
       </c>
       <c r="S256" t="str">
         <f t="shared" si="57"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T256" t="str">
         <f t="shared" si="58"/>
@@ -21921,7 +21923,7 @@
         <v>44211</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B334" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
+        <f t="shared" ref="B258:B342" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
         <v>582</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -21940,59 +21942,59 @@
         <v>12</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H333" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="H258:H342" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I258" t="str">
-        <f t="shared" ref="I258:I333" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="I258:I342" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player2Win, 582);</v>
       </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J333" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="J258:J342" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" ref="K258:K333" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="K258:K342" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="L258" t="str">
-        <f t="shared" ref="L258:L333" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="L258:L342" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M258" t="str">
-        <f t="shared" ref="M258:M333" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="M258:M342" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="N258" t="str">
-        <f t="shared" ref="N258:N333" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="N258:N342" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="O258" t="str">
-        <f t="shared" ref="O258:O333" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
+        <f t="shared" ref="O258:O342" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" ref="P258:P333" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P258:P342" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["einBirnenbaum"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q258" t="str">
-        <f t="shared" ref="Q258:Q333" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="Q258:Q342" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R258" t="str">
-        <f t="shared" ref="R258:R333" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="R258:R342" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
         <v>players["BKXO"][3] = players["BKXO"][3] + 1;</v>
       </c>
       <c r="S258" t="str">
-        <f t="shared" ref="S258:S333" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="S258:S342" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 1;</v>
       </c>
       <c r="T258" t="str">
-        <f t="shared" ref="T258:T333" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="T258:T342" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
         <v>players["BKXO"][4] = players["BKXO"][4] + 3;</v>
       </c>
       <c r="U258" t="str">
-        <f t="shared" ref="U258:U333" si="74">O258</f>
+        <f t="shared" ref="U258:U342" si="74">O258</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
     </row>
@@ -22485,7 +22487,7 @@
         <v>584</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>21</v>
@@ -22501,7 +22503,7 @@
       </c>
       <c r="H265" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 584);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 584);</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="62"/>
@@ -22509,7 +22511,7 @@
       </c>
       <c r="J265" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 584);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 584);</v>
       </c>
       <c r="K265" t="str">
         <f t="shared" si="64"/>
@@ -22517,7 +22519,7 @@
       </c>
       <c r="L265" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 584);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 584);</v>
       </c>
       <c r="M265" t="str">
         <f t="shared" si="66"/>
@@ -22533,11 +22535,11 @@
       </c>
       <c r="P265" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["ImSpiker"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["ImSpiker"][2]++; </v>
       </c>
       <c r="Q265" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R265" t="str">
         <f t="shared" si="71"/>
@@ -22545,7 +22547,7 @@
       </c>
       <c r="S265" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T265" t="str">
         <f t="shared" si="73"/>
@@ -22725,7 +22727,7 @@
         <v>585</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>70</v>
@@ -22741,7 +22743,7 @@
       </c>
       <c r="H268" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Agent A"][0], WHResult.Player1Win, 585);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Agent A"][0], WHResult.Player1Win, 585);</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="62"/>
@@ -22749,7 +22751,7 @@
       </c>
       <c r="J268" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Agent A"][0], WHResult.Player1Win, 585);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Agent A"][0], WHResult.Player1Win, 585);</v>
       </c>
       <c r="K268" t="str">
         <f t="shared" si="64"/>
@@ -22757,7 +22759,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Agent A"][0], WHResult.Player1Win, 585);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Agent A"][0], WHResult.Player1Win, 585);</v>
       </c>
       <c r="M268" t="str">
         <f t="shared" si="66"/>
@@ -22773,11 +22775,11 @@
       </c>
       <c r="P268" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Agent A"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q268" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R268" t="str">
         <f t="shared" si="71"/>
@@ -22785,7 +22787,7 @@
       </c>
       <c r="S268" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T268" t="str">
         <f t="shared" si="73"/>
@@ -22965,7 +22967,7 @@
         <v>588</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>80</v>
@@ -22981,23 +22983,23 @@
       </c>
       <c r="H271" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 588);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 588);</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="62"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player2Win, 588);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player2Win, 588);</v>
       </c>
       <c r="J271" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 588);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 588);</v>
       </c>
       <c r="K271" t="str">
         <f t="shared" si="64"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player2Win, 588);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player2Win, 588);</v>
       </c>
       <c r="L271" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 588);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 588);</v>
       </c>
       <c r="M271" t="str">
         <f t="shared" si="66"/>
@@ -23013,11 +23015,11 @@
       </c>
       <c r="P271" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Zagler"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Zagler"][2]++; </v>
       </c>
       <c r="Q271" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R271" t="str">
         <f t="shared" si="71"/>
@@ -23025,7 +23027,7 @@
       </c>
       <c r="S271" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 2;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 2;</v>
       </c>
       <c r="T271" t="str">
         <f t="shared" si="73"/>
@@ -23125,7 +23127,7 @@
         <v>604</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>9</v>
@@ -23141,7 +23143,7 @@
       </c>
       <c r="H273" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="I273" t="str">
         <f t="shared" si="62"/>
@@ -23149,7 +23151,7 @@
       </c>
       <c r="J273" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="K273" t="str">
         <f t="shared" si="64"/>
@@ -23157,7 +23159,7 @@
       </c>
       <c r="L273" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="M273" t="str">
         <f t="shared" si="66"/>
@@ -23165,7 +23167,7 @@
       </c>
       <c r="N273" t="str">
         <f t="shared" si="67"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="O273" t="str">
         <f t="shared" si="68"/>
@@ -23173,11 +23175,11 @@
       </c>
       <c r="P273" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["BKXO"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q273" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R273" t="str">
         <f t="shared" si="71"/>
@@ -23185,7 +23187,7 @@
       </c>
       <c r="S273" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T273" t="str">
         <f t="shared" si="73"/>
@@ -23365,7 +23367,7 @@
         <v>604</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>80</v>
@@ -23381,31 +23383,31 @@
       </c>
       <c r="H276" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="I276" t="str">
         <f t="shared" si="62"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player2Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player2Win, 604);</v>
       </c>
       <c r="J276" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="K276" t="str">
         <f t="shared" si="64"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player2Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player2Win, 604);</v>
       </c>
       <c r="L276" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="M276" t="str">
         <f t="shared" si="66"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player2Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player2Win, 604);</v>
       </c>
       <c r="N276" t="str">
         <f t="shared" si="67"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Zagler"][0], WHResult.Player1Win, 604);</v>
       </c>
       <c r="O276" t="str">
         <f t="shared" si="68"/>
@@ -23413,11 +23415,11 @@
       </c>
       <c r="P276" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Zagler"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Zagler"][2]++; </v>
       </c>
       <c r="Q276" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R276" t="str">
         <f t="shared" si="71"/>
@@ -23425,7 +23427,7 @@
       </c>
       <c r="S276" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 3;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 3;</v>
       </c>
       <c r="T276" t="str">
         <f t="shared" si="73"/>
@@ -23845,7 +23847,7 @@
         <v>633</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>283</v>
@@ -23861,7 +23863,7 @@
       </c>
       <c r="H282" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 633);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 633);</v>
       </c>
       <c r="I282" t="str">
         <f t="shared" si="62"/>
@@ -23869,7 +23871,7 @@
       </c>
       <c r="J282" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 633);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 633);</v>
       </c>
       <c r="K282" t="str">
         <f t="shared" si="64"/>
@@ -23877,7 +23879,7 @@
       </c>
       <c r="L282" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 633);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 633);</v>
       </c>
       <c r="M282" t="str">
         <f t="shared" si="66"/>
@@ -23893,11 +23895,11 @@
       </c>
       <c r="P282" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Tricks"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Tricks"][2]++; </v>
       </c>
       <c r="Q282" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R282" t="str">
         <f t="shared" si="71"/>
@@ -23905,7 +23907,7 @@
       </c>
       <c r="S282" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T282" t="str">
         <f t="shared" si="73"/>
@@ -25128,7 +25130,7 @@
         <v>80</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>43</v>
@@ -25141,23 +25143,23 @@
       </c>
       <c r="H298" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["Zagler"][0], players["N3mesis"][0], WHResult.Player1Win, 646);</v>
+        <v>whr.CreateGame(players["Zagler"][0], players["J0k3r"][0], WHResult.Player1Win, 646);</v>
       </c>
       <c r="I298" t="str">
         <f t="shared" si="62"/>
-        <v>whr.CreateGame(players["Zagler"][0], players["N3mesis"][0], WHResult.Player2Win, 646);</v>
+        <v>whr.CreateGame(players["Zagler"][0], players["J0k3r"][0], WHResult.Player2Win, 646);</v>
       </c>
       <c r="J298" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["Zagler"][0], players["N3mesis"][0], WHResult.Player1Win, 646);</v>
+        <v>whr.CreateGame(players["Zagler"][0], players["J0k3r"][0], WHResult.Player1Win, 646);</v>
       </c>
       <c r="K298" t="str">
         <f t="shared" si="64"/>
-        <v>whr.CreateGame(players["Zagler"][0], players["N3mesis"][0], WHResult.Player2Win, 646);</v>
+        <v>whr.CreateGame(players["Zagler"][0], players["J0k3r"][0], WHResult.Player2Win, 646);</v>
       </c>
       <c r="L298" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["Zagler"][0], players["N3mesis"][0], WHResult.Player1Win, 646);</v>
+        <v>whr.CreateGame(players["Zagler"][0], players["J0k3r"][0], WHResult.Player1Win, 646);</v>
       </c>
       <c r="M298" t="str">
         <f t="shared" si="66"/>
@@ -25173,7 +25175,7 @@
       </c>
       <c r="P298" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["Zagler"][1]++; players["N3mesis"][2]++; </v>
+        <v xml:space="preserve">players["Zagler"][1]++; players["J0k3r"][2]++; </v>
       </c>
       <c r="Q298" t="str">
         <f t="shared" si="70"/>
@@ -25181,7 +25183,7 @@
       </c>
       <c r="R298" t="str">
         <f t="shared" si="71"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 2;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 2;</v>
       </c>
       <c r="S298" t="str">
         <f t="shared" si="72"/>
@@ -25189,7 +25191,7 @@
       </c>
       <c r="T298" t="str">
         <f t="shared" si="73"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 3;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 3;</v>
       </c>
       <c r="U298" t="str">
         <f t="shared" si="74"/>
@@ -25205,7 +25207,7 @@
         <v>646</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>63</v>
@@ -25221,15 +25223,15 @@
       </c>
       <c r="H299" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 646);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 646);</v>
       </c>
       <c r="I299" t="str">
         <f t="shared" si="62"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player2Win, 646);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player2Win, 646);</v>
       </c>
       <c r="J299" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 646);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 646);</v>
       </c>
       <c r="K299" t="str">
         <f t="shared" si="64"/>
@@ -25237,7 +25239,7 @@
       </c>
       <c r="L299" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Luigibrawl"][0], WHResult.Player1Win, 646);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Luigibrawl"][0], WHResult.Player1Win, 646);</v>
       </c>
       <c r="M299" t="str">
         <f t="shared" si="66"/>
@@ -25253,11 +25255,11 @@
       </c>
       <c r="P299" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Luigibrawl"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Luigibrawl"][2]++; </v>
       </c>
       <c r="Q299" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R299" t="str">
         <f t="shared" si="71"/>
@@ -25265,7 +25267,7 @@
       </c>
       <c r="S299" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 1;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
       </c>
       <c r="T299" t="str">
         <f t="shared" si="73"/>
@@ -25605,7 +25607,7 @@
         <v>650</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>23</v>
@@ -25621,7 +25623,7 @@
       </c>
       <c r="H304" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 650);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 650);</v>
       </c>
       <c r="I304" t="str">
         <f t="shared" si="62"/>
@@ -25629,7 +25631,7 @@
       </c>
       <c r="J304" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 650);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 650);</v>
       </c>
       <c r="K304" t="str">
         <f t="shared" si="64"/>
@@ -25637,7 +25639,7 @@
       </c>
       <c r="L304" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 650);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 650);</v>
       </c>
       <c r="M304" t="str">
         <f t="shared" si="66"/>
@@ -25653,11 +25655,11 @@
       </c>
       <c r="P304" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["einBirnenbaum"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["einBirnenbaum"][2]++; </v>
       </c>
       <c r="Q304" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R304" t="str">
         <f t="shared" si="71"/>
@@ -25665,7 +25667,7 @@
       </c>
       <c r="S304" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T304" t="str">
         <f t="shared" si="73"/>
@@ -26245,7 +26247,7 @@
         <v>657</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>9</v>
@@ -26261,7 +26263,7 @@
       </c>
       <c r="H312" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 657);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 657);</v>
       </c>
       <c r="I312" t="str">
         <f t="shared" si="62"/>
@@ -26269,7 +26271,7 @@
       </c>
       <c r="J312" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 657);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 657);</v>
       </c>
       <c r="K312" t="str">
         <f t="shared" si="64"/>
@@ -26277,7 +26279,7 @@
       </c>
       <c r="L312" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["BKXO"][0], WHResult.Player1Win, 657);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["BKXO"][0], WHResult.Player1Win, 657);</v>
       </c>
       <c r="M312" t="str">
         <f t="shared" si="66"/>
@@ -26293,11 +26295,11 @@
       </c>
       <c r="P312" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["BKXO"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q312" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R312" t="str">
         <f t="shared" si="71"/>
@@ -26305,7 +26307,7 @@
       </c>
       <c r="S312" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T312" t="str">
         <f t="shared" si="73"/>
@@ -27045,7 +27047,7 @@
         <v>671</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>21</v>
@@ -27061,15 +27063,15 @@
       </c>
       <c r="H322" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 671);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 671);</v>
       </c>
       <c r="I322" t="str">
         <f t="shared" si="62"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player2Win, 671);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player2Win, 671);</v>
       </c>
       <c r="J322" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 671);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 671);</v>
       </c>
       <c r="K322" t="str">
         <f t="shared" si="64"/>
@@ -27077,7 +27079,7 @@
       </c>
       <c r="L322" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["ImSpiker"][0], WHResult.Player1Win, 671);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 671);</v>
       </c>
       <c r="M322" t="str">
         <f t="shared" si="66"/>
@@ -27093,11 +27095,11 @@
       </c>
       <c r="P322" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["ImSpiker"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["ImSpiker"][2]++; </v>
       </c>
       <c r="Q322" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 3;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R322" t="str">
         <f t="shared" si="71"/>
@@ -27105,7 +27107,7 @@
       </c>
       <c r="S322" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 1;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
       </c>
       <c r="T322" t="str">
         <f t="shared" si="73"/>
@@ -27445,7 +27447,7 @@
         <v>686</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>23</v>
@@ -27461,7 +27463,7 @@
       </c>
       <c r="H327" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
       </c>
       <c r="I327" t="str">
         <f t="shared" si="62"/>
@@ -27469,7 +27471,7 @@
       </c>
       <c r="J327" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
       </c>
       <c r="K327" t="str">
         <f t="shared" si="64"/>
@@ -27477,7 +27479,7 @@
       </c>
       <c r="L327" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
       </c>
       <c r="M327" t="str">
         <f t="shared" si="66"/>
@@ -27485,7 +27487,7 @@
       </c>
       <c r="N327" t="str">
         <f t="shared" si="67"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["einBirnenbaum"][0], WHResult.Player1Win, 686);</v>
       </c>
       <c r="O327" t="str">
         <f t="shared" si="68"/>
@@ -27493,11 +27495,11 @@
       </c>
       <c r="P327" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["einBirnenbaum"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["einBirnenbaum"][2]++; </v>
       </c>
       <c r="Q327" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R327" t="str">
         <f t="shared" si="71"/>
@@ -27505,7 +27507,7 @@
       </c>
       <c r="S327" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T327" t="str">
         <f t="shared" si="73"/>
@@ -27605,7 +27607,7 @@
         <v>689</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>283</v>
@@ -27621,7 +27623,7 @@
       </c>
       <c r="H329" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
       </c>
       <c r="I329" t="str">
         <f t="shared" si="62"/>
@@ -27629,7 +27631,7 @@
       </c>
       <c r="J329" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
       </c>
       <c r="K329" t="str">
         <f t="shared" si="64"/>
@@ -27637,7 +27639,7 @@
       </c>
       <c r="L329" t="str">
         <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
       </c>
       <c r="M329" t="str">
         <f t="shared" si="66"/>
@@ -27645,7 +27647,7 @@
       </c>
       <c r="N329" t="str">
         <f t="shared" si="67"/>
-        <v>whr.CreateGame(players["N3mesis"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Tricks"][0], WHResult.Player1Win, 689);</v>
       </c>
       <c r="O329" t="str">
         <f t="shared" si="68"/>
@@ -27653,11 +27655,11 @@
       </c>
       <c r="P329" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">players["N3mesis"][1]++; players["Tricks"][2]++; </v>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Tricks"][2]++; </v>
       </c>
       <c r="Q329" t="str">
         <f t="shared" si="70"/>
-        <v>players["N3mesis"][3] = players["N3mesis"][3] + 4;</v>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 4;</v>
       </c>
       <c r="R329" t="str">
         <f t="shared" si="71"/>
@@ -27665,7 +27667,7 @@
       </c>
       <c r="S329" t="str">
         <f t="shared" si="72"/>
-        <v>players["N3mesis"][4] = players["N3mesis"][4] + 0;</v>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
       </c>
       <c r="T329" t="str">
         <f t="shared" si="73"/>
@@ -27774,7 +27776,7 @@
         <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G331" t="s">
         <v>12</v>
@@ -27854,7 +27856,7 @@
         <v>41</v>
       </c>
       <c r="F332" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G332" t="s">
         <v>12</v>
@@ -27928,13 +27930,13 @@
         <v>283</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F333" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -27992,6 +27994,726 @@
         <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 3;</v>
       </c>
       <c r="U333" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="60"/>
+        <v>736</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F334" t="s">
+        <v>304</v>
+      </c>
+      <c r="G334" t="s">
+        <v>12</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Tramzy"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="I334" t="str">
+        <f t="shared" si="62"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Tramzy"][0], WHResult.Player2Win, 736);</v>
+      </c>
+      <c r="J334" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Tramzy"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="K334" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L334" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Tramzy"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="M334" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N334" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O334" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P334" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["ThisIsMyUsername"][1]++; players["Tramzy"][2]++; </v>
+      </c>
+      <c r="Q334" t="str">
+        <f t="shared" si="70"/>
+        <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 3;</v>
+      </c>
+      <c r="R334" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Tramzy"][3] = players["Tramzy"][3] + 1;</v>
+      </c>
+      <c r="S334" t="str">
+        <f t="shared" si="72"/>
+        <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 1;</v>
+      </c>
+      <c r="T334" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Tramzy"][4] = players["Tramzy"][4] + 3;</v>
+      </c>
+      <c r="U334" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="60"/>
+        <v>736</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F335" t="s">
+        <v>304</v>
+      </c>
+      <c r="G335" t="s">
+        <v>12</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["Tramzy"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="I335" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J335" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["Tramzy"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="K335" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L335" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["Tramzy"][0], WHResult.Player1Win, 736);</v>
+      </c>
+      <c r="M335" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N335" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O335" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P335" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Tricks"][1]++; players["Tramzy"][2]++; </v>
+      </c>
+      <c r="Q335" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Tricks"][3] = players["Tricks"][3] + 3;</v>
+      </c>
+      <c r="R335" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Tramzy"][3] = players["Tramzy"][3] + 0;</v>
+      </c>
+      <c r="S335" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Tricks"][4] = players["Tricks"][4] + 0;</v>
+      </c>
+      <c r="T335" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Tramzy"][4] = players["Tramzy"][4] + 3;</v>
+      </c>
+      <c r="U335" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="60"/>
+        <v>737</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F336" t="s">
+        <v>304</v>
+      </c>
+      <c r="G336" t="s">
+        <v>12</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["Luso"][0], WHResult.Player1Win, 737);</v>
+      </c>
+      <c r="I336" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J336" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["Luso"][0], WHResult.Player1Win, 737);</v>
+      </c>
+      <c r="K336" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L336" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Tricks"][0], players["Luso"][0], WHResult.Player1Win, 737);</v>
+      </c>
+      <c r="M336" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N336" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O336" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P336" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Tricks"][1]++; players["Luso"][2]++; </v>
+      </c>
+      <c r="Q336" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Tricks"][3] = players["Tricks"][3] + 3;</v>
+      </c>
+      <c r="R336" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 0;</v>
+      </c>
+      <c r="S336" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Tricks"][4] = players["Tricks"][4] + 0;</v>
+      </c>
+      <c r="T336" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+      </c>
+      <c r="U336" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="60"/>
+        <v>738</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F337" t="s">
+        <v>304</v>
+      </c>
+      <c r="G337" t="s">
+        <v>12</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["J0k3r"][0], players["XanderG"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="I337" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J337" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["J0k3r"][0], players["XanderG"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="K337" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L337" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["J0k3r"][0], players["XanderG"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="M337" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N337" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O337" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P337" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["XanderG"][2]++; </v>
+      </c>
+      <c r="Q337" t="str">
+        <f t="shared" si="70"/>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
+      </c>
+      <c r="R337" t="str">
+        <f t="shared" si="71"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 0;</v>
+      </c>
+      <c r="S337" t="str">
+        <f t="shared" si="72"/>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
+      </c>
+      <c r="T337" t="str">
+        <f t="shared" si="73"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 3;</v>
+      </c>
+      <c r="U337" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="60"/>
+        <v>738</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F338" t="s">
+        <v>304</v>
+      </c>
+      <c r="G338" t="s">
+        <v>12</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Tramzy"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="I338" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J338" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Tramzy"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="K338" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L338" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Tramzy"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="M338" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N338" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O338" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P338" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Luso"][1]++; players["Tramzy"][2]++; </v>
+      </c>
+      <c r="Q338" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 3;</v>
+      </c>
+      <c r="R338" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Tramzy"][3] = players["Tramzy"][3] + 0;</v>
+      </c>
+      <c r="S338" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 0;</v>
+      </c>
+      <c r="T338" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Tramzy"][4] = players["Tramzy"][4] + 3;</v>
+      </c>
+      <c r="U338" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="60"/>
+        <v>738</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F339" t="s">
+        <v>304</v>
+      </c>
+      <c r="G339" t="s">
+        <v>12</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Luso"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="I339" t="str">
+        <f t="shared" si="62"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Luso"][0], WHResult.Player2Win, 738);</v>
+      </c>
+      <c r="J339" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Luso"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="K339" t="str">
+        <f t="shared" si="64"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Luso"][0], WHResult.Player2Win, 738);</v>
+      </c>
+      <c r="L339" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Luso"][0], WHResult.Player1Win, 738);</v>
+      </c>
+      <c r="M339" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N339" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O339" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P339" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["ThisIsMyUsername"][1]++; players["Luso"][2]++; </v>
+      </c>
+      <c r="Q339" t="str">
+        <f t="shared" si="70"/>
+        <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 3;</v>
+      </c>
+      <c r="R339" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 2;</v>
+      </c>
+      <c r="S339" t="str">
+        <f t="shared" si="72"/>
+        <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 2;</v>
+      </c>
+      <c r="T339" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+      </c>
+      <c r="U339" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="60"/>
+        <v>739</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F340" t="s">
+        <v>304</v>
+      </c>
+      <c r="G340" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 739);</v>
+      </c>
+      <c r="I340" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J340" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 739);</v>
+      </c>
+      <c r="K340" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L340" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 739);</v>
+      </c>
+      <c r="M340" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N340" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O340" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P340" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Rocci"][1]++; players["Nick The Ultra"][2]++; </v>
+      </c>
+      <c r="Q340" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Rocci"][3] = players["Rocci"][3] + 3;</v>
+      </c>
+      <c r="R340" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Nick The Ultra"][3] = players["Nick The Ultra"][3] + 0;</v>
+      </c>
+      <c r="S340" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Rocci"][4] = players["Rocci"][4] + 0;</v>
+      </c>
+      <c r="T340" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Nick The Ultra"][4] = players["Nick The Ultra"][4] + 3;</v>
+      </c>
+      <c r="U340" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="60"/>
+        <v>739</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F341" t="s">
+        <v>304</v>
+      </c>
+      <c r="G341" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Rickshaw"][0], WHResult.Player1Win, 739);</v>
+      </c>
+      <c r="I341" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J341" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Rickshaw"][0], WHResult.Player1Win, 739);</v>
+      </c>
+      <c r="K341" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L341" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["J0k3r"][0], players["Rickshaw"][0], WHResult.Player1Win, 739);</v>
+      </c>
+      <c r="M341" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N341" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O341" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P341" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["Rickshaw"][2]++; </v>
+      </c>
+      <c r="Q341" t="str">
+        <f t="shared" si="70"/>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
+      </c>
+      <c r="R341" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 0;</v>
+      </c>
+      <c r="S341" t="str">
+        <f t="shared" si="72"/>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 0;</v>
+      </c>
+      <c r="T341" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 3;</v>
+      </c>
+      <c r="U341" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="60"/>
+        <v>740</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F342" t="s">
+        <v>304</v>
+      </c>
+      <c r="G342" t="s">
+        <v>12</v>
+      </c>
+      <c r="H342" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Nick The Ultra"][0], players["DexDax"][0], WHResult.Player1Win, 740);</v>
+      </c>
+      <c r="I342" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J342" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Nick The Ultra"][0], players["DexDax"][0], WHResult.Player1Win, 740);</v>
+      </c>
+      <c r="K342" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L342" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Nick The Ultra"][0], players["DexDax"][0], WHResult.Player1Win, 740);</v>
+      </c>
+      <c r="M342" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N342" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O342" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P342" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Nick The Ultra"][1]++; players["DexDax"][2]++; </v>
+      </c>
+      <c r="Q342" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Nick The Ultra"][3] = players["Nick The Ultra"][3] + 3;</v>
+      </c>
+      <c r="R342" t="str">
+        <f t="shared" si="71"/>
+        <v>players["DexDax"][3] = players["DexDax"][3] + 0;</v>
+      </c>
+      <c r="S342" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Nick The Ultra"][4] = players["Nick The Ultra"][4] + 0;</v>
+      </c>
+      <c r="T342" t="str">
+        <f t="shared" si="73"/>
+        <v>players["DexDax"][4] = players["DexDax"][4] + 3;</v>
+      </c>
+      <c r="U342" t="str">
         <f t="shared" si="74"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -28010,10 +28732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32141,7 +32863,7 @@
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>66</v>
@@ -32154,7 +32876,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["Slosh"][0], players["Zeiger"][0], WHResult.Player1Win, 83);</v>
+        <v>whr.CreateGame(players["Slosh"][0], players["Gucky"][0], WHResult.Player1Win, 83);</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="2"/>
@@ -32162,7 +32884,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["Slosh"][0], players["Zeiger"][0], WHResult.Player1Win, 83);</v>
+        <v>whr.CreateGame(players["Slosh"][0], players["Gucky"][0], WHResult.Player1Win, 83);</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="4"/>
@@ -32186,7 +32908,7 @@
       </c>
       <c r="P53" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["Slosh"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["Slosh"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="10"/>
@@ -32194,7 +32916,7 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" si="11"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="12"/>
@@ -32202,7 +32924,7 @@
       </c>
       <c r="T53" t="str">
         <f t="shared" si="13"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 2;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 2;</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="14"/>
@@ -32538,7 +33260,7 @@
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
         <v>244</v>
@@ -32554,15 +33276,15 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["Zeiger"][0], players["Teke"][0], WHResult.Player1Win, 84);</v>
+        <v>whr.CreateGame(players["Gucky"][0], players["Teke"][0], WHResult.Player1Win, 84);</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>whr.CreateGame(players["Zeiger"][0], players["Teke"][0], WHResult.Player2Win, 84);</v>
+        <v>whr.CreateGame(players["Gucky"][0], players["Teke"][0], WHResult.Player2Win, 84);</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["Zeiger"][0], players["Teke"][0], WHResult.Player1Win, 84);</v>
+        <v>whr.CreateGame(players["Gucky"][0], players["Teke"][0], WHResult.Player1Win, 84);</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="4"/>
@@ -32586,11 +33308,11 @@
       </c>
       <c r="P58" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["Zeiger"][1]++; players["Teke"][2]++; </v>
+        <v xml:space="preserve">players["Gucky"][1]++; players["Teke"][2]++; </v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="10"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 2;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 2;</v>
       </c>
       <c r="R58" t="str">
         <f t="shared" si="11"/>
@@ -32598,7 +33320,7 @@
       </c>
       <c r="S58" t="str">
         <f t="shared" si="12"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 1;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 1;</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" si="13"/>
@@ -32941,7 +33663,7 @@
         <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>66</v>
@@ -32954,7 +33676,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 86);</v>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Gucky"][0], WHResult.Player1Win, 86);</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="2"/>
@@ -32962,7 +33684,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 86);</v>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Gucky"][0], WHResult.Player1Win, 86);</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="4"/>
@@ -32986,7 +33708,7 @@
       </c>
       <c r="P63" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["banana_steals"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="10"/>
@@ -32994,7 +33716,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" si="11"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="12"/>
@@ -33002,7 +33724,7 @@
       </c>
       <c r="T63" t="str">
         <f t="shared" si="13"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 2;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 2;</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="14"/>
@@ -33101,7 +33823,7 @@
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>41</v>
@@ -33114,7 +33836,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["Luso"][0], players["Zeiger"][0], WHResult.Player1Win, 87);</v>
+        <v>whr.CreateGame(players["Luso"][0], players["Gucky"][0], WHResult.Player1Win, 87);</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="2"/>
@@ -33122,7 +33844,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["Luso"][0], players["Zeiger"][0], WHResult.Player1Win, 87);</v>
+        <v>whr.CreateGame(players["Luso"][0], players["Gucky"][0], WHResult.Player1Win, 87);</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="4"/>
@@ -33130,7 +33852,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["Luso"][0], players["Zeiger"][0], WHResult.Player1Win, 87);</v>
+        <v>whr.CreateGame(players["Luso"][0], players["Gucky"][0], WHResult.Player1Win, 87);</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="6"/>
@@ -33146,7 +33868,7 @@
       </c>
       <c r="P65" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["Luso"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["Luso"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="10"/>
@@ -33154,7 +33876,7 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" si="11"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" si="12"/>
@@ -33162,7 +33884,7 @@
       </c>
       <c r="T65" t="str">
         <f t="shared" si="13"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="14"/>
@@ -33901,7 +34623,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>41</v>
@@ -33914,7 +34636,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["CDH"][0], players["Zeiger"][0], WHResult.Player1Win, 90);</v>
+        <v>whr.CreateGame(players["CDH"][0], players["Gucky"][0], WHResult.Player1Win, 90);</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
@@ -33922,7 +34644,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["CDH"][0], players["Zeiger"][0], WHResult.Player1Win, 90);</v>
+        <v>whr.CreateGame(players["CDH"][0], players["Gucky"][0], WHResult.Player1Win, 90);</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="4"/>
@@ -33930,7 +34652,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["CDH"][0], players["Zeiger"][0], WHResult.Player1Win, 90);</v>
+        <v>whr.CreateGame(players["CDH"][0], players["Gucky"][0], WHResult.Player1Win, 90);</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="6"/>
@@ -33946,7 +34668,7 @@
       </c>
       <c r="P75" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["CDH"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["CDH"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="10"/>
@@ -33954,7 +34676,7 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" si="11"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" si="12"/>
@@ -33962,7 +34684,7 @@
       </c>
       <c r="T75" t="str">
         <f t="shared" si="13"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="14"/>
@@ -34461,7 +35183,7 @@
         <v>241</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>41</v>
@@ -34474,7 +35196,7 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Zeiger"][0], WHResult.Player1Win, 100);</v>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Gucky"][0], WHResult.Player1Win, 100);</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="2"/>
@@ -34482,7 +35204,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="3"/>
-        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Zeiger"][0], WHResult.Player1Win, 100);</v>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Gucky"][0], WHResult.Player1Win, 100);</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="4"/>
@@ -34490,7 +35212,7 @@
       </c>
       <c r="L82" t="str">
         <f t="shared" si="5"/>
-        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Zeiger"][0], WHResult.Player1Win, 100);</v>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Gucky"][0], WHResult.Player1Win, 100);</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" si="6"/>
@@ -34506,7 +35228,7 @@
       </c>
       <c r="P82" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">players["RolePlayingGrandma"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["RolePlayingGrandma"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="10"/>
@@ -34514,7 +35236,7 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" si="11"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="12"/>
@@ -34522,7 +35244,7 @@
       </c>
       <c r="T82" t="str">
         <f t="shared" si="13"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="14"/>
@@ -34821,7 +35543,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O143" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O152" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -34845,7 +35567,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U143" si="16">O86</f>
+        <f t="shared" ref="U86:U152" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -34953,31 +35675,31 @@
         <v>288</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H143" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H152" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I143" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I152" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J143" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J152" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K143" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K152" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L143" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L152" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M143" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M152" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N143" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N152" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -34985,23 +35707,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P143" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P152" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q143" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q152" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R143" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R152" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S143" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S152" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T143" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T152" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -35014,7 +35736,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B143" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B152" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -36061,7 +36783,7 @@
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>41</v>
@@ -36074,7 +36796,7 @@
       </c>
       <c r="H102" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["ImSpiker"][0], players["Zeiger"][0], WHResult.Player1Win, 119);</v>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Gucky"][0], WHResult.Player1Win, 119);</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="18"/>
@@ -36082,7 +36804,7 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["ImSpiker"][0], players["Zeiger"][0], WHResult.Player1Win, 119);</v>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Gucky"][0], WHResult.Player1Win, 119);</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="20"/>
@@ -36090,7 +36812,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["ImSpiker"][0], players["Zeiger"][0], WHResult.Player1Win, 119);</v>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Gucky"][0], WHResult.Player1Win, 119);</v>
       </c>
       <c r="M102" t="str">
         <f t="shared" si="22"/>
@@ -36106,7 +36828,7 @@
       </c>
       <c r="P102" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["ImSpiker"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["ImSpiker"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="25"/>
@@ -36114,7 +36836,7 @@
       </c>
       <c r="R102" t="str">
         <f t="shared" si="26"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="27"/>
@@ -36122,7 +36844,7 @@
       </c>
       <c r="T102" t="str">
         <f t="shared" si="28"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="16"/>
@@ -36138,7 +36860,7 @@
         <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
         <v>30</v>
@@ -36154,7 +36876,7 @@
       </c>
       <c r="H103" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["Zeiger"][0], players["Rocci"][0], WHResult.Player1Win, 120);</v>
+        <v>whr.CreateGame(players["Gucky"][0], players["Rocci"][0], WHResult.Player1Win, 120);</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="18"/>
@@ -36162,7 +36884,7 @@
       </c>
       <c r="J103" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["Zeiger"][0], players["Rocci"][0], WHResult.Player1Win, 120);</v>
+        <v>whr.CreateGame(players["Gucky"][0], players["Rocci"][0], WHResult.Player1Win, 120);</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="20"/>
@@ -36170,7 +36892,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["Zeiger"][0], players["Rocci"][0], WHResult.Player1Win, 120);</v>
+        <v>whr.CreateGame(players["Gucky"][0], players["Rocci"][0], WHResult.Player1Win, 120);</v>
       </c>
       <c r="M103" t="str">
         <f t="shared" si="22"/>
@@ -36186,11 +36908,11 @@
       </c>
       <c r="P103" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["Zeiger"][1]++; players["Rocci"][2]++; </v>
+        <v xml:space="preserve">players["Gucky"][1]++; players["Rocci"][2]++; </v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="25"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 3;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 3;</v>
       </c>
       <c r="R103" t="str">
         <f t="shared" si="26"/>
@@ -36198,7 +36920,7 @@
       </c>
       <c r="S103" t="str">
         <f t="shared" si="27"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 0;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 0;</v>
       </c>
       <c r="T103" t="str">
         <f t="shared" si="28"/>
@@ -37101,7 +37823,7 @@
         <v>244</v>
       </c>
       <c r="D115" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>43</v>
@@ -37114,23 +37836,23 @@
       </c>
       <c r="H115" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["Teke"][0], players["Zeiger"][0], WHResult.Player1Win, 132);</v>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player1Win, 132);</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["Teke"][0], players["Zeiger"][0], WHResult.Player2Win, 132);</v>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player2Win, 132);</v>
       </c>
       <c r="J115" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["Teke"][0], players["Zeiger"][0], WHResult.Player1Win, 132);</v>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player1Win, 132);</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["Teke"][0], players["Zeiger"][0], WHResult.Player2Win, 132);</v>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player2Win, 132);</v>
       </c>
       <c r="L115" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["Teke"][0], players["Zeiger"][0], WHResult.Player1Win, 132);</v>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player1Win, 132);</v>
       </c>
       <c r="M115" t="str">
         <f t="shared" si="22"/>
@@ -37146,7 +37868,7 @@
       </c>
       <c r="P115" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["Teke"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["Teke"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="25"/>
@@ -37154,7 +37876,7 @@
       </c>
       <c r="R115" t="str">
         <f t="shared" si="26"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 2;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 2;</v>
       </c>
       <c r="S115" t="str">
         <f t="shared" si="27"/>
@@ -37162,7 +37884,7 @@
       </c>
       <c r="T115" t="str">
         <f t="shared" si="28"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U115" t="str">
         <f t="shared" si="16"/>
@@ -38867,7 +39589,7 @@
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -38938,39 +39660,39 @@
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Slosh"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player2Win, 190);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Slosh"][0], WHResult.Player2Win, 190);</v>
       </c>
       <c r="J138" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Slosh"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="K138" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player2Win, 190);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Slosh"][0], WHResult.Player2Win, 190);</v>
       </c>
       <c r="L138" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Slosh"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="M138" t="str">
         <f t="shared" si="22"/>
@@ -38978,35 +39700,35 @@
       </c>
       <c r="N138" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Slosh"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="O138" t="str">
         <f t="shared" si="15"/>
-        <v>// MSL Summer Split '21 Group Stage</v>
+        <v>// Basketball Scoring Tourney Consolation Semi Finals</v>
       </c>
       <c r="P138" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["Mylo Grams"][1]++; players["NukeTheWales"][2]++; </v>
+        <v xml:space="preserve">players["nolbear"][1]++; players["Slosh"][2]++; </v>
       </c>
       <c r="Q138" t="str">
         <f t="shared" si="25"/>
-        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 3;</v>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 4;</v>
       </c>
       <c r="R138" t="str">
         <f t="shared" si="26"/>
-        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 2;</v>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 2;</v>
       </c>
       <c r="S138" t="str">
         <f t="shared" si="27"/>
-        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 2;</v>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 2;</v>
       </c>
       <c r="T138" t="str">
         <f t="shared" si="28"/>
-        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 4;</v>
       </c>
       <c r="U138" t="str">
         <f t="shared" si="16"/>
-        <v>// MSL Summer Split '21 Group Stage</v>
+        <v>// Basketball Scoring Tourney Consolation Semi Finals</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -39018,39 +39740,39 @@
         <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="D139" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player2Win, 190);</v>
       </c>
       <c r="J139" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="K139" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player2Win, 190);</v>
       </c>
       <c r="L139" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["NukeTheWales"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="M139" t="str">
         <f t="shared" si="22"/>
@@ -39066,23 +39788,23 @@
       </c>
       <c r="P139" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["Pied"][1]++; players["Poolboi"][2]++; </v>
+        <v xml:space="preserve">players["Mylo Grams"][1]++; players["NukeTheWales"][2]++; </v>
       </c>
       <c r="Q139" t="str">
         <f t="shared" si="25"/>
-        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 3;</v>
       </c>
       <c r="R139" t="str">
         <f t="shared" si="26"/>
-        <v>players["Poolboi"][3] = players["Poolboi"][3] + 0;</v>
+        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 2;</v>
       </c>
       <c r="S139" t="str">
         <f t="shared" si="27"/>
-        <v>players["Pied"][4] = players["Pied"][4] + 0;</v>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 2;</v>
       </c>
       <c r="T139" t="str">
         <f t="shared" si="28"/>
-        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
+        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
       </c>
       <c r="U139" t="str">
         <f t="shared" si="16"/>
@@ -39098,23 +39820,23 @@
         <v>190</v>
       </c>
       <c r="C140" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="D140" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="18"/>
@@ -39122,7 +39844,7 @@
       </c>
       <c r="J140" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="K140" t="str">
         <f t="shared" si="20"/>
@@ -39130,7 +39852,7 @@
       </c>
       <c r="L140" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["Zeiger"][0], WHResult.Player1Win, 190);</v>
+        <v>whr.CreateGame(players["Pied"][0], players["Poolboi"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="M140" t="str">
         <f t="shared" si="22"/>
@@ -39146,23 +39868,23 @@
       </c>
       <c r="P140" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["banana_steals"][1]++; players["Zeiger"][2]++; </v>
+        <v xml:space="preserve">players["Pied"][1]++; players["Poolboi"][2]++; </v>
       </c>
       <c r="Q140" t="str">
         <f t="shared" si="25"/>
-        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
       </c>
       <c r="R140" t="str">
         <f t="shared" si="26"/>
-        <v>players["Zeiger"][3] = players["Zeiger"][3] + 0;</v>
+        <v>players["Poolboi"][3] = players["Poolboi"][3] + 0;</v>
       </c>
       <c r="S140" t="str">
         <f t="shared" si="27"/>
-        <v>players["banana_steals"][4] = players["banana_steals"][4] + 0;</v>
+        <v>players["Pied"][4] = players["Pied"][4] + 0;</v>
       </c>
       <c r="T140" t="str">
         <f t="shared" si="28"/>
-        <v>players["Zeiger"][4] = players["Zeiger"][4] + 3;</v>
+        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
       </c>
       <c r="U140" t="str">
         <f t="shared" si="16"/>
@@ -39171,46 +39893,46 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B141">
         <f t="shared" si="29"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Gucky"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player2Win, 191);</v>
+        <v/>
       </c>
       <c r="J141" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Gucky"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="K141" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player2Win, 191);</v>
+        <v/>
       </c>
       <c r="L141" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Gucky"][0], WHResult.Player1Win, 190);</v>
       </c>
       <c r="M141" t="str">
         <f t="shared" si="22"/>
@@ -39226,23 +39948,23 @@
       </c>
       <c r="P141" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["nolbear"][1]++; players["Luso"][2]++; </v>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["Gucky"][2]++; </v>
       </c>
       <c r="Q141" t="str">
         <f t="shared" si="25"/>
-        <v>players["nolbear"][3] = players["nolbear"][3] + 3;</v>
+        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R141" t="str">
         <f t="shared" si="26"/>
-        <v>players["Luso"][3] = players["Luso"][3] + 2;</v>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" si="27"/>
-        <v>players["nolbear"][4] = players["nolbear"][4] + 2;</v>
+        <v>players["banana_steals"][4] = players["banana_steals"][4] + 0;</v>
       </c>
       <c r="T141" t="str">
         <f t="shared" si="28"/>
-        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U141" t="str">
         <f t="shared" si="16"/>
@@ -39258,39 +39980,39 @@
         <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player2Win, 191);</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
       </c>
       <c r="K142" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player2Win, 191);</v>
       </c>
       <c r="L142" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["nolbear"][0], players["Luso"][0], WHResult.Player1Win, 191);</v>
       </c>
       <c r="M142" t="str">
         <f t="shared" si="22"/>
@@ -39306,23 +40028,23 @@
       </c>
       <c r="P142" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["Pied"][1]++; players["SweetieMan"][2]++; </v>
+        <v xml:space="preserve">players["nolbear"][1]++; players["Luso"][2]++; </v>
       </c>
       <c r="Q142" t="str">
         <f t="shared" si="25"/>
-        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 3;</v>
       </c>
       <c r="R142" t="str">
         <f t="shared" si="26"/>
-        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 0;</v>
+        <v>players["Luso"][3] = players["Luso"][3] + 2;</v>
       </c>
       <c r="S142" t="str">
         <f t="shared" si="27"/>
-        <v>players["Pied"][4] = players["Pied"][4] + 0;</v>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 2;</v>
       </c>
       <c r="T142" t="str">
         <f t="shared" si="28"/>
-        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
       </c>
       <c r="U142" t="str">
         <f t="shared" si="16"/>
@@ -39338,39 +40060,39 @@
         <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="17"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="18"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player2Win, 191);</v>
+        <v/>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="19"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
       </c>
       <c r="K143" t="str">
         <f t="shared" si="20"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player2Win, 191);</v>
+        <v/>
       </c>
       <c r="L143" t="str">
         <f t="shared" si="21"/>
-        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+        <v>whr.CreateGame(players["Pied"][0], players["SweetieMan"][0], WHResult.Player1Win, 191);</v>
       </c>
       <c r="M143" t="str">
         <f t="shared" si="22"/>
@@ -39386,25 +40108,745 @@
       </c>
       <c r="P143" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">players["banana_steals"][1]++; players["XanderG"][2]++; </v>
+        <v xml:space="preserve">players["Pied"][1]++; players["SweetieMan"][2]++; </v>
       </c>
       <c r="Q143" t="str">
         <f t="shared" si="25"/>
-        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
       </c>
       <c r="R143" t="str">
         <f t="shared" si="26"/>
-        <v>players["XanderG"][3] = players["XanderG"][3] + 2;</v>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 0;</v>
       </c>
       <c r="S143" t="str">
         <f t="shared" si="27"/>
-        <v>players["banana_steals"][4] = players["banana_steals"][4] + 2;</v>
+        <v>players["Pied"][4] = players["Pied"][4] + 0;</v>
       </c>
       <c r="T143" t="str">
         <f t="shared" si="28"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+      </c>
+      <c r="U143" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C144" t="s">
+        <v>240</v>
+      </c>
+      <c r="D144" t="s">
+        <v>79</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s">
+        <v>304</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player2Win, 191);</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player2Win, 191);</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["XanderG"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O144" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P144" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["XanderG"][2]++; </v>
+      </c>
+      <c r="Q144" t="str">
+        <f t="shared" si="25"/>
+        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+      </c>
+      <c r="R144" t="str">
+        <f t="shared" si="26"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 2;</v>
+      </c>
+      <c r="S144" t="str">
+        <f t="shared" si="27"/>
+        <v>players["banana_steals"][4] = players["banana_steals"][4] + 2;</v>
+      </c>
+      <c r="T144" t="str">
+        <f t="shared" si="28"/>
         <v>players["XanderG"][4] = players["XanderG"][4] + 3;</v>
       </c>
-      <c r="U143" t="str">
+      <c r="U144" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C145" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" t="s">
+        <v>244</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F145" t="s">
+        <v>304</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Teke"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Teke"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Teke"][0], WHResult.Player1Win, 191);</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P145" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["XanderG"][1]++; players["Teke"][2]++; </v>
+      </c>
+      <c r="Q145" t="str">
+        <f t="shared" si="25"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
+      </c>
+      <c r="R145" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Teke"][3] = players["Teke"][3] + 0;</v>
+      </c>
+      <c r="S145" t="str">
+        <f t="shared" si="27"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
+      </c>
+      <c r="T145" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Teke"][4] = players["Teke"][4] + 3;</v>
+      </c>
+      <c r="U145" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>79</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F146" t="s">
+        <v>304</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["XanderG"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["XanderG"][0], WHResult.Player2Win, 192);</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["XanderG"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["XanderG"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O146" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P146" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Slosh"][1]++; players["XanderG"][2]++; </v>
+      </c>
+      <c r="Q146" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 3;</v>
+      </c>
+      <c r="R146" t="str">
+        <f t="shared" si="26"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 1;</v>
+      </c>
+      <c r="S146" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 1;</v>
+      </c>
+      <c r="T146" t="str">
+        <f t="shared" si="28"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 3;</v>
+      </c>
+      <c r="U146" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" t="s">
+        <v>241</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" t="s">
+        <v>304</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Pied"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Pied"][0], players["RolePlayingGrandma"][0], WHResult.Player2Win, 192);</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Pied"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Pied"][0], players["RolePlayingGrandma"][0], WHResult.Player2Win, 192);</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Pied"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O147" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P147" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Pied"][1]++; players["RolePlayingGrandma"][2]++; </v>
+      </c>
+      <c r="Q147" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+      </c>
+      <c r="R147" t="str">
+        <f t="shared" si="26"/>
+        <v>players["RolePlayingGrandma"][3] = players["RolePlayingGrandma"][3] + 2;</v>
+      </c>
+      <c r="S147" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Pied"][4] = players["Pied"][4] + 2;</v>
+      </c>
+      <c r="T147" t="str">
+        <f t="shared" si="28"/>
+        <v>players["RolePlayingGrandma"][4] = players["RolePlayingGrandma"][4] + 3;</v>
+      </c>
+      <c r="U147" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C148" t="s">
+        <v>71</v>
+      </c>
+      <c r="D148" t="s">
+        <v>244</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" t="s">
+        <v>304</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Teke"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Teke"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Teke"][0], WHResult.Player1Win, 192);</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O148" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P148" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Slosh"][1]++; players["Teke"][2]++; </v>
+      </c>
+      <c r="Q148" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 3;</v>
+      </c>
+      <c r="R148" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Teke"][3] = players["Teke"][3] + 0;</v>
+      </c>
+      <c r="S148" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 0;</v>
+      </c>
+      <c r="T148" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Teke"][4] = players["Teke"][4] + 3;</v>
+      </c>
+      <c r="U148" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="C149" t="s">
+        <v>243</v>
+      </c>
+      <c r="D149" t="s">
+        <v>241</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" t="s">
+        <v>293</v>
+      </c>
+      <c r="G149" t="s">
+        <v>307</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 193);</v>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J149" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 193);</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 193);</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="23"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 193);</v>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="15"/>
+        <v>// Basketball Scoring Tourney Consolation Finals</v>
+      </c>
+      <c r="P149" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["nolbear"][1]++; players["RolePlayingGrandma"][2]++; </v>
+      </c>
+      <c r="Q149" t="str">
+        <f t="shared" si="25"/>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 4;</v>
+      </c>
+      <c r="R149" t="str">
+        <f t="shared" si="26"/>
+        <v>players["RolePlayingGrandma"][3] = players["RolePlayingGrandma"][3] + 0;</v>
+      </c>
+      <c r="S149" t="str">
+        <f t="shared" si="27"/>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 0;</v>
+      </c>
+      <c r="T149" t="str">
+        <f t="shared" si="28"/>
+        <v>players["RolePlayingGrandma"][4] = players["RolePlayingGrandma"][4] + 4;</v>
+      </c>
+      <c r="U149" t="str">
+        <f t="shared" si="16"/>
+        <v>// Basketball Scoring Tourney Consolation Finals</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F150" t="s">
+        <v>304</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Luso"][0], players["BeerMelancon"][0], WHResult.Player1Win, 194);</v>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Luso"][0], players["BeerMelancon"][0], WHResult.Player2Win, 194);</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Luso"][0], players["BeerMelancon"][0], WHResult.Player1Win, 194);</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Luso"][0], players["BeerMelancon"][0], WHResult.Player1Win, 194);</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O150" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P150" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Luso"][1]++; players["BeerMelancon"][2]++; </v>
+      </c>
+      <c r="Q150" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 3;</v>
+      </c>
+      <c r="R150" t="str">
+        <f t="shared" si="26"/>
+        <v>players["BeerMelancon"][3] = players["BeerMelancon"][3] + 1;</v>
+      </c>
+      <c r="S150" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 1;</v>
+      </c>
+      <c r="T150" t="str">
+        <f t="shared" si="28"/>
+        <v>players["BeerMelancon"][4] = players["BeerMelancon"][4] + 3;</v>
+      </c>
+      <c r="U150" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="29"/>
+        <v>195</v>
+      </c>
+      <c r="C151" t="s">
+        <v>241</v>
+      </c>
+      <c r="D151" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F151" t="s">
+        <v>304</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["SweetieMan"][0], WHResult.Player1Win, 195);</v>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["SweetieMan"][0], WHResult.Player2Win, 195);</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["SweetieMan"][0], WHResult.Player1Win, 195);</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["SweetieMan"][0], WHResult.Player1Win, 195);</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["RolePlayingGrandma"][1]++; players["SweetieMan"][2]++; </v>
+      </c>
+      <c r="Q151" t="str">
+        <f t="shared" si="25"/>
+        <v>players["RolePlayingGrandma"][3] = players["RolePlayingGrandma"][3] + 3;</v>
+      </c>
+      <c r="R151" t="str">
+        <f t="shared" si="26"/>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 1;</v>
+      </c>
+      <c r="S151" t="str">
+        <f t="shared" si="27"/>
+        <v>players["RolePlayingGrandma"][4] = players["RolePlayingGrandma"][4] + 1;</v>
+      </c>
+      <c r="T151" t="str">
+        <f t="shared" si="28"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+      </c>
+      <c r="U151" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="29"/>
+        <v>195</v>
+      </c>
+      <c r="C152" t="s">
+        <v>71</v>
+      </c>
+      <c r="D152" t="s">
+        <v>247</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F152" t="s">
+        <v>304</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Gucky"][0], WHResult.Player1Win, 195);</v>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Gucky"][0], WHResult.Player1Win, 195);</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Gucky"][0], WHResult.Player1Win, 195);</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Slosh"][1]++; players["Gucky"][2]++; </v>
+      </c>
+      <c r="Q152" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 3;</v>
+      </c>
+      <c r="R152" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
+      </c>
+      <c r="S152" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 0;</v>
+      </c>
+      <c r="T152" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
+      </c>
+      <c r="U152" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492069B-5852-461D-A413-F4F54D814E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD55C16-0668-4C72-95CC-0EF35F426364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
     <sheet name="SMS" sheetId="2" r:id="rId2"/>
-    <sheet name="My Private Match results" sheetId="3" r:id="rId3"/>
-    <sheet name="Countries" sheetId="5" r:id="rId4"/>
-    <sheet name="Scrap" sheetId="4" r:id="rId5"/>
-    <sheet name="More Scrap" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="My Private Match results" sheetId="3" r:id="rId5"/>
+    <sheet name="Countries" sheetId="5" r:id="rId6"/>
+    <sheet name="Scrap" sheetId="4" r:id="rId7"/>
+    <sheet name="More Scrap" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MSC!$A$1:$G$318</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="331">
   <si>
     <t>Day</t>
   </si>
@@ -787,12 +789,6 @@
     <t>Gucky</t>
   </si>
   <si>
-    <t>MyloGrams v RolePlayingGrandma</t>
-  </si>
-  <si>
-    <t>NukeTheWales v ImSpiker</t>
-  </si>
-  <si>
     <t>Favored in 2</t>
   </si>
   <si>
@@ -860,18 +856,6 @@
   </si>
   <si>
     <t>Professional I</t>
-  </si>
-  <si>
-    <t>Agent A v NukeTheWales</t>
-  </si>
-  <si>
-    <t>Agent A v ImSpiker</t>
-  </si>
-  <si>
-    <t>Slosh v MyloGrams</t>
-  </si>
-  <si>
-    <t>Slosh v RolePlayingGrandma</t>
   </si>
   <si>
     <t>banana_steals v Gucky</t>
@@ -969,12 +953,96 @@
   <si>
     <t>BeerMelancon</t>
   </si>
+  <si>
+    <t>SweetieMan v Poolboi</t>
+  </si>
+  <si>
+    <t>nolbear v NukeTheWales</t>
+  </si>
+  <si>
+    <t>NukeTheWales v Luso</t>
+  </si>
+  <si>
+    <t>Mylo Grams v Luso</t>
+  </si>
+  <si>
+    <t>NukeTheWales v BeerMelancon</t>
+  </si>
+  <si>
+    <t>nolbear v BeerMelancon</t>
+  </si>
+  <si>
+    <t>Match C</t>
+  </si>
+  <si>
+    <t>Match A</t>
+  </si>
+  <si>
+    <t>Match B</t>
+  </si>
+  <si>
+    <t>Match D</t>
+  </si>
+  <si>
+    <t>Loser of B</t>
+  </si>
+  <si>
+    <t>Ultra!</t>
+  </si>
+  <si>
+    <t>Loser of A</t>
+  </si>
+  <si>
+    <t>Summer Championship</t>
+  </si>
+  <si>
+    <t>2nd Place A2</t>
+  </si>
+  <si>
+    <t>1st Place A3</t>
+  </si>
+  <si>
+    <t>1st Place A2</t>
+  </si>
+  <si>
+    <t>2nd Place A3</t>
+  </si>
+  <si>
+    <t>4th Place A2</t>
+  </si>
+  <si>
+    <t>3rd Place A2</t>
+  </si>
+  <si>
+    <t>Loser of C</t>
+  </si>
+  <si>
+    <t>Loser of D</t>
+  </si>
+  <si>
+    <t>1st Place A1</t>
+  </si>
+  <si>
+    <t>2nd Place A1</t>
+  </si>
+  <si>
+    <t>4th Place A1</t>
+  </si>
+  <si>
+    <t>3rd Place A3</t>
+  </si>
+  <si>
+    <t>3rd Place A1</t>
+  </si>
+  <si>
+    <t>4th Place A3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,8 +1086,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,13 +1127,78 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1052,7 +1208,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1080,6 +1236,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1397,11 +1566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
-  <dimension ref="A1:U342"/>
+  <dimension ref="A1:U344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C340" sqref="C340:G342"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:U344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21923,7 +22092,7 @@
         <v>44211</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B342" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
+        <f t="shared" ref="B258:B344" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
         <v>582</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -21942,59 +22111,59 @@
         <v>12</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H342" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="H258:H344" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I258" t="str">
-        <f t="shared" ref="I258:I342" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="I258:I344" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player2Win, 582);</v>
       </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J342" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="J258:J344" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" ref="K258:K342" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="K258:K344" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="L258" t="str">
-        <f t="shared" ref="L258:L342" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="L258:L344" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M258" t="str">
-        <f t="shared" ref="M258:M342" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="M258:M344" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="N258" t="str">
-        <f t="shared" ref="N258:N342" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="N258:N344" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="O258" t="str">
-        <f t="shared" ref="O258:O342" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
+        <f t="shared" ref="O258:O344" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" ref="P258:P342" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P258:P344" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["einBirnenbaum"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q258" t="str">
-        <f t="shared" ref="Q258:Q342" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="Q258:Q344" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R258" t="str">
-        <f t="shared" ref="R258:R342" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="R258:R344" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
         <v>players["BKXO"][3] = players["BKXO"][3] + 1;</v>
       </c>
       <c r="S258" t="str">
-        <f t="shared" ref="S258:S342" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="S258:S344" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 1;</v>
       </c>
       <c r="T258" t="str">
-        <f t="shared" ref="T258:T342" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="T258:T344" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
         <v>players["BKXO"][4] = players["BKXO"][4] + 3;</v>
       </c>
       <c r="U258" t="str">
-        <f t="shared" ref="U258:U342" si="74">O258</f>
+        <f t="shared" ref="U258:U344" si="74">O258</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
     </row>
@@ -23456,10 +23625,10 @@
         <v>41</v>
       </c>
       <c r="F277" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G277" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H277" t="str">
         <f t="shared" si="61"/>
@@ -23530,16 +23699,16 @@
         <v>30</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F278" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G278" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H278" t="str">
         <f t="shared" si="61"/>
@@ -23616,10 +23785,10 @@
         <v>43</v>
       </c>
       <c r="F279" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G279" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H279" t="str">
         <f t="shared" si="61"/>
@@ -23696,10 +23865,10 @@
         <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G280" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H280" t="str">
         <f t="shared" si="61"/>
@@ -23770,16 +23939,16 @@
         <v>6</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F281" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G281" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H281" t="str">
         <f t="shared" si="61"/>
@@ -23850,16 +24019,16 @@
         <v>7</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F282" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G282" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H282" t="str">
         <f t="shared" si="61"/>
@@ -23936,10 +24105,10 @@
         <v>41</v>
       </c>
       <c r="F283" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G283" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H283" t="str">
         <f t="shared" si="61"/>
@@ -24010,16 +24179,16 @@
         <v>27</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F284" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G284" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H284" t="str">
         <f t="shared" si="61"/>
@@ -24087,19 +24256,19 @@
         <v>634</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F285" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G285" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H285" t="str">
         <f t="shared" si="61"/>
@@ -24170,16 +24339,16 @@
         <v>79</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F286" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G286" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H286" t="str">
         <f t="shared" si="61"/>
@@ -24247,7 +24416,7 @@
         <v>637</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>27</v>
@@ -24256,10 +24425,10 @@
         <v>44</v>
       </c>
       <c r="F287" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G287" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H287" t="str">
         <f t="shared" si="61"/>
@@ -24336,10 +24505,10 @@
         <v>43</v>
       </c>
       <c r="F288" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G288" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H288" t="str">
         <f t="shared" si="61"/>
@@ -24407,7 +24576,7 @@
         <v>639</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>23</v>
@@ -24416,10 +24585,10 @@
         <v>43</v>
       </c>
       <c r="F289" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G289" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H289" t="str">
         <f t="shared" si="61"/>
@@ -24496,10 +24665,10 @@
         <v>44</v>
       </c>
       <c r="F290" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G290" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H290" t="str">
         <f t="shared" si="61"/>
@@ -24576,10 +24745,10 @@
         <v>43</v>
       </c>
       <c r="F291" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G291" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H291" t="str">
         <f t="shared" si="61"/>
@@ -24656,10 +24825,10 @@
         <v>44</v>
       </c>
       <c r="F292" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G292" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H292" t="str">
         <f t="shared" si="61"/>
@@ -24730,16 +24899,16 @@
         <v>26</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G293" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H293" t="str">
         <f t="shared" si="61"/>
@@ -24807,7 +24976,7 @@
         <v>643</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>79</v>
@@ -24816,10 +24985,10 @@
         <v>41</v>
       </c>
       <c r="F294" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G294" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H294" t="str">
         <f t="shared" si="61"/>
@@ -24890,16 +25059,16 @@
         <v>6</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F295" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G295" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H295" t="str">
         <f t="shared" si="61"/>
@@ -24970,16 +25139,16 @@
         <v>27</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F296" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G296" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H296" t="str">
         <f t="shared" si="61"/>
@@ -25056,10 +25225,10 @@
         <v>44</v>
       </c>
       <c r="F297" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G297" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H297" t="str">
         <f t="shared" si="61"/>
@@ -25136,10 +25305,10 @@
         <v>43</v>
       </c>
       <c r="F298" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G298" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H298" t="str">
         <f t="shared" si="61"/>
@@ -25216,10 +25385,10 @@
         <v>44</v>
       </c>
       <c r="F299" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G299" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H299" t="str">
         <f t="shared" si="61"/>
@@ -25287,7 +25456,7 @@
         <v>647</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>9</v>
@@ -25296,10 +25465,10 @@
         <v>41</v>
       </c>
       <c r="F300" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G300" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H300" t="str">
         <f t="shared" si="61"/>
@@ -25376,10 +25545,10 @@
         <v>41</v>
       </c>
       <c r="F301" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G301" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H301" t="str">
         <f t="shared" si="61"/>
@@ -25456,10 +25625,10 @@
         <v>41</v>
       </c>
       <c r="F302" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G302" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H302" t="str">
         <f t="shared" si="61"/>
@@ -25536,10 +25705,10 @@
         <v>41</v>
       </c>
       <c r="F303" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G303" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H303" t="str">
         <f t="shared" si="61"/>
@@ -25616,10 +25785,10 @@
         <v>41</v>
       </c>
       <c r="F304" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G304" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H304" t="str">
         <f t="shared" si="61"/>
@@ -25696,10 +25865,10 @@
         <v>43</v>
       </c>
       <c r="F305" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G305" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H305" t="str">
         <f t="shared" si="61"/>
@@ -25770,16 +25939,16 @@
         <v>27</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E306" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F306" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G306" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H306" t="str">
         <f t="shared" si="61"/>
@@ -25856,10 +26025,10 @@
         <v>44</v>
       </c>
       <c r="F307" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G307" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H307" t="str">
         <f t="shared" si="61"/>
@@ -25936,10 +26105,10 @@
         <v>43</v>
       </c>
       <c r="F308" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G308" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H308" t="str">
         <f t="shared" si="61"/>
@@ -26010,16 +26179,16 @@
         <v>30</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F309" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G309" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H309" t="str">
         <f t="shared" si="61"/>
@@ -26087,7 +26256,7 @@
         <v>657</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>86</v>
@@ -26096,10 +26265,10 @@
         <v>41</v>
       </c>
       <c r="F310" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G310" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H310" t="str">
         <f t="shared" si="61"/>
@@ -26170,16 +26339,16 @@
         <v>26</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F311" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G311" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H311" t="str">
         <f t="shared" si="61"/>
@@ -26256,10 +26425,10 @@
         <v>41</v>
       </c>
       <c r="F312" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G312" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H312" t="str">
         <f t="shared" si="61"/>
@@ -26330,16 +26499,16 @@
         <v>21</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F313" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G313" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H313" t="str">
         <f t="shared" si="61"/>
@@ -26416,10 +26585,10 @@
         <v>44</v>
       </c>
       <c r="F314" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G314" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H314" t="str">
         <f t="shared" si="61"/>
@@ -26496,10 +26665,10 @@
         <v>41</v>
       </c>
       <c r="F315" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G315" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H315" t="str">
         <f t="shared" si="61"/>
@@ -26570,16 +26739,16 @@
         <v>6</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F316" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G316" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H316" t="str">
         <f t="shared" si="61"/>
@@ -26650,16 +26819,16 @@
         <v>30</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F317" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G317" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H317" t="str">
         <f t="shared" si="61"/>
@@ -26727,7 +26896,7 @@
         <v>665</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>6</v>
@@ -26736,10 +26905,10 @@
         <v>43</v>
       </c>
       <c r="F318" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G318" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H318" t="str">
         <f t="shared" si="61"/>
@@ -26807,7 +26976,7 @@
         <v>667</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>26</v>
@@ -26816,10 +26985,10 @@
         <v>43</v>
       </c>
       <c r="F319" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G319" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H319" t="str">
         <f t="shared" si="61"/>
@@ -26896,10 +27065,10 @@
         <v>41</v>
       </c>
       <c r="F320" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G320" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H320" t="str">
         <f t="shared" si="61"/>
@@ -26976,10 +27145,10 @@
         <v>43</v>
       </c>
       <c r="F321" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G321" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H321" t="str">
         <f t="shared" si="61"/>
@@ -27056,10 +27225,10 @@
         <v>44</v>
       </c>
       <c r="F322" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G322" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H322" t="str">
         <f t="shared" si="61"/>
@@ -27136,10 +27305,10 @@
         <v>41</v>
       </c>
       <c r="F323" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G323" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H323" t="str">
         <f t="shared" si="61"/>
@@ -27210,16 +27379,16 @@
         <v>79</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F324" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G324" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H324" t="str">
         <f t="shared" si="61"/>
@@ -27287,19 +27456,19 @@
         <v>676</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F325" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G325" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H325" t="str">
         <f t="shared" si="61"/>
@@ -27367,7 +27536,7 @@
         <v>682</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>21</v>
@@ -27376,7 +27545,7 @@
         <v>46</v>
       </c>
       <c r="F326" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G326" t="s">
         <v>82</v>
@@ -27456,7 +27625,7 @@
         <v>42</v>
       </c>
       <c r="F327" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G327" t="s">
         <v>82</v>
@@ -27536,10 +27705,10 @@
         <v>46</v>
       </c>
       <c r="F328" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G328" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H328" t="str">
         <f t="shared" si="61"/>
@@ -27610,13 +27779,13 @@
         <v>7</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F329" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G329" t="s">
         <v>78</v>
@@ -27687,19 +27856,19 @@
         <v>695</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F330" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G330" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H330" t="str">
         <f t="shared" si="61"/>
@@ -27770,13 +27939,13 @@
         <v>21</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G331" t="s">
         <v>12</v>
@@ -27856,7 +28025,7 @@
         <v>41</v>
       </c>
       <c r="F332" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G332" t="s">
         <v>12</v>
@@ -27927,16 +28096,16 @@
         <v>736</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F333" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -28007,16 +28176,16 @@
         <v>736</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F334" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G334" t="s">
         <v>12</v>
@@ -28087,16 +28256,16 @@
         <v>736</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F335" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G335" t="s">
         <v>12</v>
@@ -28167,7 +28336,7 @@
         <v>737</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>36</v>
@@ -28176,7 +28345,7 @@
         <v>41</v>
       </c>
       <c r="F336" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G336" t="s">
         <v>12</v>
@@ -28256,7 +28425,7 @@
         <v>41</v>
       </c>
       <c r="F337" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G337" t="s">
         <v>12</v>
@@ -28330,13 +28499,13 @@
         <v>36</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F338" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G338" t="s">
         <v>12</v>
@@ -28407,7 +28576,7 @@
         <v>738</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>36</v>
@@ -28416,7 +28585,7 @@
         <v>43</v>
       </c>
       <c r="F339" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
@@ -28496,7 +28665,7 @@
         <v>41</v>
       </c>
       <c r="F340" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G340" t="s">
         <v>12</v>
@@ -28570,13 +28739,13 @@
         <v>7</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F341" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G341" t="s">
         <v>12</v>
@@ -28650,13 +28819,13 @@
         <v>96</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E342" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F342" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G342" t="s">
         <v>12</v>
@@ -28714,6 +28883,166 @@
         <v>players["DexDax"][4] = players["DexDax"][4] + 3;</v>
       </c>
       <c r="U342" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="60"/>
+        <v>741</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F343" t="s">
+        <v>298</v>
+      </c>
+      <c r="G343" t="s">
+        <v>12</v>
+      </c>
+      <c r="H343" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["DexDax"][0], WHResult.Player1Win, 741);</v>
+      </c>
+      <c r="I343" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J343" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["DexDax"][0], WHResult.Player1Win, 741);</v>
+      </c>
+      <c r="K343" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L343" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["DexDax"][0], WHResult.Player1Win, 741);</v>
+      </c>
+      <c r="M343" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N343" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O343" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P343" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["Rocci"][1]++; players["DexDax"][2]++; </v>
+      </c>
+      <c r="Q343" t="str">
+        <f t="shared" si="70"/>
+        <v>players["Rocci"][3] = players["Rocci"][3] + 3;</v>
+      </c>
+      <c r="R343" t="str">
+        <f t="shared" si="71"/>
+        <v>players["DexDax"][3] = players["DexDax"][3] + 0;</v>
+      </c>
+      <c r="S343" t="str">
+        <f t="shared" si="72"/>
+        <v>players["Rocci"][4] = players["Rocci"][4] + 0;</v>
+      </c>
+      <c r="T343" t="str">
+        <f t="shared" si="73"/>
+        <v>players["DexDax"][4] = players["DexDax"][4] + 3;</v>
+      </c>
+      <c r="U343" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="60"/>
+        <v>742</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F344" t="s">
+        <v>298</v>
+      </c>
+      <c r="G344" t="s">
+        <v>12</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 742);</v>
+      </c>
+      <c r="I344" t="str">
+        <f t="shared" si="62"/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player2Win, 742);</v>
+      </c>
+      <c r="J344" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 742);</v>
+      </c>
+      <c r="K344" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L344" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="M344" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N344" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O344" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P344" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["ImSpiker"][1]++; players["Rocci"][2]++; </v>
+      </c>
+      <c r="Q344" t="str">
+        <f t="shared" si="70"/>
+        <v>players["ImSpiker"][3] = players["ImSpiker"][3] + 2;</v>
+      </c>
+      <c r="R344" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Rocci"][3] = players["Rocci"][3] + 1;</v>
+      </c>
+      <c r="S344" t="str">
+        <f t="shared" si="72"/>
+        <v>players["ImSpiker"][4] = players["ImSpiker"][4] + 1;</v>
+      </c>
+      <c r="T344" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Rocci"][4] = players["Rocci"][4] + 2;</v>
+      </c>
+      <c r="U344" t="str">
         <f t="shared" si="74"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -28732,10 +29061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U152"/>
+  <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:U158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33352,7 +33681,7 @@
         <v>239</v>
       </c>
       <c r="G59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
@@ -33592,7 +33921,7 @@
         <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
@@ -33672,7 +34001,7 @@
         <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
@@ -33752,7 +34081,7 @@
         <v>239</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
@@ -33829,10 +34158,10 @@
         <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G65" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
@@ -33909,10 +34238,10 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G66" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
@@ -33989,10 +34318,10 @@
         <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G67" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
@@ -34069,10 +34398,10 @@
         <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G68" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
@@ -34149,10 +34478,10 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G69" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
@@ -34229,10 +34558,10 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G70" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
@@ -34309,10 +34638,10 @@
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G71" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
@@ -34389,10 +34718,10 @@
         <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G72" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
@@ -34469,10 +34798,10 @@
         <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G73" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
@@ -34549,10 +34878,10 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G74" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
@@ -34629,10 +34958,10 @@
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G75" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
@@ -34709,10 +35038,10 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G76" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
@@ -34789,10 +35118,10 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G77" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
@@ -34869,10 +35198,10 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G78" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
@@ -34949,10 +35278,10 @@
         <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G79" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
@@ -35029,10 +35358,10 @@
         <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G80" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
@@ -35109,10 +35438,10 @@
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
@@ -35189,10 +35518,10 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
@@ -35269,10 +35598,10 @@
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
@@ -35349,10 +35678,10 @@
         <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G84" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
@@ -35429,10 +35758,10 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G85" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
@@ -35509,10 +35838,10 @@
         <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G86" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H86" t="str">
         <f>IF(VALUE(LEFT($E86, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C86, """][0], players[""", $D86, """][0], WHResult.Player1Win, ", $B86, ");"), "")</f>
@@ -35543,7 +35872,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O152" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O158" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -35567,7 +35896,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U152" si="16">O86</f>
+        <f t="shared" ref="U86:U158" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -35589,10 +35918,10 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
@@ -35669,37 +35998,37 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G88" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H152" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H158" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I152" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I158" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J152" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J158" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K152" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K158" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L152" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L158" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M152" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M158" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N152" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N158" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -35707,23 +36036,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P152" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P158" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q152" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q158" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R152" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R158" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S152" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S158" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T152" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T158" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -35736,7 +36065,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B152" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B158" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -35749,10 +36078,10 @@
         <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G89" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="17"/>
@@ -35829,10 +36158,10 @@
         <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G90" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="17"/>
@@ -35909,10 +36238,10 @@
         <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G91" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="17"/>
@@ -35989,10 +36318,10 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G92" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="17"/>
@@ -36069,10 +36398,10 @@
         <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G93" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="17"/>
@@ -36149,10 +36478,10 @@
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="17"/>
@@ -36229,10 +36558,10 @@
         <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G95" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="17"/>
@@ -36309,10 +36638,10 @@
         <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G96" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="17"/>
@@ -36389,10 +36718,10 @@
         <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G97" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="17"/>
@@ -36469,10 +36798,10 @@
         <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G98" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="17"/>
@@ -36549,10 +36878,10 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G99" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="17"/>
@@ -36629,10 +36958,10 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G100" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="17"/>
@@ -36709,10 +37038,10 @@
         <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G101" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="17"/>
@@ -36789,10 +37118,10 @@
         <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G102" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="17"/>
@@ -36869,10 +37198,10 @@
         <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G103" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="17"/>
@@ -36949,10 +37278,10 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G104" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="17"/>
@@ -37029,10 +37358,10 @@
         <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G105" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="17"/>
@@ -37109,10 +37438,10 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G106" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="17"/>
@@ -37189,10 +37518,10 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G107" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="17"/>
@@ -37269,10 +37598,10 @@
         <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G108" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="17"/>
@@ -37349,10 +37678,10 @@
         <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G109" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="17"/>
@@ -37429,10 +37758,10 @@
         <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G110" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="17"/>
@@ -37509,10 +37838,10 @@
         <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G111" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="17"/>
@@ -37589,10 +37918,10 @@
         <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G112" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="17"/>
@@ -37669,10 +37998,10 @@
         <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G113" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="17"/>
@@ -37749,10 +38078,10 @@
         <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G114" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="17"/>
@@ -37829,10 +38158,10 @@
         <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G115" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="17"/>
@@ -37909,10 +38238,10 @@
         <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G116" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="17"/>
@@ -37989,7 +38318,7 @@
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G117" t="s">
         <v>82</v>
@@ -38069,7 +38398,7 @@
         <v>46</v>
       </c>
       <c r="F118" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G118" t="s">
         <v>82</v>
@@ -38149,10 +38478,10 @@
         <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G119" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="17"/>
@@ -38229,7 +38558,7 @@
         <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G120" t="s">
         <v>78</v>
@@ -38309,10 +38638,10 @@
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G121" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="17"/>
@@ -38383,16 +38712,16 @@
         <v>79</v>
       </c>
       <c r="D122" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F122" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G122" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="17"/>
@@ -38463,16 +38792,16 @@
         <v>242</v>
       </c>
       <c r="D123" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F123" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G123" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="17"/>
@@ -38543,16 +38872,16 @@
         <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G124" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="17"/>
@@ -38629,10 +38958,10 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
+        <v>287</v>
+      </c>
+      <c r="G125" t="s">
         <v>293</v>
-      </c>
-      <c r="G125" t="s">
-        <v>299</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="17"/>
@@ -38709,10 +39038,10 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G126" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="17"/>
@@ -38789,10 +39118,10 @@
         <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G127" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="17"/>
@@ -38869,10 +39198,10 @@
         <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G128" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="17"/>
@@ -38949,10 +39278,10 @@
         <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G129" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="17"/>
@@ -39023,16 +39352,16 @@
         <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G130" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="17"/>
@@ -39109,10 +39438,10 @@
         <v>49</v>
       </c>
       <c r="F131" t="s">
+        <v>287</v>
+      </c>
+      <c r="G131" t="s">
         <v>293</v>
-      </c>
-      <c r="G131" t="s">
-        <v>299</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="17"/>
@@ -39189,10 +39518,10 @@
         <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G132" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="17"/>
@@ -39269,10 +39598,10 @@
         <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G133" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="17"/>
@@ -39349,10 +39678,10 @@
         <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G134" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="17"/>
@@ -39429,10 +39758,10 @@
         <v>46</v>
       </c>
       <c r="F135" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G135" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="17"/>
@@ -39509,7 +39838,7 @@
         <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G136" t="s">
         <v>78</v>
@@ -39589,7 +39918,7 @@
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -39669,10 +39998,10 @@
         <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G138" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="17"/>
@@ -39749,7 +40078,7 @@
         <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -39823,13 +40152,13 @@
         <v>93</v>
       </c>
       <c r="D140" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -39909,7 +40238,7 @@
         <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -39989,7 +40318,7 @@
         <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -40063,13 +40392,13 @@
         <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -40149,7 +40478,7 @@
         <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
@@ -40229,7 +40558,7 @@
         <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -40309,7 +40638,7 @@
         <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
@@ -40389,7 +40718,7 @@
         <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -40469,7 +40798,7 @@
         <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G148" t="s">
         <v>12</v>
@@ -40549,10 +40878,10 @@
         <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G149" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="17"/>
@@ -40623,13 +40952,13 @@
         <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G150" t="s">
         <v>12</v>
@@ -40703,13 +41032,13 @@
         <v>241</v>
       </c>
       <c r="D151" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -40789,7 +41118,7 @@
         <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -40847,6 +41176,486 @@
         <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
       </c>
       <c r="U152" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="29"/>
+        <v>196</v>
+      </c>
+      <c r="C153" t="s">
+        <v>302</v>
+      </c>
+      <c r="D153" t="s">
+        <v>242</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" t="s">
+        <v>298</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["Mylo Grams"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["Mylo Grams"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P153" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["BeerMelancon"][1]++; players["Mylo Grams"][2]++; </v>
+      </c>
+      <c r="Q153" t="str">
+        <f t="shared" si="25"/>
+        <v>players["BeerMelancon"][3] = players["BeerMelancon"][3] + 3;</v>
+      </c>
+      <c r="R153" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 2;</v>
+      </c>
+      <c r="S153" t="str">
+        <f t="shared" si="27"/>
+        <v>players["BeerMelancon"][4] = players["BeerMelancon"][4] + 2;</v>
+      </c>
+      <c r="T153" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 3;</v>
+      </c>
+      <c r="U153" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="29"/>
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" t="s">
+        <v>242</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F154" t="s">
+        <v>298</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Mylo Grams"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P154" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["nolbear"][1]++; players["Mylo Grams"][2]++; </v>
+      </c>
+      <c r="Q154" t="str">
+        <f t="shared" si="25"/>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 3;</v>
+      </c>
+      <c r="R154" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 1;</v>
+      </c>
+      <c r="S154" t="str">
+        <f t="shared" si="27"/>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 1;</v>
+      </c>
+      <c r="T154" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 3;</v>
+      </c>
+      <c r="U154" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="29"/>
+        <v>196</v>
+      </c>
+      <c r="C155" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F155" t="s">
+        <v>298</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["SweetieMan"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["SweetieMan"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["SweetieMan"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["SweetieMan"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P155" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Agent A"][1]++; players["SweetieMan"][2]++; </v>
+      </c>
+      <c r="Q155" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Agent A"][3] = players["Agent A"][3] + 3;</v>
+      </c>
+      <c r="R155" t="str">
+        <f t="shared" si="26"/>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 1;</v>
+      </c>
+      <c r="S155" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Agent A"][4] = players["Agent A"][4] + 1;</v>
+      </c>
+      <c r="T155" t="str">
+        <f t="shared" si="28"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+      </c>
+      <c r="U155" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="29"/>
+        <v>196</v>
+      </c>
+      <c r="C156" t="s">
+        <v>93</v>
+      </c>
+      <c r="D156" t="s">
+        <v>70</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F156" t="s">
+        <v>298</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Agent A"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Agent A"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Agent A"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Agent A"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P156" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Pied"][1]++; players["Agent A"][2]++; </v>
+      </c>
+      <c r="Q156" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+      </c>
+      <c r="R156" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
+      </c>
+      <c r="S156" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Pied"][4] = players["Pied"][4] + 1;</v>
+      </c>
+      <c r="T156" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
+      </c>
+      <c r="U156" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="29"/>
+        <v>196</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" t="s">
+        <v>242</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" t="s">
+        <v>298</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Mylo Grams"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Mylo Grams"][0], WHResult.Player2Win, 196);</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Luso"][0], players["Mylo Grams"][0], WHResult.Player1Win, 196);</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P157" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Luso"][1]++; players["Mylo Grams"][2]++; </v>
+      </c>
+      <c r="Q157" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 3;</v>
+      </c>
+      <c r="R157" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 2;</v>
+      </c>
+      <c r="S157" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 2;</v>
+      </c>
+      <c r="T157" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 3;</v>
+      </c>
+      <c r="U157" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="29"/>
+        <v>197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>289</v>
+      </c>
+      <c r="D158" t="s">
+        <v>290</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F158" t="s">
+        <v>298</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["SweetieMan"][0], players["Poolboi"][0], WHResult.Player1Win, 197);</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J158" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["SweetieMan"][0], players["Poolboi"][0], WHResult.Player1Win, 197);</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["SweetieMan"][0], players["Poolboi"][0], WHResult.Player1Win, 197);</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N158" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P158" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["SweetieMan"][1]++; players["Poolboi"][2]++; </v>
+      </c>
+      <c r="Q158" t="str">
+        <f t="shared" si="25"/>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 3;</v>
+      </c>
+      <c r="R158" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Poolboi"][3] = players["Poolboi"][3] + 0;</v>
+      </c>
+      <c r="S158" t="str">
+        <f t="shared" si="27"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 0;</v>
+      </c>
+      <c r="T158" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
+      </c>
+      <c r="U158" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -40858,6 +41667,341 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A2ABD-AEFA-4059-8569-B6F9AE1909B9}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20"/>
+    <col min="3" max="4" width="22" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011E1ECD-AE9E-43CE-BBCF-ADC17DCB8F15}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20"/>
+    <col min="3" max="4" width="22" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B59A16-6BA3-4971-83C4-CE902C953403}">
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -42196,7 +43340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FF068-7F7A-461F-86F3-EAC8AADC684A}">
   <dimension ref="A2:B44"/>
   <sheetViews>
@@ -42478,12 +43622,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B46793-2C00-4E0D-AF19-105F62809B7A}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42518,7 +43662,7 @@
         <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N1" t="s">
         <v>173</v>
@@ -42527,63 +43671,63 @@
         <v>177</v>
       </c>
       <c r="P1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.34053879178782998</v>
+        <v>0.50721916872098405</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B17" si="0">1-A2</f>
-        <v>0.65946120821217002</v>
+        <v>0.49278083127901595</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D17" si="1">A2*A2*A2</f>
-        <v>3.9491149250951305E-2</v>
+        <v>0.13049292737333432</v>
       </c>
       <c r="E2" s="12">
         <f>A2*A2*A2*B2*3</f>
-        <v>7.8128642996158432E-2</v>
+        <v>0.19291323968119184</v>
       </c>
       <c r="F2" s="12">
         <f>A2*A2*A2*B2*B2*6</f>
-        <v>0.10304561861244788</v>
+        <v>0.19012789322965151</v>
       </c>
       <c r="G2" s="12">
         <f>B2*B2*B2*A2*A2*6</f>
-        <v>0.19955021216341759</v>
+        <v>0.18471577387599541</v>
       </c>
       <c r="H2" s="12">
         <f>B2*B2*B2*A2*3</f>
-        <v>0.29299189545452109</v>
+        <v>0.18208674402209515</v>
       </c>
       <c r="I2" s="12">
         <f>B2*B2*B2</f>
-        <v>0.28679248152250386</v>
+        <v>0.11966342181773179</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J17" si="2">SUM(D2:I2)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M8" si="3">A2*A2</f>
-        <v>0.11596666871231502</v>
+        <v>0.25727128511800607</v>
       </c>
       <c r="N2" s="13">
         <f t="shared" ref="N2:N8" si="4">A2*B2*A2*2</f>
-        <v>0.15295103892272743</v>
+        <v>0.2535567154893435</v>
       </c>
       <c r="O2" s="13">
         <f t="shared" ref="O2:O8" si="5">B2*B2*A2*2</f>
-        <v>0.2961932072283025</v>
+        <v>0.24633905171661241</v>
       </c>
       <c r="P2" s="13">
         <f t="shared" ref="P2:P8" si="6">B2*B2</f>
-        <v>0.43488908513665508</v>
+        <v>0.242832947676038</v>
       </c>
       <c r="Q2" s="13">
         <f t="shared" ref="Q2:Q8" si="7">SUM(M2:P2)</f>
@@ -42592,112 +43736,118 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.663042736447784</v>
+        <v>0.952487584665764</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.336957263552216</v>
+        <v>4.7512415334236002E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="D3" s="12">
         <f>A3*A3*A3</f>
-        <v>0.29149060748564343</v>
+        <v>0.86412778689671021</v>
       </c>
       <c r="E3" s="12">
         <f>A3*A3*A3*B3*3</f>
-        <v>0.29465963234860648</v>
+        <v>0.12317039493867203</v>
       </c>
       <c r="F3" s="12">
         <f>A3*A3*A3*B3*B3*6</f>
-        <v>0.19857540679097693</v>
+        <v>1.1704245922416132E-2</v>
       </c>
       <c r="G3" s="12">
         <f>B3*B3*B3*A3*A3*6</f>
-        <v>0.10091570573494268</v>
+        <v>5.8383647450377277E-4</v>
       </c>
       <c r="H3" s="12">
         <f>B3*B3*B3*A3*3</f>
-        <v>7.6100453400329199E-2</v>
+        <v>3.0647983443723623E-4</v>
       </c>
       <c r="I3" s="12">
         <f>B3*B3*B3</f>
-        <v>3.825819423950122E-2</v>
-      </c>
-      <c r="J3" s="12"/>
+        <v>1.0725593326054834E-4</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="M3" s="13">
         <f t="shared" si="3"/>
-        <v>0.43962567035616557</v>
+        <v>0.90723259894242092</v>
       </c>
       <c r="N3" s="13">
         <f t="shared" si="4"/>
-        <v>0.29627012574104422</v>
+        <v>8.6209624091421327E-2</v>
       </c>
       <c r="O3" s="13">
         <f t="shared" si="5"/>
-        <v>0.15056400644219267</v>
+        <v>4.3003473552647919E-3</v>
       </c>
       <c r="P3" s="13">
         <f t="shared" si="6"/>
-        <v>0.11354019746059756</v>
+        <v>2.2574296108929443E-3</v>
       </c>
       <c r="Q3" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.70973274907571604</v>
+        <v>0.53018784679792297</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.29026725092428396</v>
+        <v>0.46981215320207703</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="D4" s="12">
         <f>A4*A4*A4</f>
-        <v>0.35750698853922791</v>
+        <v>0.14903535460864512</v>
       </c>
       <c r="E4" s="12">
         <f>A4*A4*A4*B4*3</f>
-        <v>0.31131771224850352</v>
+        <v>0.21005586255576797</v>
       </c>
       <c r="F4" s="12">
         <f>A4*A4*A4*B4*B4*6</f>
-        <v>0.1807306729968208</v>
+        <v>0.19737359416008982</v>
       </c>
       <c r="G4" s="12">
         <f>B4*B4*B4*A4*A4*6</f>
-        <v>7.3915421934244593E-2</v>
+        <v>0.1748974704298106</v>
       </c>
       <c r="H4" s="12">
         <f>B4*B4*B4*A4*3</f>
-        <v>5.2072714715859274E-2</v>
+        <v>0.16493915457144703</v>
       </c>
       <c r="I4" s="12">
         <f>B4*B4*B4</f>
-        <v>2.4456489565343902E-2</v>
-      </c>
-      <c r="J4" s="12"/>
+        <v>0.10369856367423949</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M4" s="13">
         <f t="shared" si="3"/>
-        <v>0.50372057511057333</v>
+        <v>0.28109915289221782</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" si="4"/>
-        <v>0.29242717314269084</v>
+        <v>0.26412759656714541</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" si="5"/>
-        <v>0.11959717478759464</v>
+        <v>0.23404979124426484</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" si="6"/>
-        <v>8.4255076959141223E-2</v>
+        <v>0.22072345929637191</v>
       </c>
       <c r="Q4" s="13">
         <f t="shared" si="7"/>
@@ -42706,38 +43856,38 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.57231141535688901</v>
+        <v>0.84446446363563699</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.42768858464311099</v>
+        <v>0.15553553636436301</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>0.18745508481345008</v>
+        <v>0.60220469282468148</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" ref="E5:E17" si="8">A5*A5*A5*B5*3</f>
-        <v>0.24051719972405639</v>
+        <v>0.28099268969886992</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" ref="F5:F17" si="9">A5*A5*A5*B5*B5*6</f>
-        <v>0.20573292146461225</v>
+        <v>8.7408697413557515E-2</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G17" si="10">B5*B5*B5*A5*A5*6</f>
-        <v>0.15374430709340764</v>
+        <v>1.6099148301158012E-2</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" ref="H5:H17" si="11">B5*B5*B5*A5*3</f>
-        <v>0.13431874934517413</v>
+        <v>9.5321644630533258E-3</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I17" si="12">B5*B5*B5</f>
-        <v>7.8231737559299477E-2</v>
+        <v>3.7626072986797266E-3</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="2"/>
@@ -42745,19 +43895,19 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" si="3"/>
-        <v>0.32754035614780552</v>
+        <v>0.71312023034342409</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" si="4"/>
-        <v>0.28017054266871089</v>
+        <v>0.22183107503748511</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" si="5"/>
-        <v>0.20937157574945606</v>
+        <v>4.0857391546940722E-2</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" si="6"/>
-        <v>0.18291752543402751</v>
+        <v>2.4191303072150089E-2</v>
       </c>
       <c r="Q5" s="13">
         <f t="shared" si="7"/>
@@ -42766,38 +43916,38 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.70370907262077198</v>
+        <v>0.86676148811432496</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.29629092737922802</v>
+        <v>0.13323851188567504</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
-        <v>0.3484812779404447</v>
+        <v>0.65117665066941699</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="8"/>
-        <v>0.30975552304581866</v>
+        <v>0.2602854237296735</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="9"/>
-        <v>0.1835555023681669</v>
+        <v>6.9360085046548128E-2</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="10"/>
-        <v>7.7284537230249278E-2</v>
+        <v>1.0662027146557992E-2</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="11"/>
-        <v>5.4912278551720359E-2</v>
+        <v>6.1504965857179855E-3</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="12"/>
-        <v>2.601088086360016E-2</v>
+        <v>2.3653168220854857E-3</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
@@ -42805,19 +43955,19 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" si="3"/>
-        <v>0.49520645888878695</v>
+        <v>0.75127547727815913</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="4"/>
-        <v>0.2934503618966845</v>
+        <v>0.20019765321748437</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" si="5"/>
-        <v>0.12355486556728563</v>
+        <v>3.0774368454847364E-2</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" si="6"/>
-        <v>8.7788313647242974E-2</v>
+        <v>1.7752501049509168E-2</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" si="7"/>
@@ -42826,62 +43976,62 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.76066178338327906</v>
+        <v>0.60751625632028206</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.23933821661672094</v>
+        <v>0.39248374367971794</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="1"/>
-        <v>0.44012373707890051</v>
+        <v>0.22421967084643893</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="8"/>
-        <v>0.31601529096945191</v>
+        <v>0.26400772746133339</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="9"/>
-        <v>0.15126907232848555</v>
+        <v>0.20723748246879764</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="10"/>
-        <v>4.7596015458190769E-2</v>
+        <v>0.13388504769036602</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="11"/>
-        <v>3.1285925294217309E-2</v>
+        <v>0.11019050626011723</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="12"/>
-        <v>1.3709958870753948E-2</v>
+        <v>6.0459565272946859E-2</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="3"/>
-        <v>0.57860634869983052</v>
+        <v>0.36907600169341065</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="4"/>
-        <v>0.27696522324186001</v>
+        <v>0.28971266169394344</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>8.7145646125036974E-2</v>
+        <v>0.18716784755979937</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="6"/>
-        <v>5.7282781933272436E-2</v>
+        <v>0.15404348905284654</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -42893,7 +44043,7 @@
         <v>0.20274560168760503</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="1"/>
@@ -42953,7 +44103,7 @@
         <v>0.27652735703047204</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="1"/>
@@ -42998,7 +44148,7 @@
         <v>2.6547667302203037E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="1"/>
@@ -43043,7 +44193,7 @@
         <v>0.135551568287404</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
@@ -43088,7 +44238,7 @@
         <v>0.32202281904061203</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="1"/>
@@ -43133,7 +44283,7 @@
         <v>0.48813670398390796</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="1"/>
@@ -43178,7 +44328,7 @@
         <v>0.19769066423912596</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
@@ -43223,7 +44373,7 @@
         <v>0.30716233865725595</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
@@ -43268,7 +44418,7 @@
         <v>8.642712889410098E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="1"/>
@@ -43313,7 +44463,7 @@
         <v>0.5</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
@@ -43819,7 +44969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B81697-3F4D-4318-ACAC-0F212B452516}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -43837,16 +44987,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -43857,7 +45007,7 @@
         <v>1338</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -43871,7 +45021,7 @@
         <v>1114</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -43885,7 +45035,7 @@
         <v>1103</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -43899,7 +45049,7 @@
         <v>1096</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -43913,7 +45063,7 @@
         <v>1176</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="17">
         <v>0.89339999999999997</v>
@@ -43927,7 +45077,7 @@
         <v>1087</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="17">
         <f>(0.6077*0.7887)+(0.3923*0.8556)</f>
@@ -43942,7 +45092,7 @@
         <v>1218</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="17">
         <f>(0.5808*0.7359)+(0.4192*0.7961)</f>
@@ -43957,7 +45107,7 @@
         <v>1101</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D9" s="17">
         <f>0.5808+(0.4192*0.2641)</f>
@@ -43972,7 +45122,7 @@
         <v>1063</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="17">
         <f>0.4192+(0.5808*0.2039)</f>
@@ -43987,7 +45137,7 @@
         <v>937</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D11" s="17">
         <f>0.6077*0.2113</f>
@@ -44002,7 +45152,7 @@
         <v>938</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D12" s="17">
         <v>0.1066</v>
@@ -44016,7 +45166,7 @@
         <v>886</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D13" s="17">
         <f>0.3923*0.1444</f>
@@ -44031,7 +45181,7 @@
         <v>954</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" s="17">
         <v>0</v>
@@ -44045,7 +45195,7 @@
         <v>920</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
@@ -44059,7 +45209,7 @@
         <v>787</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
@@ -44073,7 +45223,7 @@
         <v>699</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD55C16-0668-4C72-95CC-0EF35F426364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEF49A-83E9-4A17-895F-766A8FE8C96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
     <sheet name="SMS" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="My Private Match results" sheetId="3" r:id="rId5"/>
-    <sheet name="Countries" sheetId="5" r:id="rId6"/>
-    <sheet name="Scrap" sheetId="4" r:id="rId7"/>
-    <sheet name="More Scrap" sheetId="7" r:id="rId8"/>
+    <sheet name="My Private Match results" sheetId="3" r:id="rId3"/>
+    <sheet name="Countries" sheetId="5" r:id="rId4"/>
+    <sheet name="Scrap" sheetId="4" r:id="rId5"/>
+    <sheet name="More Scrap" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MSC!$A$1:$G$318</definedName>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="309">
   <si>
     <t>Day</t>
   </si>
@@ -971,78 +969,12 @@
   <si>
     <t>nolbear v BeerMelancon</t>
   </si>
-  <si>
-    <t>Match C</t>
-  </si>
-  <si>
-    <t>Match A</t>
-  </si>
-  <si>
-    <t>Match B</t>
-  </si>
-  <si>
-    <t>Match D</t>
-  </si>
-  <si>
-    <t>Loser of B</t>
-  </si>
-  <si>
-    <t>Ultra!</t>
-  </si>
-  <si>
-    <t>Loser of A</t>
-  </si>
-  <si>
-    <t>Summer Championship</t>
-  </si>
-  <si>
-    <t>2nd Place A2</t>
-  </si>
-  <si>
-    <t>1st Place A3</t>
-  </si>
-  <si>
-    <t>1st Place A2</t>
-  </si>
-  <si>
-    <t>2nd Place A3</t>
-  </si>
-  <si>
-    <t>4th Place A2</t>
-  </si>
-  <si>
-    <t>3rd Place A2</t>
-  </si>
-  <si>
-    <t>Loser of C</t>
-  </si>
-  <si>
-    <t>Loser of D</t>
-  </si>
-  <si>
-    <t>1st Place A1</t>
-  </si>
-  <si>
-    <t>2nd Place A1</t>
-  </si>
-  <si>
-    <t>4th Place A1</t>
-  </si>
-  <si>
-    <t>3rd Place A3</t>
-  </si>
-  <si>
-    <t>3rd Place A1</t>
-  </si>
-  <si>
-    <t>4th Place A3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,31 +1018,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,78 +1036,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1208,7 +1052,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1236,19 +1080,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1566,11 +1397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
-  <dimension ref="A1:U344"/>
+  <dimension ref="A1:U347"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:U344"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22092,7 +21923,7 @@
         <v>44211</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B344" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
+        <f t="shared" ref="B258:B347" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
         <v>582</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -22111,59 +21942,59 @@
         <v>12</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H344" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="H258:H347" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I258" t="str">
-        <f t="shared" ref="I258:I344" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="I258:I347" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player2Win, 582);</v>
       </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J344" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="J258:J347" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" ref="K258:K344" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="K258:K347" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="L258" t="str">
-        <f t="shared" ref="L258:L344" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="L258:L347" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M258" t="str">
-        <f t="shared" ref="M258:M344" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="M258:M347" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="N258" t="str">
-        <f t="shared" ref="N258:N344" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="N258:N347" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="O258" t="str">
-        <f t="shared" ref="O258:O344" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
+        <f t="shared" ref="O258:O347" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" ref="P258:P344" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P258:P347" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["einBirnenbaum"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q258" t="str">
-        <f t="shared" ref="Q258:Q344" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="Q258:Q347" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R258" t="str">
-        <f t="shared" ref="R258:R344" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="R258:R347" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
         <v>players["BKXO"][3] = players["BKXO"][3] + 1;</v>
       </c>
       <c r="S258" t="str">
-        <f t="shared" ref="S258:S344" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="S258:S347" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 1;</v>
       </c>
       <c r="T258" t="str">
-        <f t="shared" ref="T258:T344" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="T258:T347" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
         <v>players["BKXO"][4] = players["BKXO"][4] + 3;</v>
       </c>
       <c r="U258" t="str">
-        <f t="shared" ref="U258:U344" si="74">O258</f>
+        <f t="shared" ref="U258:U347" si="74">O258</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
     </row>
@@ -28969,11 +28800,11 @@
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B344">
         <f t="shared" si="60"/>
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>21</v>
@@ -28982,7 +28813,7 @@
         <v>30</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F344" t="s">
         <v>298</v>
@@ -28992,15 +28823,15 @@
       </c>
       <c r="H344" t="str">
         <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 742);</v>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 743);</v>
       </c>
       <c r="I344" t="str">
         <f t="shared" si="62"/>
-        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player2Win, 742);</v>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player2Win, 743);</v>
       </c>
       <c r="J344" t="str">
         <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 742);</v>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 743);</v>
       </c>
       <c r="K344" t="str">
         <f t="shared" si="64"/>
@@ -29008,7 +28839,7 @@
       </c>
       <c r="L344" t="str">
         <f t="shared" si="65"/>
-        <v/>
+        <v>whr.CreateGame(players["ImSpiker"][0], players["Rocci"][0], WHResult.Player1Win, 743);</v>
       </c>
       <c r="M344" t="str">
         <f t="shared" si="66"/>
@@ -29028,7 +28859,7 @@
       </c>
       <c r="Q344" t="str">
         <f t="shared" si="70"/>
-        <v>players["ImSpiker"][3] = players["ImSpiker"][3] + 2;</v>
+        <v>players["ImSpiker"][3] = players["ImSpiker"][3] + 3;</v>
       </c>
       <c r="R344" t="str">
         <f t="shared" si="71"/>
@@ -29040,9 +28871,249 @@
       </c>
       <c r="T344" t="str">
         <f t="shared" si="73"/>
-        <v>players["Rocci"][4] = players["Rocci"][4] + 2;</v>
+        <v>players["Rocci"][4] = players["Rocci"][4] + 3;</v>
       </c>
       <c r="U344" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="60"/>
+        <v>743</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F345" t="s">
+        <v>298</v>
+      </c>
+      <c r="G345" t="s">
+        <v>12</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["XanderG"][0], WHResult.Player1Win, 743);</v>
+      </c>
+      <c r="I345" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J345" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["XanderG"][0], WHResult.Player1Win, 743);</v>
+      </c>
+      <c r="K345" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L345" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["XanderG"][0], WHResult.Player1Win, 743);</v>
+      </c>
+      <c r="M345" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N345" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O345" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P345" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["XanderG"][2]++; </v>
+      </c>
+      <c r="Q345" t="str">
+        <f t="shared" si="70"/>
+        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
+      </c>
+      <c r="R345" t="str">
+        <f t="shared" si="71"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 0;</v>
+      </c>
+      <c r="S345" t="str">
+        <f t="shared" si="72"/>
+        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
+      </c>
+      <c r="T345" t="str">
+        <f t="shared" si="73"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 3;</v>
+      </c>
+      <c r="U345" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="60"/>
+        <v>745</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F346" t="s">
+        <v>298</v>
+      </c>
+      <c r="G346" t="s">
+        <v>12</v>
+      </c>
+      <c r="H346" t="str">
+        <f>IF(VALUE(LEFT($E346, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+      </c>
+      <c r="I346" t="str">
+        <f>IF(VALUE(RIGHT($E346, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player2Win, ", $B346, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="J346" t="str">
+        <f>IF(VALUE(LEFT($E346, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+      </c>
+      <c r="K346" t="str">
+        <f>IF(VALUE(RIGHT($E346, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player2Win, ", $B346, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="L346" t="str">
+        <f>IF(VALUE(LEFT($E346, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="M346" t="str">
+        <f>IF(VALUE(RIGHT($E346, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player2Win, ", $B346, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="N346" t="str">
+        <f>IF(VALUE(LEFT($E346, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="O346" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P346" t="str">
+        <f>IF(LEFT($E346,1)&gt;RIGHT($E346,1),_xlfn.CONCAT("players[""",$C346,"""][1]++; players[""",$D346,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["XanderG"][1]++; players["Rickshaw"][2]++; </v>
+      </c>
+      <c r="Q346" t="str">
+        <f>_xlfn.CONCAT("players[""",$C346,"""][3] = players[""",$C346,"""][3] + ", LEFT($E346, 1), ";")</f>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 2;</v>
+      </c>
+      <c r="R346" t="str">
+        <f>_xlfn.CONCAT("players[""",$D346,"""][3] = players[""",$D346,"""][3] + ", RIGHT($E346, 1), ";")</f>
+        <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 0;</v>
+      </c>
+      <c r="S346" t="str">
+        <f>_xlfn.CONCAT("players[""",$C346,"""][4] = players[""",$C346,"""][4] + ", RIGHT($E346, 1), ";")</f>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
+      </c>
+      <c r="T346" t="str">
+        <f>_xlfn.CONCAT("players[""",$D346,"""][4] = players[""",$D346,"""][4] + ", LEFT($E346, 1), ";")</f>
+        <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 2;</v>
+      </c>
+      <c r="U346" t="str">
+        <f t="shared" si="74"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="60"/>
+        <v>745</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F347" t="s">
+        <v>298</v>
+      </c>
+      <c r="G347" t="s">
+        <v>12</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+      </c>
+      <c r="I347" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="J347" t="str">
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+      </c>
+      <c r="K347" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L347" t="str">
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+      </c>
+      <c r="M347" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="N347" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="O347" t="str">
+        <f t="shared" si="68"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P347" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["Rickshaw"][2]++; </v>
+      </c>
+      <c r="Q347" t="str">
+        <f t="shared" si="70"/>
+        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
+      </c>
+      <c r="R347" t="str">
+        <f t="shared" si="71"/>
+        <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 0;</v>
+      </c>
+      <c r="S347" t="str">
+        <f t="shared" si="72"/>
+        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
+      </c>
+      <c r="T347" t="str">
+        <f t="shared" si="73"/>
+        <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 3;</v>
+      </c>
+      <c r="U347" t="str">
         <f t="shared" si="74"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -29061,10 +29132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U158"/>
+  <dimension ref="A1:U167"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:U158"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165:G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35872,7 +35943,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O158" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O167" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -35896,7 +35967,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U158" si="16">O86</f>
+        <f t="shared" ref="U86:U167" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -36004,31 +36075,31 @@
         <v>282</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H158" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H167" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I158" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I167" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J158" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J167" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K158" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K167" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L158" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L167" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M158" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M167" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N158" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N167" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -36036,23 +36107,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P158" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P167" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q158" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q167" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R158" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R167" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S158" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S167" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T158" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T167" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -36065,7 +36136,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B158" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B167" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -41656,6 +41727,726 @@
         <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
       </c>
       <c r="U158" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="29"/>
+        <v>198</v>
+      </c>
+      <c r="C159" t="s">
+        <v>79</v>
+      </c>
+      <c r="D159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F159" t="s">
+        <v>298</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Gucky"][0], WHResult.Player1Win, 198);</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Gucky"][0], WHResult.Player1Win, 198);</v>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Gucky"][0], WHResult.Player1Win, 198);</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N159" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O159" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["XanderG"][1]++; players["Gucky"][2]++; </v>
+      </c>
+      <c r="Q159" t="str">
+        <f t="shared" si="25"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
+      </c>
+      <c r="R159" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 0;</v>
+      </c>
+      <c r="S159" t="str">
+        <f t="shared" si="27"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
+      </c>
+      <c r="T159" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
+      </c>
+      <c r="U159" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+      <c r="C160" t="s">
+        <v>243</v>
+      </c>
+      <c r="D160" t="s">
+        <v>245</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F160" t="s">
+        <v>298</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["NukeTheWales"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["NukeTheWales"][0], WHResult.Player2Win, 199);</v>
+      </c>
+      <c r="J160" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["NukeTheWales"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="K160" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["NukeTheWales"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N160" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O160" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P160" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["nolbear"][1]++; players["NukeTheWales"][2]++; </v>
+      </c>
+      <c r="Q160" t="str">
+        <f t="shared" si="25"/>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 3;</v>
+      </c>
+      <c r="R160" t="str">
+        <f t="shared" si="26"/>
+        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 1;</v>
+      </c>
+      <c r="S160" t="str">
+        <f t="shared" si="27"/>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 1;</v>
+      </c>
+      <c r="T160" t="str">
+        <f t="shared" si="28"/>
+        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
+      </c>
+      <c r="U160" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+      <c r="C161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
+        <v>298</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Slosh"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Slosh"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="K161" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["banana_steals"][0], players["Slosh"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N161" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P161" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["banana_steals"][1]++; players["Slosh"][2]++; </v>
+      </c>
+      <c r="Q161" t="str">
+        <f t="shared" si="25"/>
+        <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
+      </c>
+      <c r="R161" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 0;</v>
+      </c>
+      <c r="S161" t="str">
+        <f t="shared" si="27"/>
+        <v>players["banana_steals"][4] = players["banana_steals"][4] + 0;</v>
+      </c>
+      <c r="T161" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 3;</v>
+      </c>
+      <c r="U161" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+      <c r="C162" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" t="s">
+        <v>290</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" t="s">
+        <v>298</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Poolboi"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Poolboi"][0], WHResult.Player2Win, 199);</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Poolboi"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Poolboi"][0], WHResult.Player2Win, 199);</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["RolePlayingGrandma"][0], players["Poolboi"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="M162" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N162" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O162" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P162" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["RolePlayingGrandma"][1]++; players["Poolboi"][2]++; </v>
+      </c>
+      <c r="Q162" t="str">
+        <f t="shared" si="25"/>
+        <v>players["RolePlayingGrandma"][3] = players["RolePlayingGrandma"][3] + 3;</v>
+      </c>
+      <c r="R162" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Poolboi"][3] = players["Poolboi"][3] + 2;</v>
+      </c>
+      <c r="S162" t="str">
+        <f t="shared" si="27"/>
+        <v>players["RolePlayingGrandma"][4] = players["RolePlayingGrandma"][4] + 2;</v>
+      </c>
+      <c r="T162" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
+      </c>
+      <c r="U162" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+      <c r="C163" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163" t="s">
+        <v>290</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" t="s">
+        <v>298</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Poolboi"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="I163" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Poolboi"][0], WHResult.Player2Win, 199);</v>
+      </c>
+      <c r="J163" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Poolboi"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="K163" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Poolboi"][0], WHResult.Player1Win, 199);</v>
+      </c>
+      <c r="M163" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N163" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O163" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P163" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Agent A"][1]++; players["Poolboi"][2]++; </v>
+      </c>
+      <c r="Q163" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Agent A"][3] = players["Agent A"][3] + 3;</v>
+      </c>
+      <c r="R163" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Poolboi"][3] = players["Poolboi"][3] + 1;</v>
+      </c>
+      <c r="S163" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Agent A"][4] = players["Agent A"][4] + 1;</v>
+      </c>
+      <c r="T163" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
+      </c>
+      <c r="U163" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="29"/>
+        <v>200</v>
+      </c>
+      <c r="C164" t="s">
+        <v>70</v>
+      </c>
+      <c r="D164" t="s">
+        <v>241</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F164" t="s">
+        <v>298</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="I164" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["RolePlayingGrandma"][0], WHResult.Player2Win, 200);</v>
+      </c>
+      <c r="J164" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="K164" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="M164" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N164" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O164" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P164" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Agent A"][1]++; players["RolePlayingGrandma"][2]++; </v>
+      </c>
+      <c r="Q164" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Agent A"][3] = players["Agent A"][3] + 3;</v>
+      </c>
+      <c r="R164" t="str">
+        <f t="shared" si="26"/>
+        <v>players["RolePlayingGrandma"][3] = players["RolePlayingGrandma"][3] + 1;</v>
+      </c>
+      <c r="S164" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Agent A"][4] = players["Agent A"][4] + 1;</v>
+      </c>
+      <c r="T164" t="str">
+        <f t="shared" si="28"/>
+        <v>players["RolePlayingGrandma"][4] = players["RolePlayingGrandma"][4] + 3;</v>
+      </c>
+      <c r="U164" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="29"/>
+        <v>200</v>
+      </c>
+      <c r="C165" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" t="s">
+        <v>302</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" t="s">
+        <v>298</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["BeerMelancon"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["BeerMelancon"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="K165" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["nolbear"][0], players["BeerMelancon"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N165" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O165" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P165" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["nolbear"][1]++; players["BeerMelancon"][2]++; </v>
+      </c>
+      <c r="Q165" t="str">
+        <f t="shared" si="25"/>
+        <v>players["nolbear"][3] = players["nolbear"][3] + 3;</v>
+      </c>
+      <c r="R165" t="str">
+        <f t="shared" si="26"/>
+        <v>players["BeerMelancon"][3] = players["BeerMelancon"][3] + 0;</v>
+      </c>
+      <c r="S165" t="str">
+        <f t="shared" si="27"/>
+        <v>players["nolbear"][4] = players["nolbear"][4] + 0;</v>
+      </c>
+      <c r="T165" t="str">
+        <f t="shared" si="28"/>
+        <v>players["BeerMelancon"][4] = players["BeerMelancon"][4] + 3;</v>
+      </c>
+      <c r="U165" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="29"/>
+        <v>200</v>
+      </c>
+      <c r="C166" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" t="s">
+        <v>245</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F166" t="s">
+        <v>298</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Luso"][0], players["NukeTheWales"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Luso"][0], players["NukeTheWales"][0], WHResult.Player2Win, 200);</v>
+      </c>
+      <c r="J166" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Luso"][0], players["NukeTheWales"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="K166" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Luso"][0], players["NukeTheWales"][0], WHResult.Player1Win, 200);</v>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N166" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O166" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Luso"][1]++; players["NukeTheWales"][2]++; </v>
+      </c>
+      <c r="Q166" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 3;</v>
+      </c>
+      <c r="R166" t="str">
+        <f t="shared" si="26"/>
+        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 1;</v>
+      </c>
+      <c r="S166" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 1;</v>
+      </c>
+      <c r="T166" t="str">
+        <f t="shared" si="28"/>
+        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
+      </c>
+      <c r="U166" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="29"/>
+        <v>202</v>
+      </c>
+      <c r="C167" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" t="s">
+        <v>247</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" t="s">
+        <v>298</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player1Win, 202);</v>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player2Win, 202);</v>
+      </c>
+      <c r="J167" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player1Win, 202);</v>
+      </c>
+      <c r="K167" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player2Win, 202);</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Teke"][0], players["Gucky"][0], WHResult.Player1Win, 202);</v>
+      </c>
+      <c r="M167" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N167" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O167" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+      <c r="P167" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Teke"][1]++; players["Gucky"][2]++; </v>
+      </c>
+      <c r="Q167" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Teke"][3] = players["Teke"][3] + 3;</v>
+      </c>
+      <c r="R167" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 2;</v>
+      </c>
+      <c r="S167" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Teke"][4] = players["Teke"][4] + 2;</v>
+      </c>
+      <c r="T167" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 3;</v>
+      </c>
+      <c r="U167" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
@@ -41667,341 +42458,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A2ABD-AEFA-4059-8569-B6F9AE1909B9}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20"/>
-    <col min="3" max="4" width="22" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011E1ECD-AE9E-43CE-BBCF-ADC17DCB8F15}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20"/>
-    <col min="3" max="4" width="22" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B59A16-6BA3-4971-83C4-CE902C953403}">
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -43340,7 +43796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FF068-7F7A-461F-86F3-EAC8AADC684A}">
   <dimension ref="A2:B44"/>
   <sheetViews>
@@ -43622,7 +44078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B46793-2C00-4E0D-AF19-105F62809B7A}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
@@ -44969,7 +45425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B81697-3F4D-4318-ACAC-0F212B452516}">
   <dimension ref="A1:D17"/>
   <sheetViews>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEF49A-83E9-4A17-895F-766A8FE8C96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65915039-55D9-4860-ADB5-23F45306AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
@@ -1400,8 +1400,8 @@
   <dimension ref="A1:U347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H339" sqref="H339"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21923,7 +21923,7 @@
         <v>44211</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B347" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
+        <f t="shared" ref="B258:B346" si="60">_xlfn.DAYS(A258, "6/13/2019")</f>
         <v>582</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -21942,59 +21942,59 @@
         <v>12</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H347" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="H258:H346" si="61">IF(VALUE(LEFT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="I258" t="str">
-        <f t="shared" ref="I258:I347" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="I258:I346" si="62">IF(VALUE(RIGHT($E258, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player2Win, 582);</v>
       </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J347" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="J258:J346" si="63">IF(VALUE(LEFT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" ref="K258:K347" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="K258:K346" si="64">IF(VALUE(RIGHT($E258, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="L258" t="str">
-        <f t="shared" ref="L258:L347" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="L258:L346" si="65">IF(VALUE(LEFT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["BKXO"][0], WHResult.Player1Win, 582);</v>
       </c>
       <c r="M258" t="str">
-        <f t="shared" ref="M258:M347" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="M258:M346" si="66">IF(VALUE(RIGHT($E258, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player2Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="N258" t="str">
-        <f t="shared" ref="N258:N347" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
+        <f t="shared" ref="N258:N346" si="67">IF(VALUE(LEFT($E258, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C258, """][0], players[""", $D258, """][0], WHResult.Player1Win, ", $B258, ");"), "")</f>
         <v/>
       </c>
       <c r="O258" t="str">
-        <f t="shared" ref="O258:O347" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
+        <f t="shared" ref="O258:O346" si="68">_xlfn.CONCAT("// ",$F258, " ", $G258)</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" ref="P258:P347" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P258:P346" si="69">IF(LEFT($E258,1)&gt;RIGHT($E258,1),_xlfn.CONCAT("players[""",$C258,"""][1]++; players[""",$D258,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["einBirnenbaum"][1]++; players["BKXO"][2]++; </v>
       </c>
       <c r="Q258" t="str">
-        <f t="shared" ref="Q258:Q347" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="Q258:Q346" si="70">_xlfn.CONCAT("players[""",$C258,"""][3] = players[""",$C258,"""][3] + ", LEFT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R258" t="str">
-        <f t="shared" ref="R258:R347" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="R258:R346" si="71">_xlfn.CONCAT("players[""",$D258,"""][3] = players[""",$D258,"""][3] + ", RIGHT($E258, 1), ";")</f>
         <v>players["BKXO"][3] = players["BKXO"][3] + 1;</v>
       </c>
       <c r="S258" t="str">
-        <f t="shared" ref="S258:S347" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
+        <f t="shared" ref="S258:S346" si="72">_xlfn.CONCAT("players[""",$C258,"""][4] = players[""",$C258,"""][4] + ", RIGHT($E258, 1), ";")</f>
         <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 1;</v>
       </c>
       <c r="T258" t="str">
-        <f t="shared" ref="T258:T347" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
+        <f t="shared" ref="T258:T346" si="73">_xlfn.CONCAT("players[""",$D258,"""][4] = players[""",$D258,"""][4] + ", LEFT($E258, 1), ";")</f>
         <v>players["BKXO"][4] = players["BKXO"][4] + 3;</v>
       </c>
       <c r="U258" t="str">
-        <f t="shared" ref="U258:U347" si="74">O258</f>
+        <f t="shared" ref="U258:U346" si="74">O258</f>
         <v>// Champions Cup '21 Group Stage</v>
       </c>
     </row>
@@ -28967,13 +28967,13 @@
         <v>745</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F346" t="s">
         <v>298</v>
@@ -28982,31 +28982,31 @@
         <v>12</v>
       </c>
       <c r="H346" t="str">
-        <f>IF(VALUE(LEFT($E346, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
-        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+        <f t="shared" si="61"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
       </c>
       <c r="I346" t="str">
-        <f>IF(VALUE(RIGHT($E346, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player2Win, ", $B346, ");"), "")</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="J346" t="str">
-        <f>IF(VALUE(LEFT($E346, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
-        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+        <f t="shared" si="63"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
       </c>
       <c r="K346" t="str">
-        <f>IF(VALUE(RIGHT($E346, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player2Win, ", $B346, ");"), "")</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="L346" t="str">
-        <f>IF(VALUE(LEFT($E346, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
-        <v/>
+        <f t="shared" si="65"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
       </c>
       <c r="M346" t="str">
-        <f>IF(VALUE(RIGHT($E346, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player2Win, ", $B346, ");"), "")</f>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="N346" t="str">
-        <f>IF(VALUE(LEFT($E346, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C346, """][0], players[""", $D346, """][0], WHResult.Player1Win, ", $B346, ");"), "")</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="O346" t="str">
@@ -29014,24 +29014,24 @@
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
       <c r="P346" t="str">
-        <f>IF(LEFT($E346,1)&gt;RIGHT($E346,1),_xlfn.CONCAT("players[""",$C346,"""][1]++; players[""",$D346,"""][2]++; ",""), "")</f>
-        <v xml:space="preserve">players["XanderG"][1]++; players["Rickshaw"][2]++; </v>
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["Rickshaw"][2]++; </v>
       </c>
       <c r="Q346" t="str">
-        <f>_xlfn.CONCAT("players[""",$C346,"""][3] = players[""",$C346,"""][3] + ", LEFT($E346, 1), ";")</f>
-        <v>players["XanderG"][3] = players["XanderG"][3] + 2;</v>
+        <f t="shared" si="70"/>
+        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R346" t="str">
-        <f>_xlfn.CONCAT("players[""",$D346,"""][3] = players[""",$D346,"""][3] + ", RIGHT($E346, 1), ";")</f>
+        <f t="shared" si="71"/>
         <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 0;</v>
       </c>
       <c r="S346" t="str">
-        <f>_xlfn.CONCAT("players[""",$C346,"""][4] = players[""",$C346,"""][4] + ", RIGHT($E346, 1), ";")</f>
-        <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
+        <f t="shared" si="72"/>
+        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
       </c>
       <c r="T346" t="str">
-        <f>_xlfn.CONCAT("players[""",$D346,"""][4] = players[""",$D346,"""][4] + ", LEFT($E346, 1), ";")</f>
-        <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 2;</v>
+        <f t="shared" si="73"/>
+        <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 3;</v>
       </c>
       <c r="U346" t="str">
         <f t="shared" si="74"/>
@@ -29040,20 +29040,20 @@
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="B347">
-        <f t="shared" si="60"/>
-        <v>745</v>
+        <f>_xlfn.DAYS(A347, "6/13/2019")</f>
+        <v>747</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F347" t="s">
         <v>298</v>
@@ -29062,59 +29062,59 @@
         <v>12</v>
       </c>
       <c r="H347" t="str">
-        <f t="shared" si="61"/>
-        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+        <f>IF(VALUE(LEFT($E347, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 747);</v>
       </c>
       <c r="I347" t="str">
-        <f t="shared" si="62"/>
-        <v/>
+        <f>IF(VALUE(RIGHT($E347, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player2Win, 747);</v>
       </c>
       <c r="J347" t="str">
-        <f t="shared" si="63"/>
-        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+        <f>IF(VALUE(LEFT($E347, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 747);</v>
       </c>
       <c r="K347" t="str">
-        <f t="shared" si="64"/>
+        <f>IF(VALUE(RIGHT($E347, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
         <v/>
       </c>
       <c r="L347" t="str">
-        <f t="shared" si="65"/>
-        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Rickshaw"][0], WHResult.Player1Win, 745);</v>
+        <f>IF(VALUE(LEFT($E347, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 747);</v>
       </c>
       <c r="M347" t="str">
-        <f t="shared" si="66"/>
+        <f>IF(VALUE(RIGHT($E347, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
         <v/>
       </c>
       <c r="N347" t="str">
-        <f t="shared" si="67"/>
+        <f>IF(VALUE(LEFT($E347, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
         <v/>
       </c>
       <c r="O347" t="str">
-        <f t="shared" si="68"/>
+        <f>_xlfn.CONCAT("// ",$F347, " ", $G347)</f>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
       <c r="P347" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["Rickshaw"][2]++; </v>
+        <f>IF(LEFT($E347,1)&gt;RIGHT($E347,1),_xlfn.CONCAT("players[""",$C347,"""][1]++; players[""",$D347,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["XanderG"][1]++; players["Rickshaw"][2]++; </v>
       </c>
       <c r="Q347" t="str">
-        <f t="shared" si="70"/>
-        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
+        <f>_xlfn.CONCAT("players[""",$C347,"""][3] = players[""",$C347,"""][3] + ", LEFT($E347, 1), ";")</f>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
       </c>
       <c r="R347" t="str">
-        <f t="shared" si="71"/>
-        <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 0;</v>
+        <f>_xlfn.CONCAT("players[""",$D347,"""][3] = players[""",$D347,"""][3] + ", RIGHT($E347, 1), ";")</f>
+        <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 1;</v>
       </c>
       <c r="S347" t="str">
-        <f t="shared" si="72"/>
-        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
+        <f>_xlfn.CONCAT("players[""",$C347,"""][4] = players[""",$C347,"""][4] + ", RIGHT($E347, 1), ";")</f>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 1;</v>
       </c>
       <c r="T347" t="str">
-        <f t="shared" si="73"/>
+        <f>_xlfn.CONCAT("players[""",$D347,"""][4] = players[""",$D347,"""][4] + ", LEFT($E347, 1), ";")</f>
         <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 3;</v>
       </c>
       <c r="U347" t="str">
-        <f t="shared" si="74"/>
+        <f>O347</f>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
     </row>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65915039-55D9-4860-ADB5-23F45306AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB60FC6-FAF3-49EB-8C88-1F926D116F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="310">
   <si>
     <t>Day</t>
   </si>
@@ -969,6 +969,9 @@
   <si>
     <t>nolbear v BeerMelancon</t>
   </si>
+  <si>
+    <t>Upper Bracket Semifinals</t>
+  </si>
 </sst>
 </file>
 
@@ -1399,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
   <dimension ref="A1:U347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G333" sqref="G333"/>
     </sheetView>
@@ -29132,10 +29135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U167"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165:G167"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35943,7 +35946,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O167" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O169" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -35967,7 +35970,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U167" si="16">O86</f>
+        <f t="shared" ref="U86:U169" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -36075,31 +36078,31 @@
         <v>282</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H167" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H169" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I167" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I169" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J167" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J169" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K167" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K169" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L167" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L169" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M167" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M169" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N167" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N169" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -36107,23 +36110,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P167" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P169" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q167" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q169" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R167" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R169" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S167" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S169" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T167" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T169" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -36136,7 +36139,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B167" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B169" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -42449,6 +42452,166 @@
       <c r="U167" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Group Stage</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="29"/>
+        <v>203</v>
+      </c>
+      <c r="C168" t="s">
+        <v>245</v>
+      </c>
+      <c r="D168" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s">
+        <v>298</v>
+      </c>
+      <c r="G168" t="s">
+        <v>235</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["NukeTheWales"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 203);</v>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["NukeTheWales"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 203);</v>
+      </c>
+      <c r="K168" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["NukeTheWales"][0], players["RolePlayingGrandma"][0], WHResult.Player1Win, 203);</v>
+      </c>
+      <c r="M168" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N168" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P168" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["NukeTheWales"][1]++; players["RolePlayingGrandma"][2]++; </v>
+      </c>
+      <c r="Q168" t="str">
+        <f t="shared" si="25"/>
+        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 3;</v>
+      </c>
+      <c r="R168" t="str">
+        <f t="shared" si="26"/>
+        <v>players["RolePlayingGrandma"][3] = players["RolePlayingGrandma"][3] + 0;</v>
+      </c>
+      <c r="S168" t="str">
+        <f t="shared" si="27"/>
+        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 0;</v>
+      </c>
+      <c r="T168" t="str">
+        <f t="shared" si="28"/>
+        <v>players["RolePlayingGrandma"][4] = players["RolePlayingGrandma"][4] + 3;</v>
+      </c>
+      <c r="U168" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="29"/>
+        <v>204</v>
+      </c>
+      <c r="C169" t="s">
+        <v>93</v>
+      </c>
+      <c r="D169" t="s">
+        <v>71</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" t="s">
+        <v>298</v>
+      </c>
+      <c r="G169" t="s">
+        <v>309</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Slosh"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Slosh"][0], WHResult.Player2Win, 204);</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Slosh"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Slosh"][0], WHResult.Player2Win, 204);</v>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Pied"][0], players["Slosh"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="M169" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N169" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
+      </c>
+      <c r="P169" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Pied"][1]++; players["Slosh"][2]++; </v>
+      </c>
+      <c r="Q169" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Pied"][3] = players["Pied"][3] + 3;</v>
+      </c>
+      <c r="R169" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 2;</v>
+      </c>
+      <c r="S169" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Pied"][4] = players["Pied"][4] + 2;</v>
+      </c>
+      <c r="T169" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 3;</v>
+      </c>
+      <c r="U169" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
       </c>
     </row>
   </sheetData>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB60FC6-FAF3-49EB-8C88-1F926D116F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A086C-104F-433C-A2FA-6D02B50DE92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="810" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="311">
   <si>
     <t>Day</t>
   </si>
@@ -972,6 +972,9 @@
   <si>
     <t>Upper Bracket Semifinals</t>
   </si>
+  <si>
+    <t>MSL Summer Gauntlet</t>
+  </si>
 </sst>
 </file>
 
@@ -1400,11 +1403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
-  <dimension ref="A1:U347"/>
+  <dimension ref="A1:U352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G333" sqref="G333"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P352" sqref="P352:U352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29121,6 +29124,406 @@
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
     </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B348">
+        <f>_xlfn.DAYS(A348, "6/13/2019")</f>
+        <v>749</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F348" t="s">
+        <v>298</v>
+      </c>
+      <c r="G348" t="s">
+        <v>235</v>
+      </c>
+      <c r="H348" t="str">
+        <f>IF(VALUE(LEFT($E348, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 749);</v>
+      </c>
+      <c r="I348" t="str">
+        <f>IF(VALUE(RIGHT($E348, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player2Win, ", $B348, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="J348" t="str">
+        <f>IF(VALUE(LEFT($E348, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 749);</v>
+      </c>
+      <c r="K348" t="str">
+        <f>IF(VALUE(RIGHT($E348, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player2Win, ", $B348, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="L348" t="str">
+        <f>IF(VALUE(LEFT($E348, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <v>whr.CreateGame(players["XanderG"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 749);</v>
+      </c>
+      <c r="M348" t="str">
+        <f>IF(VALUE(RIGHT($E348, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player2Win, ", $B348, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="N348" t="str">
+        <f>IF(VALUE(LEFT($E348, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="O348" t="str">
+        <f>_xlfn.CONCAT("// ",$F348, " ", $G348)</f>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P348" t="str">
+        <f>IF(LEFT($E348,1)&gt;RIGHT($E348,1),_xlfn.CONCAT("players[""",$C348,"""][1]++; players[""",$D348,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["XanderG"][1]++; players["Nick The Ultra"][2]++; </v>
+      </c>
+      <c r="Q348" t="str">
+        <f>_xlfn.CONCAT("players[""",$C348,"""][3] = players[""",$C348,"""][3] + ", LEFT($E348, 1), ";")</f>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
+      </c>
+      <c r="R348" t="str">
+        <f>_xlfn.CONCAT("players[""",$D348,"""][3] = players[""",$D348,"""][3] + ", RIGHT($E348, 1), ";")</f>
+        <v>players["Nick The Ultra"][3] = players["Nick The Ultra"][3] + 0;</v>
+      </c>
+      <c r="S348" t="str">
+        <f>_xlfn.CONCAT("players[""",$C348,"""][4] = players[""",$C348,"""][4] + ", RIGHT($E348, 1), ";")</f>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
+      </c>
+      <c r="T348" t="str">
+        <f>_xlfn.CONCAT("players[""",$D348,"""][4] = players[""",$D348,"""][4] + ", LEFT($E348, 1), ";")</f>
+        <v>players["Nick The Ultra"][4] = players["Nick The Ultra"][4] + 3;</v>
+      </c>
+      <c r="U348" t="str">
+        <f>O348</f>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B349">
+        <f>_xlfn.DAYS(A349, "6/13/2019")</f>
+        <v>749</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F349" t="s">
+        <v>298</v>
+      </c>
+      <c r="G349" t="s">
+        <v>236</v>
+      </c>
+      <c r="H349" t="str">
+        <f>IF(VALUE(LEFT($E349, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 749);</v>
+      </c>
+      <c r="I349" t="str">
+        <f>IF(VALUE(RIGHT($E349, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player2Win, ", $B349, ");"), "")</f>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player2Win, 749);</v>
+      </c>
+      <c r="J349" t="str">
+        <f>IF(VALUE(LEFT($E349, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 749);</v>
+      </c>
+      <c r="K349" t="str">
+        <f>IF(VALUE(RIGHT($E349, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player2Win, ", $B349, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="L349" t="str">
+        <f>IF(VALUE(LEFT($E349, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 749);</v>
+      </c>
+      <c r="M349" t="str">
+        <f>IF(VALUE(RIGHT($E349, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player2Win, ", $B349, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="N349" t="str">
+        <f>IF(VALUE(LEFT($E349, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="O349" t="str">
+        <f>_xlfn.CONCAT("// ",$F349, " ", $G349)</f>
+        <v>// MSL Summer Split '21 Upper Bracket Finals</v>
+      </c>
+      <c r="P349" t="str">
+        <f>IF(LEFT($E349,1)&gt;RIGHT($E349,1),_xlfn.CONCAT("players[""",$C349,"""][1]++; players[""",$D349,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["J0k3r"][1]++; players["ImSpiker"][2]++; </v>
+      </c>
+      <c r="Q349" t="str">
+        <f>_xlfn.CONCAT("players[""",$C349,"""][3] = players[""",$C349,"""][3] + ", LEFT($E349, 1), ";")</f>
+        <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
+      </c>
+      <c r="R349" t="str">
+        <f>_xlfn.CONCAT("players[""",$D349,"""][3] = players[""",$D349,"""][3] + ", RIGHT($E349, 1), ";")</f>
+        <v>players["ImSpiker"][3] = players["ImSpiker"][3] + 1;</v>
+      </c>
+      <c r="S349" t="str">
+        <f>_xlfn.CONCAT("players[""",$C349,"""][4] = players[""",$C349,"""][4] + ", RIGHT($E349, 1), ";")</f>
+        <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
+      </c>
+      <c r="T349" t="str">
+        <f>_xlfn.CONCAT("players[""",$D349,"""][4] = players[""",$D349,"""][4] + ", LEFT($E349, 1), ";")</f>
+        <v>players["ImSpiker"][4] = players["ImSpiker"][4] + 3;</v>
+      </c>
+      <c r="U349" t="str">
+        <f>O349</f>
+        <v>// MSL Summer Split '21 Upper Bracket Finals</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B350">
+        <f>_xlfn.DAYS(A350, "6/13/2019")</f>
+        <v>750</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F350" t="s">
+        <v>298</v>
+      </c>
+      <c r="G350" t="s">
+        <v>309</v>
+      </c>
+      <c r="H350" t="str">
+        <f>IF(VALUE(LEFT($E350, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Rocci"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="I350" t="str">
+        <f>IF(VALUE(RIGHT($E350, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player2Win, ", $B350, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="J350" t="str">
+        <f>IF(VALUE(LEFT($E350, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Rocci"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="K350" t="str">
+        <f>IF(VALUE(RIGHT($E350, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player2Win, ", $B350, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="L350" t="str">
+        <f>IF(VALUE(LEFT($E350, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Rocci"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="M350" t="str">
+        <f>IF(VALUE(RIGHT($E350, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player2Win, ", $B350, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="N350" t="str">
+        <f>IF(VALUE(LEFT($E350, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="O350" t="str">
+        <f>_xlfn.CONCAT("// ",$F350, " ", $G350)</f>
+        <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
+      </c>
+      <c r="P350" t="str">
+        <f>IF(LEFT($E350,1)&gt;RIGHT($E350,1),_xlfn.CONCAT("players[""",$C350,"""][1]++; players[""",$D350,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["ThisIsMyUsername"][1]++; players["Rocci"][2]++; </v>
+      </c>
+      <c r="Q350" t="str">
+        <f>_xlfn.CONCAT("players[""",$C350,"""][3] = players[""",$C350,"""][3] + ", LEFT($E350, 1), ";")</f>
+        <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 3;</v>
+      </c>
+      <c r="R350" t="str">
+        <f>_xlfn.CONCAT("players[""",$D350,"""][3] = players[""",$D350,"""][3] + ", RIGHT($E350, 1), ";")</f>
+        <v>players["Rocci"][3] = players["Rocci"][3] + 0;</v>
+      </c>
+      <c r="S350" t="str">
+        <f>_xlfn.CONCAT("players[""",$C350,"""][4] = players[""",$C350,"""][4] + ", RIGHT($E350, 1), ";")</f>
+        <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 0;</v>
+      </c>
+      <c r="T350" t="str">
+        <f>_xlfn.CONCAT("players[""",$D350,"""][4] = players[""",$D350,"""][4] + ", LEFT($E350, 1), ";")</f>
+        <v>players["Rocci"][4] = players["Rocci"][4] + 3;</v>
+      </c>
+      <c r="U350" t="str">
+        <f>O350</f>
+        <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B351">
+        <f>_xlfn.DAYS(A351, "6/13/2019")</f>
+        <v>750</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F351" t="s">
+        <v>298</v>
+      </c>
+      <c r="G351" t="s">
+        <v>235</v>
+      </c>
+      <c r="H351" t="str">
+        <f>IF(VALUE(LEFT($E351, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Tramzy"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="I351" t="str">
+        <f>IF(VALUE(RIGHT($E351, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player2Win, ", $B351, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="J351" t="str">
+        <f>IF(VALUE(LEFT($E351, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Tramzy"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="K351" t="str">
+        <f>IF(VALUE(RIGHT($E351, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player2Win, ", $B351, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="L351" t="str">
+        <f>IF(VALUE(LEFT($E351, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["Tramzy"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="M351" t="str">
+        <f>IF(VALUE(RIGHT($E351, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player2Win, ", $B351, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="N351" t="str">
+        <f>IF(VALUE(LEFT($E351, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="O351" t="str">
+        <f>_xlfn.CONCAT("// ",$F351, " ", $G351)</f>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P351" t="str">
+        <f>IF(LEFT($E351,1)&gt;RIGHT($E351,1),_xlfn.CONCAT("players[""",$C351,"""][1]++; players[""",$D351,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["Tramzy"][2]++; </v>
+      </c>
+      <c r="Q351" t="str">
+        <f>_xlfn.CONCAT("players[""",$C351,"""][3] = players[""",$C351,"""][3] + ", LEFT($E351, 1), ";")</f>
+        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
+      </c>
+      <c r="R351" t="str">
+        <f>_xlfn.CONCAT("players[""",$D351,"""][3] = players[""",$D351,"""][3] + ", RIGHT($E351, 1), ";")</f>
+        <v>players["Tramzy"][3] = players["Tramzy"][3] + 0;</v>
+      </c>
+      <c r="S351" t="str">
+        <f>_xlfn.CONCAT("players[""",$C351,"""][4] = players[""",$C351,"""][4] + ", RIGHT($E351, 1), ";")</f>
+        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
+      </c>
+      <c r="T351" t="str">
+        <f>_xlfn.CONCAT("players[""",$D351,"""][4] = players[""",$D351,"""][4] + ", LEFT($E351, 1), ";")</f>
+        <v>players["Tramzy"][4] = players["Tramzy"][4] + 3;</v>
+      </c>
+      <c r="U351" t="str">
+        <f>O351</f>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B352">
+        <f>_xlfn.DAYS(A352, "6/13/2019")</f>
+        <v>750</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F352" t="s">
+        <v>298</v>
+      </c>
+      <c r="G352" t="s">
+        <v>236</v>
+      </c>
+      <c r="H352" t="str">
+        <f>IF(VALUE(LEFT($E352, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="I352" t="str">
+        <f>IF(VALUE(RIGHT($E352, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player2Win, ", $B352, ");"), "")</f>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player2Win, 750);</v>
+      </c>
+      <c r="J352" t="str">
+        <f>IF(VALUE(LEFT($E352, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="K352" t="str">
+        <f>IF(VALUE(RIGHT($E352, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player2Win, ", $B352, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="L352" t="str">
+        <f>IF(VALUE(LEFT($E352, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 750);</v>
+      </c>
+      <c r="M352" t="str">
+        <f>IF(VALUE(RIGHT($E352, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player2Win, ", $B352, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="N352" t="str">
+        <f>IF(VALUE(LEFT($E352, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <v/>
+      </c>
+      <c r="O352" t="str">
+        <f>_xlfn.CONCAT("// ",$F352, " ", $G352)</f>
+        <v>// MSL Summer Split '21 Upper Bracket Finals</v>
+      </c>
+      <c r="P352" t="str">
+        <f>IF(LEFT($E352,1)&gt;RIGHT($E352,1),_xlfn.CONCAT("players[""",$C352,"""][1]++; players[""",$D352,"""][2]++; ",""), "")</f>
+        <v xml:space="preserve">players["Tricks"][1]++; players["ThisIsMyUsername"][2]++; </v>
+      </c>
+      <c r="Q352" t="str">
+        <f>_xlfn.CONCAT("players[""",$C352,"""][3] = players[""",$C352,"""][3] + ", LEFT($E352, 1), ";")</f>
+        <v>players["Tricks"][3] = players["Tricks"][3] + 3;</v>
+      </c>
+      <c r="R352" t="str">
+        <f>_xlfn.CONCAT("players[""",$D352,"""][3] = players[""",$D352,"""][3] + ", RIGHT($E352, 1), ";")</f>
+        <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 1;</v>
+      </c>
+      <c r="S352" t="str">
+        <f>_xlfn.CONCAT("players[""",$C352,"""][4] = players[""",$C352,"""][4] + ", RIGHT($E352, 1), ";")</f>
+        <v>players["Tricks"][4] = players["Tricks"][4] + 1;</v>
+      </c>
+      <c r="T352" t="str">
+        <f>_xlfn.CONCAT("players[""",$D352,"""][4] = players[""",$D352,"""][4] + ", LEFT($E352, 1), ";")</f>
+        <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 3;</v>
+      </c>
+      <c r="U352" t="str">
+        <f>O352</f>
+        <v>// MSL Summer Split '21 Upper Bracket Finals</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G318" xr:uid="{DE725588-143D-491A-A7AA-AC0F20B8706F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G271">
@@ -29135,10 +29538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:U173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35946,7 +36349,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O169" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O173" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -35970,7 +36373,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U169" si="16">O86</f>
+        <f t="shared" ref="U86:U173" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -36078,31 +36481,31 @@
         <v>282</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H169" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H173" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I169" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I173" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J169" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J173" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K169" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K173" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L169" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L173" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M169" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M173" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N169" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N173" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -36110,23 +36513,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P169" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P173" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q169" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q173" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R169" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R173" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S169" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S173" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T169" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T173" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -36139,7 +36542,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B169" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B173" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -42612,6 +43015,323 @@
       <c r="U169" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="29"/>
+        <v>204</v>
+      </c>
+      <c r="C170" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" t="s">
+        <v>298</v>
+      </c>
+      <c r="G170" t="s">
+        <v>309</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Luso"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="I170" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Luso"][0], WHResult.Player2Win, 204);</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Luso"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Luso"][0], WHResult.Player2Win, 204);</v>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Agent A"][0], players["Luso"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="M170" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N170" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O170" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
+      </c>
+      <c r="P170" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Agent A"][1]++; players["Luso"][2]++; </v>
+      </c>
+      <c r="Q170" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Agent A"][3] = players["Agent A"][3] + 3;</v>
+      </c>
+      <c r="R170" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 2;</v>
+      </c>
+      <c r="S170" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Agent A"][4] = players["Agent A"][4] + 2;</v>
+      </c>
+      <c r="T170" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+      </c>
+      <c r="U170" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="29"/>
+        <v>204</v>
+      </c>
+      <c r="C171" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" t="s">
+        <v>290</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" t="s">
+        <v>310</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Gucky"][0], players["Poolboi"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="I171" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Gucky"][0], players["Poolboi"][0], WHResult.Player2Win, 204);</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Gucky"][0], players["Poolboi"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Gucky"][0], players["Poolboi"][0], WHResult.Player2Win, 204);</v>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Gucky"][0], players["Poolboi"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="M171" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N171" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O171" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">// MSL Summer Gauntlet </v>
+      </c>
+      <c r="P171" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Gucky"][1]++; players["Poolboi"][2]++; </v>
+      </c>
+      <c r="Q171" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Gucky"][3] = players["Gucky"][3] + 3;</v>
+      </c>
+      <c r="R171" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Poolboi"][3] = players["Poolboi"][3] + 2;</v>
+      </c>
+      <c r="S171" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Gucky"][4] = players["Gucky"][4] + 2;</v>
+      </c>
+      <c r="T171" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Poolboi"][4] = players["Poolboi"][4] + 3;</v>
+      </c>
+      <c r="U171" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">// MSL Summer Gauntlet </v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="29"/>
+        <v>204</v>
+      </c>
+      <c r="C172" t="s">
+        <v>242</v>
+      </c>
+      <c r="D172" t="s">
+        <v>289</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s">
+        <v>298</v>
+      </c>
+      <c r="G172" t="s">
+        <v>235</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["SweetieMan"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["SweetieMan"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L172" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["SweetieMan"][0], WHResult.Player1Win, 204);</v>
+      </c>
+      <c r="M172" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N172" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O172" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P172" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Mylo Grams"][1]++; players["SweetieMan"][2]++; </v>
+      </c>
+      <c r="Q172" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 3;</v>
+      </c>
+      <c r="R172" t="str">
+        <f t="shared" si="26"/>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 0;</v>
+      </c>
+      <c r="S172" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 0;</v>
+      </c>
+      <c r="T172" t="str">
+        <f t="shared" si="28"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+      </c>
+      <c r="U172" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="29"/>
+        <v>205</v>
+      </c>
+      <c r="C173" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F173" t="s">
+        <v>298</v>
+      </c>
+      <c r="G173" t="s">
+        <v>235</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Luso"][0], WHResult.Player1Win, 205);</v>
+      </c>
+      <c r="I173" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Luso"][0], WHResult.Player2Win, 205);</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Luso"][0], WHResult.Player1Win, 205);</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L173" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["Luso"][0], WHResult.Player1Win, 205);</v>
+      </c>
+      <c r="M173" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N173" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O173" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P173" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["XanderG"][1]++; players["Luso"][2]++; </v>
+      </c>
+      <c r="Q173" t="str">
+        <f t="shared" si="25"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
+      </c>
+      <c r="R173" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 1;</v>
+      </c>
+      <c r="S173" t="str">
+        <f t="shared" si="27"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 1;</v>
+      </c>
+      <c r="T173" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+      </c>
+      <c r="U173" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
       </c>
     </row>
   </sheetData>

--- a/MscTournamentRatings/tourney-results.xlsx
+++ b/MscTournamentRatings/tourney-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcoraccio\source\repos\Rocci1212\MscTournamentRatings\MscTournamentRatings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A086C-104F-433C-A2FA-6D02B50DE92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C177B50-4D65-4EAB-A474-CDF1AF30DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1BF2D96-1759-45CC-85E3-B78F2A107FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="311">
   <si>
     <t>Day</t>
   </si>
@@ -973,7 +973,7 @@
     <t>Upper Bracket Semifinals</t>
   </si>
   <si>
-    <t>MSL Summer Gauntlet</t>
+    <t>MSL Summer Gauntlet '21</t>
   </si>
 </sst>
 </file>
@@ -1403,11 +1403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA8FA6-174E-49FD-9B7B-2C107C31E8FE}">
-  <dimension ref="A1:U352"/>
+  <dimension ref="A1:U357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P352" sqref="P352:U352"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H372" sqref="H372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
@@ -29049,7 +29049,7 @@
         <v>44376</v>
       </c>
       <c r="B347">
-        <f>_xlfn.DAYS(A347, "6/13/2019")</f>
+        <f t="shared" ref="B347:B357" si="75">_xlfn.DAYS(A347, "6/13/2019")</f>
         <v>747</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -29068,59 +29068,59 @@
         <v>12</v>
       </c>
       <c r="H347" t="str">
-        <f>IF(VALUE(LEFT($E347, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="H347:H357" si="76">IF(VALUE(LEFT($E347, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
         <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 747);</v>
       </c>
       <c r="I347" t="str">
-        <f>IF(VALUE(RIGHT($E347, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="I347:I357" si="77">IF(VALUE(RIGHT($E347, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
         <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player2Win, 747);</v>
       </c>
       <c r="J347" t="str">
-        <f>IF(VALUE(LEFT($E347, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="J347:J357" si="78">IF(VALUE(LEFT($E347, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
         <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 747);</v>
       </c>
       <c r="K347" t="str">
-        <f>IF(VALUE(RIGHT($E347, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="K347:K357" si="79">IF(VALUE(RIGHT($E347, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
         <v/>
       </c>
       <c r="L347" t="str">
-        <f>IF(VALUE(LEFT($E347, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="L347:L357" si="80">IF(VALUE(LEFT($E347, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
         <v>whr.CreateGame(players["XanderG"][0], players["Rickshaw"][0], WHResult.Player1Win, 747);</v>
       </c>
       <c r="M347" t="str">
-        <f>IF(VALUE(RIGHT($E347, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="M347:M357" si="81">IF(VALUE(RIGHT($E347, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player2Win, ", $B347, ");"), "")</f>
         <v/>
       </c>
       <c r="N347" t="str">
-        <f>IF(VALUE(LEFT($E347, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
+        <f t="shared" ref="N347:N357" si="82">IF(VALUE(LEFT($E347, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C347, """][0], players[""", $D347, """][0], WHResult.Player1Win, ", $B347, ");"), "")</f>
         <v/>
       </c>
       <c r="O347" t="str">
-        <f>_xlfn.CONCAT("// ",$F347, " ", $G347)</f>
+        <f t="shared" ref="O347:O357" si="83">_xlfn.CONCAT("// ",$F347, " ", $G347)</f>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
       <c r="P347" t="str">
-        <f>IF(LEFT($E347,1)&gt;RIGHT($E347,1),_xlfn.CONCAT("players[""",$C347,"""][1]++; players[""",$D347,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P347:P357" si="84">IF(LEFT($E347,1)&gt;RIGHT($E347,1),_xlfn.CONCAT("players[""",$C347,"""][1]++; players[""",$D347,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["XanderG"][1]++; players["Rickshaw"][2]++; </v>
       </c>
       <c r="Q347" t="str">
-        <f>_xlfn.CONCAT("players[""",$C347,"""][3] = players[""",$C347,"""][3] + ", LEFT($E347, 1), ";")</f>
+        <f t="shared" ref="Q347:Q357" si="85">_xlfn.CONCAT("players[""",$C347,"""][3] = players[""",$C347,"""][3] + ", LEFT($E347, 1), ";")</f>
         <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
       </c>
       <c r="R347" t="str">
-        <f>_xlfn.CONCAT("players[""",$D347,"""][3] = players[""",$D347,"""][3] + ", RIGHT($E347, 1), ";")</f>
+        <f t="shared" ref="R347:R357" si="86">_xlfn.CONCAT("players[""",$D347,"""][3] = players[""",$D347,"""][3] + ", RIGHT($E347, 1), ";")</f>
         <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 1;</v>
       </c>
       <c r="S347" t="str">
-        <f>_xlfn.CONCAT("players[""",$C347,"""][4] = players[""",$C347,"""][4] + ", RIGHT($E347, 1), ";")</f>
+        <f t="shared" ref="S347:S357" si="87">_xlfn.CONCAT("players[""",$C347,"""][4] = players[""",$C347,"""][4] + ", RIGHT($E347, 1), ";")</f>
         <v>players["XanderG"][4] = players["XanderG"][4] + 1;</v>
       </c>
       <c r="T347" t="str">
-        <f>_xlfn.CONCAT("players[""",$D347,"""][4] = players[""",$D347,"""][4] + ", LEFT($E347, 1), ";")</f>
+        <f t="shared" ref="T347:T357" si="88">_xlfn.CONCAT("players[""",$D347,"""][4] = players[""",$D347,"""][4] + ", LEFT($E347, 1), ";")</f>
         <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 3;</v>
       </c>
       <c r="U347" t="str">
-        <f>O347</f>
+        <f t="shared" ref="U347:U357" si="89">O347</f>
         <v>// MSL Summer Split '21 Group Stage</v>
       </c>
     </row>
@@ -29129,7 +29129,7 @@
         <v>44378</v>
       </c>
       <c r="B348">
-        <f>_xlfn.DAYS(A348, "6/13/2019")</f>
+        <f t="shared" si="75"/>
         <v>749</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -29148,59 +29148,59 @@
         <v>235</v>
       </c>
       <c r="H348" t="str">
-        <f>IF(VALUE(LEFT($E348, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="76"/>
         <v>whr.CreateGame(players["XanderG"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 749);</v>
       </c>
       <c r="I348" t="str">
-        <f>IF(VALUE(RIGHT($E348, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player2Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J348" t="str">
-        <f>IF(VALUE(LEFT($E348, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="78"/>
         <v>whr.CreateGame(players["XanderG"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 749);</v>
       </c>
       <c r="K348" t="str">
-        <f>IF(VALUE(RIGHT($E348, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player2Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="L348" t="str">
-        <f>IF(VALUE(LEFT($E348, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="80"/>
         <v>whr.CreateGame(players["XanderG"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 749);</v>
       </c>
       <c r="M348" t="str">
-        <f>IF(VALUE(RIGHT($E348, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player2Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="N348" t="str">
-        <f>IF(VALUE(LEFT($E348, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C348, """][0], players[""", $D348, """][0], WHResult.Player1Win, ", $B348, ");"), "")</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O348" t="str">
-        <f>_xlfn.CONCAT("// ",$F348, " ", $G348)</f>
+        <f t="shared" si="83"/>
         <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
       </c>
       <c r="P348" t="str">
-        <f>IF(LEFT($E348,1)&gt;RIGHT($E348,1),_xlfn.CONCAT("players[""",$C348,"""][1]++; players[""",$D348,"""][2]++; ",""), "")</f>
+        <f t="shared" si="84"/>
         <v xml:space="preserve">players["XanderG"][1]++; players["Nick The Ultra"][2]++; </v>
       </c>
       <c r="Q348" t="str">
-        <f>_xlfn.CONCAT("players[""",$C348,"""][3] = players[""",$C348,"""][3] + ", LEFT($E348, 1), ";")</f>
+        <f t="shared" si="85"/>
         <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
       </c>
       <c r="R348" t="str">
-        <f>_xlfn.CONCAT("players[""",$D348,"""][3] = players[""",$D348,"""][3] + ", RIGHT($E348, 1), ";")</f>
+        <f t="shared" si="86"/>
         <v>players["Nick The Ultra"][3] = players["Nick The Ultra"][3] + 0;</v>
       </c>
       <c r="S348" t="str">
-        <f>_xlfn.CONCAT("players[""",$C348,"""][4] = players[""",$C348,"""][4] + ", RIGHT($E348, 1), ";")</f>
+        <f t="shared" si="87"/>
         <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
       </c>
       <c r="T348" t="str">
-        <f>_xlfn.CONCAT("players[""",$D348,"""][4] = players[""",$D348,"""][4] + ", LEFT($E348, 1), ";")</f>
+        <f t="shared" si="88"/>
         <v>players["Nick The Ultra"][4] = players["Nick The Ultra"][4] + 3;</v>
       </c>
       <c r="U348" t="str">
-        <f>O348</f>
+        <f t="shared" si="89"/>
         <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
       </c>
     </row>
@@ -29209,7 +29209,7 @@
         <v>44378</v>
       </c>
       <c r="B349">
-        <f>_xlfn.DAYS(A349, "6/13/2019")</f>
+        <f t="shared" si="75"/>
         <v>749</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -29228,59 +29228,59 @@
         <v>236</v>
       </c>
       <c r="H349" t="str">
-        <f>IF(VALUE(LEFT($E349, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="76"/>
         <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 749);</v>
       </c>
       <c r="I349" t="str">
-        <f>IF(VALUE(RIGHT($E349, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player2Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="77"/>
         <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player2Win, 749);</v>
       </c>
       <c r="J349" t="str">
-        <f>IF(VALUE(LEFT($E349, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="78"/>
         <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 749);</v>
       </c>
       <c r="K349" t="str">
-        <f>IF(VALUE(RIGHT($E349, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player2Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="L349" t="str">
-        <f>IF(VALUE(LEFT($E349, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="80"/>
         <v>whr.CreateGame(players["J0k3r"][0], players["ImSpiker"][0], WHResult.Player1Win, 749);</v>
       </c>
       <c r="M349" t="str">
-        <f>IF(VALUE(RIGHT($E349, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player2Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="N349" t="str">
-        <f>IF(VALUE(LEFT($E349, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C349, """][0], players[""", $D349, """][0], WHResult.Player1Win, ", $B349, ");"), "")</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O349" t="str">
-        <f>_xlfn.CONCAT("// ",$F349, " ", $G349)</f>
+        <f t="shared" si="83"/>
         <v>// MSL Summer Split '21 Upper Bracket Finals</v>
       </c>
       <c r="P349" t="str">
-        <f>IF(LEFT($E349,1)&gt;RIGHT($E349,1),_xlfn.CONCAT("players[""",$C349,"""][1]++; players[""",$D349,"""][2]++; ",""), "")</f>
+        <f t="shared" si="84"/>
         <v xml:space="preserve">players["J0k3r"][1]++; players["ImSpiker"][2]++; </v>
       </c>
       <c r="Q349" t="str">
-        <f>_xlfn.CONCAT("players[""",$C349,"""][3] = players[""",$C349,"""][3] + ", LEFT($E349, 1), ";")</f>
+        <f t="shared" si="85"/>
         <v>players["J0k3r"][3] = players["J0k3r"][3] + 3;</v>
       </c>
       <c r="R349" t="str">
-        <f>_xlfn.CONCAT("players[""",$D349,"""][3] = players[""",$D349,"""][3] + ", RIGHT($E349, 1), ";")</f>
+        <f t="shared" si="86"/>
         <v>players["ImSpiker"][3] = players["ImSpiker"][3] + 1;</v>
       </c>
       <c r="S349" t="str">
-        <f>_xlfn.CONCAT("players[""",$C349,"""][4] = players[""",$C349,"""][4] + ", RIGHT($E349, 1), ";")</f>
+        <f t="shared" si="87"/>
         <v>players["J0k3r"][4] = players["J0k3r"][4] + 1;</v>
       </c>
       <c r="T349" t="str">
-        <f>_xlfn.CONCAT("players[""",$D349,"""][4] = players[""",$D349,"""][4] + ", LEFT($E349, 1), ";")</f>
+        <f t="shared" si="88"/>
         <v>players["ImSpiker"][4] = players["ImSpiker"][4] + 3;</v>
       </c>
       <c r="U349" t="str">
-        <f>O349</f>
+        <f t="shared" si="89"/>
         <v>// MSL Summer Split '21 Upper Bracket Finals</v>
       </c>
     </row>
@@ -29289,7 +29289,7 @@
         <v>44379</v>
       </c>
       <c r="B350">
-        <f>_xlfn.DAYS(A350, "6/13/2019")</f>
+        <f t="shared" si="75"/>
         <v>750</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -29308,59 +29308,59 @@
         <v>309</v>
       </c>
       <c r="H350" t="str">
-        <f>IF(VALUE(LEFT($E350, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="76"/>
         <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Rocci"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="I350" t="str">
-        <f>IF(VALUE(RIGHT($E350, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player2Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J350" t="str">
-        <f>IF(VALUE(LEFT($E350, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="78"/>
         <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Rocci"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="K350" t="str">
-        <f>IF(VALUE(RIGHT($E350, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player2Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="L350" t="str">
-        <f>IF(VALUE(LEFT($E350, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="80"/>
         <v>whr.CreateGame(players["ThisIsMyUsername"][0], players["Rocci"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="M350" t="str">
-        <f>IF(VALUE(RIGHT($E350, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player2Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="N350" t="str">
-        <f>IF(VALUE(LEFT($E350, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C350, """][0], players[""", $D350, """][0], WHResult.Player1Win, ", $B350, ");"), "")</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O350" t="str">
-        <f>_xlfn.CONCAT("// ",$F350, " ", $G350)</f>
+        <f t="shared" si="83"/>
         <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
       </c>
       <c r="P350" t="str">
-        <f>IF(LEFT($E350,1)&gt;RIGHT($E350,1),_xlfn.CONCAT("players[""",$C350,"""][1]++; players[""",$D350,"""][2]++; ",""), "")</f>
+        <f t="shared" si="84"/>
         <v xml:space="preserve">players["ThisIsMyUsername"][1]++; players["Rocci"][2]++; </v>
       </c>
       <c r="Q350" t="str">
-        <f>_xlfn.CONCAT("players[""",$C350,"""][3] = players[""",$C350,"""][3] + ", LEFT($E350, 1), ";")</f>
+        <f t="shared" si="85"/>
         <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 3;</v>
       </c>
       <c r="R350" t="str">
-        <f>_xlfn.CONCAT("players[""",$D350,"""][3] = players[""",$D350,"""][3] + ", RIGHT($E350, 1), ";")</f>
+        <f t="shared" si="86"/>
         <v>players["Rocci"][3] = players["Rocci"][3] + 0;</v>
       </c>
       <c r="S350" t="str">
-        <f>_xlfn.CONCAT("players[""",$C350,"""][4] = players[""",$C350,"""][4] + ", RIGHT($E350, 1), ";")</f>
+        <f t="shared" si="87"/>
         <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 0;</v>
       </c>
       <c r="T350" t="str">
-        <f>_xlfn.CONCAT("players[""",$D350,"""][4] = players[""",$D350,"""][4] + ", LEFT($E350, 1), ";")</f>
+        <f t="shared" si="88"/>
         <v>players["Rocci"][4] = players["Rocci"][4] + 3;</v>
       </c>
       <c r="U350" t="str">
-        <f>O350</f>
+        <f t="shared" si="89"/>
         <v>// MSL Summer Split '21 Upper Bracket Semifinals</v>
       </c>
     </row>
@@ -29369,7 +29369,7 @@
         <v>44379</v>
       </c>
       <c r="B351">
-        <f>_xlfn.DAYS(A351, "6/13/2019")</f>
+        <f t="shared" si="75"/>
         <v>750</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -29388,59 +29388,59 @@
         <v>235</v>
       </c>
       <c r="H351" t="str">
-        <f>IF(VALUE(LEFT($E351, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="76"/>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["Tramzy"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="I351" t="str">
-        <f>IF(VALUE(RIGHT($E351, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player2Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J351" t="str">
-        <f>IF(VALUE(LEFT($E351, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="78"/>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["Tramzy"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="K351" t="str">
-        <f>IF(VALUE(RIGHT($E351, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player2Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="L351" t="str">
-        <f>IF(VALUE(LEFT($E351, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="80"/>
         <v>whr.CreateGame(players["einBirnenbaum"][0], players["Tramzy"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="M351" t="str">
-        <f>IF(VALUE(RIGHT($E351, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player2Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="N351" t="str">
-        <f>IF(VALUE(LEFT($E351, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C351, """][0], players[""", $D351, """][0], WHResult.Player1Win, ", $B351, ");"), "")</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O351" t="str">
-        <f>_xlfn.CONCAT("// ",$F351, " ", $G351)</f>
+        <f t="shared" si="83"/>
         <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
       </c>
       <c r="P351" t="str">
-        <f>IF(LEFT($E351,1)&gt;RIGHT($E351,1),_xlfn.CONCAT("players[""",$C351,"""][1]++; players[""",$D351,"""][2]++; ",""), "")</f>
+        <f t="shared" si="84"/>
         <v xml:space="preserve">players["einBirnenbaum"][1]++; players["Tramzy"][2]++; </v>
       </c>
       <c r="Q351" t="str">
-        <f>_xlfn.CONCAT("players[""",$C351,"""][3] = players[""",$C351,"""][3] + ", LEFT($E351, 1), ";")</f>
+        <f t="shared" si="85"/>
         <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
       </c>
       <c r="R351" t="str">
-        <f>_xlfn.CONCAT("players[""",$D351,"""][3] = players[""",$D351,"""][3] + ", RIGHT($E351, 1), ";")</f>
+        <f t="shared" si="86"/>
         <v>players["Tramzy"][3] = players["Tramzy"][3] + 0;</v>
       </c>
       <c r="S351" t="str">
-        <f>_xlfn.CONCAT("players[""",$C351,"""][4] = players[""",$C351,"""][4] + ", RIGHT($E351, 1), ";")</f>
+        <f t="shared" si="87"/>
         <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
       </c>
       <c r="T351" t="str">
-        <f>_xlfn.CONCAT("players[""",$D351,"""][4] = players[""",$D351,"""][4] + ", LEFT($E351, 1), ";")</f>
+        <f t="shared" si="88"/>
         <v>players["Tramzy"][4] = players["Tramzy"][4] + 3;</v>
       </c>
       <c r="U351" t="str">
-        <f>O351</f>
+        <f t="shared" si="89"/>
         <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
       </c>
     </row>
@@ -29449,7 +29449,7 @@
         <v>44379</v>
       </c>
       <c r="B352">
-        <f>_xlfn.DAYS(A352, "6/13/2019")</f>
+        <f t="shared" si="75"/>
         <v>750</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -29468,60 +29468,457 @@
         <v>236</v>
       </c>
       <c r="H352" t="str">
-        <f>IF(VALUE(LEFT($E352, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="76"/>
         <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="I352" t="str">
-        <f>IF(VALUE(RIGHT($E352, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player2Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="77"/>
         <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player2Win, 750);</v>
       </c>
       <c r="J352" t="str">
-        <f>IF(VALUE(LEFT($E352, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="78"/>
         <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="K352" t="str">
-        <f>IF(VALUE(RIGHT($E352, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player2Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="L352" t="str">
-        <f>IF(VALUE(LEFT($E352, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="80"/>
         <v>whr.CreateGame(players["Tricks"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 750);</v>
       </c>
       <c r="M352" t="str">
-        <f>IF(VALUE(RIGHT($E352, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player2Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="N352" t="str">
-        <f>IF(VALUE(LEFT($E352, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C352, """][0], players[""", $D352, """][0], WHResult.Player1Win, ", $B352, ");"), "")</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O352" t="str">
-        <f>_xlfn.CONCAT("// ",$F352, " ", $G352)</f>
+        <f t="shared" si="83"/>
         <v>// MSL Summer Split '21 Upper Bracket Finals</v>
       </c>
       <c r="P352" t="str">
-        <f>IF(LEFT($E352,1)&gt;RIGHT($E352,1),_xlfn.CONCAT("players[""",$C352,"""][1]++; players[""",$D352,"""][2]++; ",""), "")</f>
+        <f t="shared" si="84"/>
         <v xml:space="preserve">players["Tricks"][1]++; players["ThisIsMyUsername"][2]++; </v>
       </c>
       <c r="Q352" t="str">
-        <f>_xlfn.CONCAT("players[""",$C352,"""][3] = players[""",$C352,"""][3] + ", LEFT($E352, 1), ";")</f>
+        <f t="shared" si="85"/>
         <v>players["Tricks"][3] = players["Tricks"][3] + 3;</v>
       </c>
       <c r="R352" t="str">
-        <f>_xlfn.CONCAT("players[""",$D352,"""][3] = players[""",$D352,"""][3] + ", RIGHT($E352, 1), ";")</f>
+        <f t="shared" si="86"/>
         <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 1;</v>
       </c>
       <c r="S352" t="str">
-        <f>_xlfn.CONCAT("players[""",$C352,"""][4] = players[""",$C352,"""][4] + ", RIGHT($E352, 1), ";")</f>
+        <f t="shared" si="87"/>
         <v>players["Tricks"][4] = players["Tricks"][4] + 1;</v>
       </c>
       <c r="T352" t="str">
-        <f>_xlfn.CONCAT("players[""",$D352,"""][4] = players[""",$D352,"""][4] + ", LEFT($E352, 1), ";")</f>
+        <f t="shared" si="88"/>
         <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 3;</v>
       </c>
       <c r="U352" t="str">
-        <f>O352</f>
+        <f t="shared" si="89"/>
         <v>// MSL Summer Split '21 Upper Bracket Finals</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="75"/>
+        <v>753</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F353" t="s">
+        <v>298</v>
+      </c>
+      <c r="G353" t="s">
+        <v>235</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="76"/>
+        <v>whr.CreateGame(players["Rickshaw"][0], players["DexDax"][0], WHResult.Player1Win, 753);</v>
+      </c>
+      <c r="I353" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="J353" t="str">
+        <f t="shared" si="78"/>
+        <v>whr.CreateGame(players["Rickshaw"][0], players["DexDax"][0], WHResult.Player1Win, 753);</v>
+      </c>
+      <c r="K353" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="L353" t="str">
+        <f t="shared" si="80"/>
+        <v>whr.CreateGame(players["Rickshaw"][0], players["DexDax"][0], WHResult.Player1Win, 753);</v>
+      </c>
+      <c r="M353" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="N353" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O353" t="str">
+        <f t="shared" si="83"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P353" t="str">
+        <f t="shared" si="84"/>
+        <v xml:space="preserve">players["Rickshaw"][1]++; players["DexDax"][2]++; </v>
+      </c>
+      <c r="Q353" t="str">
+        <f t="shared" si="85"/>
+        <v>players["Rickshaw"][3] = players["Rickshaw"][3] + 3;</v>
+      </c>
+      <c r="R353" t="str">
+        <f t="shared" si="86"/>
+        <v>players["DexDax"][3] = players["DexDax"][3] + 0;</v>
+      </c>
+      <c r="S353" t="str">
+        <f t="shared" si="87"/>
+        <v>players["Rickshaw"][4] = players["Rickshaw"][4] + 0;</v>
+      </c>
+      <c r="T353" t="str">
+        <f t="shared" si="88"/>
+        <v>players["DexDax"][4] = players["DexDax"][4] + 3;</v>
+      </c>
+      <c r="U353" t="str">
+        <f t="shared" si="89"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="75"/>
+        <v>754</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F354" t="s">
+        <v>298</v>
+      </c>
+      <c r="G354" t="s">
+        <v>235</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="76"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Luso"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="I354" t="str">
+        <f t="shared" si="77"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Luso"][0], WHResult.Player2Win, 754);</v>
+      </c>
+      <c r="J354" t="str">
+        <f t="shared" si="78"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Luso"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="K354" t="str">
+        <f t="shared" si="79"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Luso"][0], WHResult.Player2Win, 754);</v>
+      </c>
+      <c r="L354" t="str">
+        <f t="shared" si="80"/>
+        <v>whr.CreateGame(players["Rocci"][0], players["Luso"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="M354" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="N354" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O354" t="str">
+        <f t="shared" si="83"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P354" t="str">
+        <f t="shared" si="84"/>
+        <v xml:space="preserve">players["Rocci"][1]++; players["Luso"][2]++; </v>
+      </c>
+      <c r="Q354" t="str">
+        <f t="shared" si="85"/>
+        <v>players["Rocci"][3] = players["Rocci"][3] + 3;</v>
+      </c>
+      <c r="R354" t="str">
+        <f t="shared" si="86"/>
+        <v>players["Luso"][3] = players["Luso"][3] + 2;</v>
+      </c>
+      <c r="S354" t="str">
+        <f t="shared" si="87"/>
+        <v>players["Rocci"][4] = players["Rocci"][4] + 2;</v>
+      </c>
+      <c r="T354" t="str">
+        <f t="shared" si="88"/>
+        <v>players["Luso"][4] = players["Luso"][4] + 3;</v>
+      </c>
+      <c r="U354" t="str">
+        <f t="shared" si="89"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="75"/>
+        <v>754</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F355" t="s">
+        <v>298</v>
+      </c>
+      <c r="G355" t="s">
+        <v>237</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="76"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["XanderG"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="I355" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="J355" t="str">
+        <f t="shared" si="78"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["XanderG"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="K355" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="L355" t="str">
+        <f t="shared" si="80"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["XanderG"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="M355" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="N355" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O355" t="str">
+        <f t="shared" si="83"/>
+        <v>// MSL Summer Split '21 Lower Bracket Semifinals</v>
+      </c>
+      <c r="P355" t="str">
+        <f t="shared" si="84"/>
+        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["XanderG"][2]++; </v>
+      </c>
+      <c r="Q355" t="str">
+        <f t="shared" si="85"/>
+        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
+      </c>
+      <c r="R355" t="str">
+        <f t="shared" si="86"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 0;</v>
+      </c>
+      <c r="S355" t="str">
+        <f t="shared" si="87"/>
+        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
+      </c>
+      <c r="T355" t="str">
+        <f t="shared" si="88"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 3;</v>
+      </c>
+      <c r="U355" t="str">
+        <f t="shared" si="89"/>
+        <v>// MSL Summer Split '21 Lower Bracket Semifinals</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="75"/>
+        <v>754</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F356" t="s">
+        <v>298</v>
+      </c>
+      <c r="G356" t="s">
+        <v>238</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="76"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="I356" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="J356" t="str">
+        <f t="shared" si="78"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="K356" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="L356" t="str">
+        <f t="shared" si="80"/>
+        <v>whr.CreateGame(players["einBirnenbaum"][0], players["ThisIsMyUsername"][0], WHResult.Player1Win, 754);</v>
+      </c>
+      <c r="M356" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="N356" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O356" t="str">
+        <f t="shared" si="83"/>
+        <v>// MSL Summer Split '21 Lower Bracket Finals</v>
+      </c>
+      <c r="P356" t="str">
+        <f t="shared" si="84"/>
+        <v xml:space="preserve">players["einBirnenbaum"][1]++; players["ThisIsMyUsername"][2]++; </v>
+      </c>
+      <c r="Q356" t="str">
+        <f t="shared" si="85"/>
+        <v>players["einBirnenbaum"][3] = players["einBirnenbaum"][3] + 3;</v>
+      </c>
+      <c r="R356" t="str">
+        <f t="shared" si="86"/>
+        <v>players["ThisIsMyUsername"][3] = players["ThisIsMyUsername"][3] + 0;</v>
+      </c>
+      <c r="S356" t="str">
+        <f t="shared" si="87"/>
+        <v>players["einBirnenbaum"][4] = players["einBirnenbaum"][4] + 0;</v>
+      </c>
+      <c r="T356" t="str">
+        <f t="shared" si="88"/>
+        <v>players["ThisIsMyUsername"][4] = players["ThisIsMyUsername"][4] + 3;</v>
+      </c>
+      <c r="U356" t="str">
+        <f t="shared" si="89"/>
+        <v>// MSL Summer Split '21 Lower Bracket Finals</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="75"/>
+        <v>755</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F357" t="s">
+        <v>310</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="76"/>
+        <v>whr.CreateGame(players["Tramzy"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 755);</v>
+      </c>
+      <c r="I357" t="str">
+        <f t="shared" si="77"/>
+        <v>whr.CreateGame(players["Tramzy"][0], players["Nick The Ultra"][0], WHResult.Player2Win, 755);</v>
+      </c>
+      <c r="J357" t="str">
+        <f t="shared" si="78"/>
+        <v>whr.CreateGame(players["Tramzy"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 755);</v>
+      </c>
+      <c r="K357" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="L357" t="str">
+        <f t="shared" si="80"/>
+        <v>whr.CreateGame(players["Tramzy"][0], players["Nick The Ultra"][0], WHResult.Player1Win, 755);</v>
+      </c>
+      <c r="M357" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="N357" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O357" t="str">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve">// MSL Summer Gauntlet '21 </v>
+      </c>
+      <c r="P357" t="str">
+        <f t="shared" si="84"/>
+        <v xml:space="preserve">players["Tramzy"][1]++; players["Nick The Ultra"][2]++; </v>
+      </c>
+      <c r="Q357" t="str">
+        <f t="shared" si="85"/>
+        <v>players["Tramzy"][3] = players["Tramzy"][3] + 3;</v>
+      </c>
+      <c r="R357" t="str">
+        <f t="shared" si="86"/>
+        <v>players["Nick The Ultra"][3] = players["Nick The Ultra"][3] + 1;</v>
+      </c>
+      <c r="S357" t="str">
+        <f t="shared" si="87"/>
+        <v>players["Tramzy"][4] = players["Tramzy"][4] + 1;</v>
+      </c>
+      <c r="T357" t="str">
+        <f t="shared" si="88"/>
+        <v>players["Nick The Ultra"][4] = players["Nick The Ultra"][4] + 3;</v>
+      </c>
+      <c r="U357" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">// MSL Summer Gauntlet '21 </v>
       </c>
     </row>
   </sheetData>
@@ -29538,10 +29935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFFC24-916C-45FD-84A3-DF1CA07B1399}">
-  <dimension ref="A1:U173"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:U173"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:U177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36349,7 +36746,7 @@
         <v/>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O173" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
+        <f t="shared" ref="O86:O175" si="15">_xlfn.CONCAT("// ",$F86, " ", $G86)</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
       <c r="P86" t="str">
@@ -36373,7 +36770,7 @@
         <v>players["nolbear"][4] = players["nolbear"][4] + 3;</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" ref="U86:U173" si="16">O86</f>
+        <f t="shared" ref="U86:U175" si="16">O86</f>
         <v>// MSL Spring Split '21 Week 3</v>
       </c>
     </row>
@@ -36481,31 +36878,31 @@
         <v>282</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ref="H88:H173" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="H88:H177" si="17">IF(VALUE(LEFT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I173" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="I88:I177" si="18">IF(VALUE(RIGHT($E88, 1))&gt;0, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player2Win, 102);</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" ref="J88:J173" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="J88:J177" si="19">IF(VALUE(LEFT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K88:K173" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="K88:K177" si="20">IF(VALUE(RIGHT($E88, 1))&gt;1, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ref="L88:L173" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="L88:L177" si="21">IF(VALUE(LEFT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v>whr.CreateGame(players["banana_steals"][0], players["Agent A"][0], WHResult.Player1Win, 102);</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88:M173" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="M88:M177" si="22">IF(VALUE(RIGHT($E88, 1))&gt;2, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player2Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ref="N88:N173" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
+        <f t="shared" ref="N88:N177" si="23">IF(VALUE(LEFT($E88, 1))&gt;3, _xlfn.CONCAT("whr.CreateGame(players[""",$C88, """][0], players[""", $D88, """][0], WHResult.Player1Win, ", $B88, ");"), "")</f>
         <v/>
       </c>
       <c r="O88" t="str">
@@ -36513,23 +36910,23 @@
         <v>// MSL Spring Split '21 Week 4</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P173" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
+        <f t="shared" ref="P88:P177" si="24">IF(LEFT($E88,1)&gt;RIGHT($E88,1),_xlfn.CONCAT("players[""",$C88,"""][1]++; players[""",$D88,"""][2]++; ",""), "")</f>
         <v xml:space="preserve">players["banana_steals"][1]++; players["Agent A"][2]++; </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q173" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="Q88:Q177" si="25">_xlfn.CONCAT("players[""",$C88,"""][3] = players[""",$C88,"""][3] + ", LEFT($E88, 1), ";")</f>
         <v>players["banana_steals"][3] = players["banana_steals"][3] + 3;</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ref="R88:R173" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="R88:R177" si="26">_xlfn.CONCAT("players[""",$D88,"""][3] = players[""",$D88,"""][3] + ", RIGHT($E88, 1), ";")</f>
         <v>players["Agent A"][3] = players["Agent A"][3] + 1;</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ref="S88:S173" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
+        <f t="shared" ref="S88:S177" si="27">_xlfn.CONCAT("players[""",$C88,"""][4] = players[""",$C88,"""][4] + ", RIGHT($E88, 1), ";")</f>
         <v>players["banana_steals"][4] = players["banana_steals"][4] + 1;</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ref="T88:T173" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
+        <f t="shared" ref="T88:T177" si="28">_xlfn.CONCAT("players[""",$D88,"""][4] = players[""",$D88,"""][4] + ", LEFT($E88, 1), ";")</f>
         <v>players["Agent A"][4] = players["Agent A"][4] + 3;</v>
       </c>
       <c r="U88" t="str">
@@ -36542,7 +36939,7 @@
         <v>44277</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B173" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
+        <f t="shared" ref="B89:B177" si="29">_xlfn.DAYS(A89, "12/9/2020")</f>
         <v>103</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -43147,7 +43544,7 @@
       </c>
       <c r="O171" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">// MSL Summer Gauntlet </v>
+        <v xml:space="preserve">// MSL Summer Gauntlet '21 </v>
       </c>
       <c r="P171" t="str">
         <f t="shared" si="24"/>
@@ -43171,7 +43568,7 @@
       </c>
       <c r="U171" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">// MSL Summer Gauntlet </v>
+        <v xml:space="preserve">// MSL Summer Gauntlet '21 </v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -43332,6 +43729,323 @@
       <c r="U173" t="str">
         <f t="shared" si="16"/>
         <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="29"/>
+        <v>210</v>
+      </c>
+      <c r="C174" t="s">
+        <v>71</v>
+      </c>
+      <c r="D174" t="s">
+        <v>244</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F174" t="s">
+        <v>298</v>
+      </c>
+      <c r="G174" t="s">
+        <v>235</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Teke"][0], WHResult.Player1Win, 210);</v>
+      </c>
+      <c r="I174" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Teke"][0], WHResult.Player1Win, 210);</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L174" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Slosh"][0], players["Teke"][0], WHResult.Player1Win, 210);</v>
+      </c>
+      <c r="M174" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O174" t="str">
+        <f t="shared" si="15"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+      <c r="P174" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Slosh"][1]++; players["Teke"][2]++; </v>
+      </c>
+      <c r="Q174" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 3;</v>
+      </c>
+      <c r="R174" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Teke"][3] = players["Teke"][3] + 0;</v>
+      </c>
+      <c r="S174" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 0;</v>
+      </c>
+      <c r="T174" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Teke"][4] = players["Teke"][4] + 3;</v>
+      </c>
+      <c r="U174" t="str">
+        <f t="shared" si="16"/>
+        <v>// MSL Summer Split '21 Lower Bracket Quarterfinals</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="29"/>
+        <v>211</v>
+      </c>
+      <c r="C175" t="s">
+        <v>302</v>
+      </c>
+      <c r="D175" t="s">
+        <v>289</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" t="s">
+        <v>310</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["SweetieMan"][0], WHResult.Player1Win, 211);</v>
+      </c>
+      <c r="I175" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["SweetieMan"][0], WHResult.Player1Win, 211);</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["BeerMelancon"][0], players["SweetieMan"][0], WHResult.Player1Win, 211);</v>
+      </c>
+      <c r="M175" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N175" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O175" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">// MSL Summer Gauntlet '21 </v>
+      </c>
+      <c r="P175" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["BeerMelancon"][1]++; players["SweetieMan"][2]++; </v>
+      </c>
+      <c r="Q175" t="str">
+        <f t="shared" si="25"/>
+        <v>players["BeerMelancon"][3] = players["BeerMelancon"][3] + 3;</v>
+      </c>
+      <c r="R175" t="str">
+        <f t="shared" si="26"/>
+        <v>players["SweetieMan"][3] = players["SweetieMan"][3] + 0;</v>
+      </c>
+      <c r="S175" t="str">
+        <f t="shared" si="27"/>
+        <v>players["BeerMelancon"][4] = players["BeerMelancon"][4] + 0;</v>
+      </c>
+      <c r="T175" t="str">
+        <f t="shared" si="28"/>
+        <v>players["SweetieMan"][4] = players["SweetieMan"][4] + 3;</v>
+      </c>
+      <c r="U175" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">// MSL Summer Gauntlet '21 </v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="29"/>
+        <v>211</v>
+      </c>
+      <c r="C176" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" t="s">
+        <v>245</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F176" t="s">
+        <v>298</v>
+      </c>
+      <c r="G176" t="s">
+        <v>237</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["NukeTheWales"][0], WHResult.Player1Win, 211);</v>
+      </c>
+      <c r="I176" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["NukeTheWales"][0], WHResult.Player1Win, 211);</v>
+      </c>
+      <c r="K176" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L176" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["XanderG"][0], players["NukeTheWales"][0], WHResult.Player1Win, 211);</v>
+      </c>
+      <c r="M176" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N176" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O176" t="str">
+        <f t="shared" ref="O176:O177" si="30">_xlfn.CONCAT("// ",$F176, " ", $G176)</f>
+        <v>// MSL Summer Split '21 Lower Bracket Semifinals</v>
+      </c>
+      <c r="P176" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["XanderG"][1]++; players["NukeTheWales"][2]++; </v>
+      </c>
+      <c r="Q176" t="str">
+        <f t="shared" si="25"/>
+        <v>players["XanderG"][3] = players["XanderG"][3] + 3;</v>
+      </c>
+      <c r="R176" t="str">
+        <f t="shared" si="26"/>
+        <v>players["NukeTheWales"][3] = players["NukeTheWales"][3] + 0;</v>
+      </c>
+      <c r="S176" t="str">
+        <f t="shared" si="27"/>
+        <v>players["XanderG"][4] = players["XanderG"][4] + 0;</v>
+      </c>
+      <c r="T176" t="str">
+        <f t="shared" si="28"/>
+        <v>players["NukeTheWales"][4] = players["NukeTheWales"][4] + 3;</v>
+      </c>
+      <c r="U176" t="str">
+        <f t="shared" ref="U176:U177" si="31">O176</f>
+        <v>// MSL Summer Split '21 Lower Bracket Semifinals</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="29"/>
+        <v>212</v>
+      </c>
+      <c r="C177" t="s">
+        <v>242</v>
+      </c>
+      <c r="D177" t="s">
+        <v>71</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F177" t="s">
+        <v>298</v>
+      </c>
+      <c r="G177" t="s">
+        <v>237</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="17"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["Slosh"][0], WHResult.Player1Win, 212);</v>
+      </c>
+      <c r="I177" t="str">
+        <f t="shared" si="18"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["Slosh"][0], WHResult.Player2Win, 212);</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="19"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["Slosh"][0], WHResult.Player1Win, 212);</v>
+      </c>
+      <c r="K177" t="str">
+        <f t="shared" si="20"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["Slosh"][0], WHResult.Player2Win, 212);</v>
+      </c>
+      <c r="L177" t="str">
+        <f t="shared" si="21"/>
+        <v>whr.CreateGame(players["Mylo Grams"][0], players["Slosh"][0], WHResult.Player1Win, 212);</v>
+      </c>
+      <c r="M177" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N177" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O177" t="str">
+        <f t="shared" si="30"/>
+        <v>// MSL Summer Split '21 Lower Bracket Semifinals</v>
+      </c>
+      <c r="P177" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">players["Mylo Grams"][1]++; players["Slosh"][2]++; </v>
+      </c>
+      <c r="Q177" t="str">
+        <f t="shared" si="25"/>
+        <v>players["Mylo Grams"][3] = players["Mylo Grams"][3] + 3;</v>
+      </c>
+      <c r="R177" t="str">
+        <f t="shared" si="26"/>
+        <v>players["Slosh"][3] = players["Slosh"][3] + 2;</v>
+      </c>
+      <c r="S177" t="str">
+        <f t="shared" si="27"/>
+        <v>players["Mylo Grams"][4] = players["Mylo Grams"][4] + 2;</v>
+      </c>
+      <c r="T177" t="str">
+        <f t="shared" si="28"/>
+        <v>players["Slosh"][4] = players["Slosh"][4] + 3;</v>
+      </c>
+      <c r="U177" t="str">
+        <f t="shared" si="31"/>
+        <v>// MSL Summer Split '21 Lower Bracket Semifinals</v>
       </c>
     </row>
   </sheetData>
